--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -140,40 +135,44 @@
   </si>
   <si>
     <t>DEAD</t>
+  </si>
+  <si>
+    <t>15/03/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,21 +188,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -491,14 +489,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -542,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -554,28 +556,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>60</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -583,7 +585,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -595,28 +597,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -624,7 +626,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -636,28 +638,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>450</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>348</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -665,7 +667,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -677,28 +679,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>97</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>77</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -706,7 +708,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -718,28 +720,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>78</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>54</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -747,7 +749,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -759,28 +761,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1200</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>977</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>84</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>131</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -788,7 +790,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -800,28 +802,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>101</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>68</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -829,7 +831,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -841,28 +843,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>102</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>86</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -870,7 +872,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -882,28 +884,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>65</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>44</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -911,7 +913,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -923,28 +925,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>82</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>54</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -952,7 +954,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -964,28 +966,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>490</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>348</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>73</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>41</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>36</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -993,7 +995,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1005,28 +1007,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>97</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>42</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1034,7 +1036,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1046,28 +1048,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>110</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>78</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>54</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1075,7 +1077,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1087,28 +1089,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1250</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>977</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>84</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>131</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1116,7 +1118,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1128,28 +1130,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>68</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>68</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1157,7 +1159,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1169,28 +1171,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>110</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>86</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>86</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1198,7 +1200,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1210,28 +1212,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>68</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>44</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1239,7 +1241,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1251,28 +1253,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>88</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>28</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1280,7 +1282,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1292,28 +1294,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>530</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>348</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>73</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1321,7 +1323,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1333,28 +1335,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>97</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>77</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>42</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1362,7 +1364,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1374,28 +1376,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>112</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>78</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>54</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1403,7 +1405,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1415,28 +1417,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1280</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>977</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>84</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>57</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>131</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1444,7 +1446,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1456,28 +1458,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>108</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>68</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>68</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1485,7 +1487,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1497,28 +1499,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>115</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>86</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>86</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1526,7 +1528,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1538,28 +1540,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>70</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>44</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>18</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1567,7 +1569,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1579,28 +1581,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>88</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>54</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>28</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1608,7 +1610,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1620,28 +1622,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>531</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>348</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>73</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>41</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>36</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1649,7 +1651,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1661,28 +1663,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>97</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>77</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>42</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1690,7 +1692,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1702,28 +1704,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>114</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>78</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>54</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>12</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1731,7 +1733,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1743,28 +1745,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>1300</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>977</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>84</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>57</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>131</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1772,7 +1774,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1784,28 +1786,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>108</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>68</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>68</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1813,7 +1815,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1825,28 +1827,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>120</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>86</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>86</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1854,7 +1856,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1866,28 +1868,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>76</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>44</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>18</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1895,7 +1897,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1907,28 +1909,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>88</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>54</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1936,7 +1938,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -1948,28 +1950,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>531</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>348</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>73</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>41</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>36</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -1977,7 +1979,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -1989,28 +1991,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>97</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>77</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>42</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2018,7 +2020,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2030,28 +2032,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>114</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>78</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>54</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>12</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2059,7 +2061,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2071,28 +2073,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1310</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>977</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>84</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>57</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>131</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2100,7 +2102,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2112,28 +2114,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>108</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>68</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>68</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2141,7 +2143,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2153,28 +2155,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>122</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>86</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>86</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2182,7 +2184,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2194,28 +2196,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>76</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>44</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>18</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2223,7 +2225,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2235,28 +2237,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>88</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>54</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>28</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2264,7 +2266,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2276,28 +2278,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>531</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>348</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>73</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>41</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>36</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2305,7 +2307,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2317,28 +2319,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>97</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>77</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>42</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2346,7 +2348,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2358,28 +2360,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>114</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>78</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>54</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>12</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2387,7 +2389,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2399,28 +2401,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1314</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>977</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>84</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>57</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>131</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2428,7 +2430,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2440,28 +2442,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>108</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>68</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>68</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2469,7 +2471,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2481,28 +2483,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>122</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>86</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>86</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>8</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2510,7 +2512,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2522,28 +2524,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>76</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>44</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>18</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2551,7 +2553,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2563,28 +2565,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>88</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>54</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>28</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2592,7 +2594,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2604,28 +2606,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>531</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>348</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>73</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>36</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2633,7 +2635,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2645,28 +2647,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>97</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>77</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>42</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2674,7 +2676,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2686,28 +2688,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>114</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>78</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>54</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>12</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2715,7 +2717,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2727,28 +2729,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>1314</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>977</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>84</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>57</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>131</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2756,7 +2758,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2768,28 +2770,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>108</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>68</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>68</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2797,7 +2799,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2809,41 +2811,364 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>124</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>86</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>86</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>8</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>7</v>
       </c>
       <c r="M57" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="n">
+        <v>76</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>44</v>
+      </c>
+      <c r="H58" t="n">
+        <v>18</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="n">
+        <v>88</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>54</v>
+      </c>
+      <c r="H59" t="n">
+        <v>28</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="n">
+        <v>531</v>
+      </c>
+      <c r="F60" t="n">
+        <v>348</v>
+      </c>
+      <c r="G60" t="n">
+        <v>73</v>
+      </c>
+      <c r="H60" t="n">
+        <v>41</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>36</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>31</v>
+      </c>
+      <c r="M60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>97</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>77</v>
+      </c>
+      <c r="H61" t="n">
+        <v>42</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="n">
+        <v>114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>78</v>
+      </c>
+      <c r="H62" t="n">
+        <v>54</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1314</v>
+      </c>
+      <c r="F63" t="n">
+        <v>977</v>
+      </c>
+      <c r="G63" t="n">
+        <v>84</v>
+      </c>
+      <c r="H63" t="n">
+        <v>57</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>131</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>125</v>
+      </c>
+      <c r="M63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="n">
+        <v>108</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>68</v>
+      </c>
+      <c r="H64" t="n">
+        <v>68</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="n">
+        <v>124</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>86</v>
+      </c>
+      <c r="H65" t="n">
+        <v>86</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>7</v>
+      </c>
+      <c r="M65" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="40">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -135,44 +140,40 @@
   </si>
   <si>
     <t>DEAD</t>
-  </si>
-  <si>
-    <t>15/03/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -188,20 +189,21 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -489,18 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -544,7 +542,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -556,28 +554,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>60</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>44</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -585,7 +583,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -597,28 +595,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>54</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -626,7 +624,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -638,28 +636,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>450</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>348</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>73</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>41</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>36</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -667,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -679,28 +677,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>97</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>77</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>42</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -708,7 +706,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -720,28 +718,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>78</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>54</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -749,7 +747,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -761,28 +759,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1200</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>977</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>84</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>57</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>131</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -790,7 +788,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -802,28 +800,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>101</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>68</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>68</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -831,7 +829,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -843,28 +841,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>102</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>86</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>86</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -872,7 +870,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -884,28 +882,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>65</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>44</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -913,7 +911,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -925,28 +923,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>82</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>54</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -954,7 +952,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -966,28 +964,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>490</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>348</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>73</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>41</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>36</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -995,7 +993,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1007,28 +1005,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>97</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>77</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>42</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1036,7 +1034,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1048,28 +1046,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>110</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>78</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>54</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1077,7 +1075,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1089,28 +1087,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1250</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>977</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>84</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>57</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>131</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1118,7 +1116,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1130,28 +1128,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>105</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>68</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>68</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1159,7 +1157,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1171,28 +1169,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>110</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>86</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>86</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>8</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1200,7 +1198,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1212,28 +1210,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>68</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>44</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>18</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1241,7 +1239,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1253,28 +1251,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>88</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>54</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>28</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1282,7 +1280,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1294,28 +1292,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>530</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>348</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>73</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>41</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>36</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1323,7 +1321,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1335,28 +1333,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>97</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>77</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>42</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1364,7 +1362,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1376,28 +1374,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>112</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>78</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>54</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1405,7 +1403,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1417,28 +1415,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1280</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>977</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>84</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>57</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>131</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1446,7 +1444,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1458,28 +1456,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>108</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>68</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>68</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1487,7 +1485,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1499,28 +1497,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>115</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>86</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>86</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1528,7 +1526,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1540,28 +1538,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>70</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>44</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>18</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1569,7 +1567,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1581,28 +1579,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>88</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>54</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>28</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1610,7 +1608,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1622,28 +1620,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>531</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>348</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>73</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>36</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1651,7 +1649,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1663,28 +1661,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>97</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>77</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>42</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1692,7 +1690,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1704,28 +1702,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>114</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>78</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>54</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>12</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1733,7 +1731,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1745,28 +1743,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1300</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>977</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>84</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>57</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>131</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1774,7 +1772,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1786,28 +1784,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>108</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>68</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>68</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1815,7 +1813,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1827,28 +1825,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>120</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>86</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>86</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1856,7 +1854,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1868,28 +1866,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>76</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>44</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>18</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1897,7 +1895,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1909,28 +1907,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>88</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>54</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>28</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1938,7 +1936,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -1950,28 +1948,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>531</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>348</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>73</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>41</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>36</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -1979,7 +1977,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -1991,28 +1989,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>97</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>77</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>42</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>3</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2020,7 +2018,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2032,28 +2030,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>114</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>78</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>54</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>12</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2061,7 +2059,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2073,28 +2071,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1310</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>977</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>84</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>57</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>7</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>131</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2102,7 +2100,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2114,28 +2112,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>108</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>68</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>68</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2143,7 +2141,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2155,28 +2153,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>122</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>86</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>86</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>8</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2184,7 +2182,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2196,28 +2194,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>76</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>44</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>18</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2225,7 +2223,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2237,28 +2235,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>88</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>54</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>28</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2266,7 +2264,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2278,28 +2276,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>531</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>348</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>73</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>41</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>36</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2307,7 +2305,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2319,28 +2317,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>97</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>77</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>42</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2348,7 +2346,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2360,28 +2358,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>114</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>78</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>54</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>12</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2389,7 +2387,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2401,28 +2399,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>1314</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>977</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>84</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>57</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>131</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>2</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2430,7 +2428,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2442,28 +2440,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>108</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>68</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>68</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2471,7 +2469,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2483,28 +2481,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>122</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>86</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>86</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>8</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2512,7 +2510,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2524,28 +2522,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>76</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>44</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>18</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2553,7 +2551,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2565,28 +2563,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>88</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>54</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>28</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2594,7 +2592,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2606,28 +2604,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>531</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>348</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>73</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>41</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>36</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2635,7 +2633,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2647,28 +2645,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>97</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>77</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>42</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2676,7 +2674,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2688,28 +2686,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>114</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>78</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>54</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>12</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2717,7 +2715,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2729,28 +2727,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>1314</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>977</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>84</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>57</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>131</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2758,7 +2756,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2770,28 +2768,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>108</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>68</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>68</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2799,7 +2797,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2811,28 +2809,28 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>124</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>86</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>86</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>8</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>7</v>
       </c>
       <c r="M57" t="s">
@@ -2840,8 +2838,8 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" t="s">
-        <v>40</v>
+      <c r="A58" s="1">
+        <v>43542</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -2852,28 +2850,28 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>76</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>44</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>18</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>3</v>
       </c>
       <c r="M58" t="s">
@@ -2881,8 +2879,8 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" t="s">
-        <v>40</v>
+      <c r="A59" s="1">
+        <v>43542</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
@@ -2893,28 +2891,28 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>88</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>54</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>28</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
       <c r="M59" t="s">
@@ -2922,8 +2920,8 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" t="s">
-        <v>40</v>
+      <c r="A60" s="1">
+        <v>43542</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -2934,28 +2932,28 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>531</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>348</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>73</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>41</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>36</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>31</v>
       </c>
       <c r="M60" t="s">
@@ -2963,8 +2961,8 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" t="s">
-        <v>40</v>
+      <c r="A61" s="1">
+        <v>43542</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
@@ -2975,28 +2973,28 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>97</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>77</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>42</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>3</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>2</v>
       </c>
       <c r="M61" t="s">
@@ -3004,8 +3002,8 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" t="s">
-        <v>40</v>
+      <c r="A62" s="1">
+        <v>43542</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3016,28 +3014,28 @@
       <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>114</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>78</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>54</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>12</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -3045,8 +3043,8 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" t="s">
-        <v>40</v>
+      <c r="A63" s="1">
+        <v>43542</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
@@ -3057,28 +3055,28 @@
       <c r="D63" t="s">
         <v>31</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>1314</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>977</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>84</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>57</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>131</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>125</v>
       </c>
       <c r="M63" t="s">
@@ -3086,8 +3084,8 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>40</v>
+      <c r="A64" s="1">
+        <v>43542</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
@@ -3098,28 +3096,28 @@
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>108</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>68</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>68</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>2</v>
       </c>
       <c r="M64" t="s">
@@ -3127,8 +3125,8 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" t="s">
-        <v>40</v>
+      <c r="A65" s="1">
+        <v>43542</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
@@ -3139,36 +3137,369 @@
       <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>124</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>86</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>86</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>8</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>7</v>
       </c>
       <c r="M65" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>76</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>44</v>
+      </c>
+      <c r="H66">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>88</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>54</v>
+      </c>
+      <c r="H67">
+        <v>28</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>531</v>
+      </c>
+      <c r="F68">
+        <v>348</v>
+      </c>
+      <c r="G68">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>41</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>31</v>
+      </c>
+      <c r="M68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69">
+        <v>97</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>77</v>
+      </c>
+      <c r="H69">
+        <v>42</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>114</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>78</v>
+      </c>
+      <c r="H70">
+        <v>54</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>8</v>
+      </c>
+      <c r="M70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71">
+        <v>1314</v>
+      </c>
+      <c r="F71">
+        <v>977</v>
+      </c>
+      <c r="G71">
+        <v>84</v>
+      </c>
+      <c r="H71">
+        <v>57</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>131</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>125</v>
+      </c>
+      <c r="M71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72">
+        <v>108</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>68</v>
+      </c>
+      <c r="H72">
+        <v>68</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>124</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>86</v>
+      </c>
+      <c r="H73">
+        <v>86</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -140,40 +135,53 @@
   </si>
   <si>
     <t>DEAD</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>974146599436745_1067138646804206</t>
+  </si>
+  <si>
+    <t>2019-03-19T09:01:07</t>
+  </si>
+  <si>
+    <t>Pateste ligo like na do kati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,21 +197,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -491,14 +498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -542,7 +553,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -554,28 +565,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>60</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -583,7 +594,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -595,28 +606,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -624,7 +635,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -636,28 +647,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>450</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>348</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -665,7 +676,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -677,28 +688,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>97</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>77</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -706,7 +717,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -718,28 +729,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>78</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>54</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -747,7 +758,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -759,28 +770,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1200</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>977</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>84</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>131</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -788,7 +799,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -800,28 +811,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>101</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>68</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -829,7 +840,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -841,28 +852,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>102</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>86</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -870,7 +881,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -882,28 +893,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>65</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>44</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -911,7 +922,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -923,28 +934,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>82</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>54</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -952,7 +963,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -964,28 +975,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>490</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>348</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>73</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>41</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>36</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -993,7 +1004,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1005,28 +1016,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>97</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>42</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1034,7 +1045,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1046,28 +1057,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>110</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>78</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>54</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1075,7 +1086,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1087,28 +1098,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1250</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>977</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>84</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>131</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1116,7 +1127,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1128,28 +1139,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>68</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>68</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1157,7 +1168,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1169,28 +1180,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>110</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>86</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>86</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1198,7 +1209,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1210,28 +1221,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>68</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>44</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1239,7 +1250,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1251,28 +1262,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>88</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>28</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1280,7 +1291,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1292,28 +1303,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>530</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>348</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>73</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1321,7 +1332,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1333,28 +1344,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>97</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>77</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>42</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1362,7 +1373,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1374,28 +1385,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>112</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>78</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>54</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1403,7 +1414,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1415,28 +1426,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1280</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>977</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>84</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>57</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>131</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1444,7 +1455,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1456,28 +1467,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>108</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>68</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>68</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1485,7 +1496,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1497,28 +1508,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>115</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>86</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>86</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1526,7 +1537,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1538,28 +1549,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>70</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>44</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>18</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1567,7 +1578,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1579,28 +1590,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>88</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>54</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>28</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1608,7 +1619,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1620,28 +1631,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>531</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>348</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>73</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>41</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>36</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1649,7 +1660,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1661,28 +1672,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>97</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>77</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>42</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1690,7 +1701,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1702,28 +1713,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>114</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>78</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>54</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>12</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1731,7 +1742,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1743,28 +1754,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>1300</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>977</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>84</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>57</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>131</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1772,7 +1783,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1784,28 +1795,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>108</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>68</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>68</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1813,7 +1824,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1825,28 +1836,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>120</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>86</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>86</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1854,7 +1865,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1866,28 +1877,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>76</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>44</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>18</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1895,7 +1906,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1907,28 +1918,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>88</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>54</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1936,7 +1947,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -1948,28 +1959,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>531</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>348</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>73</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>41</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>36</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -1977,7 +1988,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -1989,28 +2000,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>97</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>77</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>42</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2018,7 +2029,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2030,28 +2041,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>114</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>78</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>54</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>12</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2059,7 +2070,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2071,28 +2082,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1310</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>977</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>84</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>57</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>131</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2100,7 +2111,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2112,28 +2123,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>108</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>68</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>68</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2141,7 +2152,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2153,28 +2164,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>122</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>86</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>86</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2182,7 +2193,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2194,28 +2205,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>76</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>44</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>18</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2223,7 +2234,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2235,28 +2246,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>88</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>54</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>28</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2264,7 +2275,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2276,28 +2287,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>531</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>348</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>73</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>41</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>36</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2305,7 +2316,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2317,28 +2328,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>97</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>77</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>42</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2346,7 +2357,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2358,28 +2369,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>114</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>78</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>54</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>12</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2387,7 +2398,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2399,28 +2410,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1314</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>977</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>84</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>57</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>131</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2428,7 +2439,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2440,28 +2451,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>108</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>68</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>68</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2469,7 +2480,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2481,28 +2492,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>122</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>86</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>86</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>8</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2510,7 +2521,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2522,28 +2533,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>76</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>44</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>18</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2551,7 +2562,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2563,28 +2574,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>88</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>54</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>28</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2592,7 +2603,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2604,28 +2615,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>531</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>348</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>73</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>36</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2633,7 +2644,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2645,28 +2656,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>97</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>77</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>42</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2674,7 +2685,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2686,28 +2697,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>114</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>78</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>54</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>12</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2715,7 +2726,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2727,28 +2738,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>1314</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>977</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>84</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>57</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>131</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2756,7 +2767,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2768,28 +2779,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>108</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>68</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>68</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2797,7 +2808,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2809,28 +2820,28 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>124</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>86</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>86</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>8</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>7</v>
       </c>
       <c r="M57" t="s">
@@ -2838,7 +2849,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B58" t="s">
@@ -2850,28 +2861,28 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>76</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>44</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>18</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>4</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="s">
@@ -2879,7 +2890,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B59" t="s">
@@ -2891,28 +2902,28 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>88</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>54</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="s">
@@ -2920,7 +2931,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B60" t="s">
@@ -2932,28 +2943,28 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>531</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>348</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>73</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>41</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>5</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>36</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>31</v>
       </c>
       <c r="M60" t="s">
@@ -2961,7 +2972,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B61" t="s">
@@ -2973,28 +2984,28 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>97</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>42</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="s">
@@ -3002,7 +3013,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B62" t="s">
@@ -3014,28 +3025,28 @@
       <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>114</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>78</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>54</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>12</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -3043,7 +3054,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B63" t="s">
@@ -3055,28 +3066,28 @@
       <c r="D63" t="s">
         <v>31</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>1314</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>977</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>84</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>57</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>7</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>131</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>125</v>
       </c>
       <c r="M63" t="s">
@@ -3084,7 +3095,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B64" t="s">
@@ -3096,28 +3107,28 @@
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>108</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>68</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>68</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>2</v>
       </c>
       <c r="M64" t="s">
@@ -3125,7 +3136,7 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B65" t="s">
@@ -3137,28 +3148,28 @@
       <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>124</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>86</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>86</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>8</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>7</v>
       </c>
       <c r="M65" t="s">
@@ -3166,7 +3177,7 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B66" t="s">
@@ -3178,28 +3189,28 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>76</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>44</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>18</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>4</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>3</v>
       </c>
       <c r="M66" t="s">
@@ -3207,7 +3218,7 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B67" t="s">
@@ -3219,28 +3230,28 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>88</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>54</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>28</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="s">
@@ -3248,7 +3259,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B68" t="s">
@@ -3260,28 +3271,28 @@
       <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>531</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>348</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>73</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>41</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>5</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>36</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>31</v>
       </c>
       <c r="M68" t="s">
@@ -3289,7 +3300,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B69" t="s">
@@ -3301,28 +3312,28 @@
       <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>97</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>77</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>42</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>2</v>
       </c>
       <c r="M69" t="s">
@@ -3330,7 +3341,7 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B70" t="s">
@@ -3342,28 +3353,28 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>114</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>78</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>54</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>12</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>8</v>
       </c>
       <c r="M70" t="s">
@@ -3371,7 +3382,7 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B71" t="s">
@@ -3383,28 +3394,28 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>1314</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>977</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>84</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>57</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>7</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>131</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>2</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="n">
         <v>125</v>
       </c>
       <c r="M71" t="s">
@@ -3412,7 +3423,7 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B72" t="s">
@@ -3424,28 +3435,28 @@
       <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>108</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>68</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>68</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>2</v>
       </c>
       <c r="M72" t="s">
@@ -3453,7 +3464,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B73" t="s">
@@ -3465,41 +3476,405 @@
       <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>124</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>86</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>86</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>8</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>7</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>76</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>44</v>
+      </c>
+      <c r="H74" t="n">
+        <v>18</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="n">
+        <v>88</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>54</v>
+      </c>
+      <c r="H75" t="n">
+        <v>28</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="n">
+        <v>531</v>
+      </c>
+      <c r="F76" t="n">
+        <v>348</v>
+      </c>
+      <c r="G76" t="n">
+        <v>73</v>
+      </c>
+      <c r="H76" t="n">
+        <v>41</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>36</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>31</v>
+      </c>
+      <c r="M76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="n">
+        <v>97</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77</v>
+      </c>
+      <c r="H77" t="n">
+        <v>42</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="n">
+        <v>114</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>78</v>
+      </c>
+      <c r="H78" t="n">
+        <v>54</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8</v>
+      </c>
+      <c r="M78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1314</v>
+      </c>
+      <c r="F79" t="n">
+        <v>977</v>
+      </c>
+      <c r="G79" t="n">
+        <v>84</v>
+      </c>
+      <c r="H79" t="n">
+        <v>57</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>131</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>125</v>
+      </c>
+      <c r="M79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="n">
+        <v>108</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>68</v>
+      </c>
+      <c r="H80" t="n">
+        <v>68</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="n">
+        <v>127</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>86</v>
+      </c>
+      <c r="H81" t="n">
+        <v>86</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>7</v>
+      </c>
+      <c r="M81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" t="n">
+        <v>74</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>57</v>
+      </c>
+      <c r="H82" t="n">
+        <v>57</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5</v>
+      </c>
+      <c r="M82" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="43">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -135,9 +140,6 @@
   </si>
   <si>
     <t>DEAD</t>
-  </si>
-  <si>
-    <t>19/03/2019</t>
   </si>
   <si>
     <t>974146599436745_1067138646804206</t>
@@ -152,36 +154,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,20 +198,21 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -498,18 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -553,7 +551,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -565,28 +563,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>60</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>44</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -594,7 +592,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -606,28 +604,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>54</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -635,7 +633,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -647,28 +645,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>450</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>348</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>73</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>41</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>36</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -676,7 +674,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -688,28 +686,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>97</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>77</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>42</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -717,7 +715,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -729,28 +727,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>78</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>54</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -758,7 +756,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -770,28 +768,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1200</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>977</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>84</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>57</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>131</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -799,7 +797,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -811,28 +809,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>101</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>68</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>68</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -840,7 +838,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -852,28 +850,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>102</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>86</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>86</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -881,7 +879,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -893,28 +891,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>65</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>44</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -922,7 +920,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -934,28 +932,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>82</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>54</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -963,7 +961,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -975,28 +973,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>490</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>348</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>73</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>41</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>36</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -1004,7 +1002,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1016,28 +1014,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>97</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>77</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>42</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1045,7 +1043,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1057,28 +1055,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>110</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>78</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>54</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1086,7 +1084,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1098,28 +1096,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1250</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>977</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>84</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>57</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>131</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1127,7 +1125,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1139,28 +1137,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>105</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>68</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>68</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1168,7 +1166,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1180,28 +1178,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>110</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>86</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>86</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>8</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1209,7 +1207,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1221,28 +1219,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>68</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>44</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>18</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1250,7 +1248,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1262,28 +1260,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>88</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>54</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>28</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1291,7 +1289,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1303,28 +1301,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>530</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>348</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>73</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>41</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>36</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1332,7 +1330,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1344,28 +1342,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>97</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>77</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>42</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1373,7 +1371,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1385,28 +1383,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>112</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>78</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>54</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1414,7 +1412,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1426,28 +1424,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1280</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>977</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>84</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>57</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>131</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1455,7 +1453,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1467,28 +1465,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>108</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>68</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>68</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1496,7 +1494,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1508,28 +1506,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>115</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>86</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>86</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1537,7 +1535,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1549,28 +1547,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>70</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>44</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>18</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1578,7 +1576,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1590,28 +1588,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>88</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>54</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>28</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1619,7 +1617,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1631,28 +1629,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>531</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>348</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>73</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>36</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1660,7 +1658,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1672,28 +1670,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>97</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>77</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>42</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1701,7 +1699,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1713,28 +1711,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>114</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>78</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>54</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>12</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1742,7 +1740,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1754,28 +1752,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1300</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>977</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>84</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>57</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>131</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1783,7 +1781,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1795,28 +1793,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>108</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>68</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>68</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1824,7 +1822,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1836,28 +1834,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>120</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>86</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>86</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1865,7 +1863,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1877,28 +1875,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>76</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>44</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>18</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1906,7 +1904,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1918,28 +1916,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>88</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>54</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>28</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1947,7 +1945,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -1959,28 +1957,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>531</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>348</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>73</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>41</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>36</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -1988,7 +1986,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -2000,28 +1998,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>97</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>77</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>42</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>3</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2029,7 +2027,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2041,28 +2039,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>114</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>78</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>54</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>12</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2070,7 +2068,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2082,28 +2080,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1310</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>977</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>84</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>57</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>7</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>131</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2111,7 +2109,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2123,28 +2121,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>108</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>68</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>68</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2152,7 +2150,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2164,28 +2162,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>122</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>86</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>86</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>8</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2193,7 +2191,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2205,28 +2203,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>76</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>44</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>18</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2234,7 +2232,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2246,28 +2244,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>88</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>54</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>28</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2275,7 +2273,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2287,28 +2285,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>531</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>348</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>73</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>41</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>36</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2316,7 +2314,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2328,28 +2326,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>97</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>77</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>42</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2357,7 +2355,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2369,28 +2367,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>114</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>78</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>54</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>12</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2398,7 +2396,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2410,28 +2408,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>1314</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>977</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>84</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>57</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>131</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>2</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2439,7 +2437,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2451,28 +2449,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>108</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>68</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>68</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2480,7 +2478,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2492,28 +2490,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>122</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>86</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>86</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>8</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2521,7 +2519,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2533,28 +2531,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>76</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>44</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>18</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2562,7 +2560,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2574,28 +2572,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>88</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>54</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>28</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2603,7 +2601,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2615,28 +2613,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>531</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>348</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>73</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>41</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>36</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2644,7 +2642,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2656,28 +2654,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>97</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>77</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>42</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2685,7 +2683,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2697,28 +2695,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>114</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>78</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>54</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>12</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2726,7 +2724,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2738,28 +2736,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>1314</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>977</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>84</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>57</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>131</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2767,7 +2765,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2779,28 +2777,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>108</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>68</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>68</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2808,7 +2806,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2820,28 +2818,28 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>124</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>86</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>86</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>8</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>7</v>
       </c>
       <c r="M57" t="s">
@@ -2849,7 +2847,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>43542</v>
       </c>
       <c r="B58" t="s">
@@ -2861,28 +2859,28 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>76</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>44</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>18</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>3</v>
       </c>
       <c r="M58" t="s">
@@ -2890,7 +2888,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>43542</v>
       </c>
       <c r="B59" t="s">
@@ -2902,28 +2900,28 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>88</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>54</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>28</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
       <c r="M59" t="s">
@@ -2931,7 +2929,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>43542</v>
       </c>
       <c r="B60" t="s">
@@ -2943,28 +2941,28 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>531</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>348</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>73</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>41</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>36</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>31</v>
       </c>
       <c r="M60" t="s">
@@ -2972,7 +2970,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>43542</v>
       </c>
       <c r="B61" t="s">
@@ -2984,28 +2982,28 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>97</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>77</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>42</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>3</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>2</v>
       </c>
       <c r="M61" t="s">
@@ -3013,7 +3011,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>43542</v>
       </c>
       <c r="B62" t="s">
@@ -3025,28 +3023,28 @@
       <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>114</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>78</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>54</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>12</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -3054,7 +3052,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>43542</v>
       </c>
       <c r="B63" t="s">
@@ -3066,28 +3064,28 @@
       <c r="D63" t="s">
         <v>31</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>1314</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>977</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>84</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>57</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>131</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>125</v>
       </c>
       <c r="M63" t="s">
@@ -3095,7 +3093,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>43542</v>
       </c>
       <c r="B64" t="s">
@@ -3107,28 +3105,28 @@
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>108</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>68</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>68</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>2</v>
       </c>
       <c r="M64" t="s">
@@ -3136,7 +3134,7 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>43542</v>
       </c>
       <c r="B65" t="s">
@@ -3148,28 +3146,28 @@
       <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>124</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>86</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>86</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>8</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>7</v>
       </c>
       <c r="M65" t="s">
@@ -3177,7 +3175,7 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>43543</v>
       </c>
       <c r="B66" t="s">
@@ -3189,28 +3187,28 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>76</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>44</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>18</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
         <v>3</v>
       </c>
       <c r="M66" t="s">
@@ -3218,7 +3216,7 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>43543</v>
       </c>
       <c r="B67" t="s">
@@ -3230,28 +3228,28 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>88</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>54</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>28</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>4</v>
       </c>
       <c r="M67" t="s">
@@ -3259,7 +3257,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>43543</v>
       </c>
       <c r="B68" t="s">
@@ -3271,28 +3269,28 @@
       <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>531</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>348</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>73</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>41</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>5</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>36</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>31</v>
       </c>
       <c r="M68" t="s">
@@ -3300,7 +3298,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>43543</v>
       </c>
       <c r="B69" t="s">
@@ -3312,28 +3310,28 @@
       <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>97</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>77</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>42</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>3</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>2</v>
       </c>
       <c r="M69" t="s">
@@ -3341,7 +3339,7 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>43543</v>
       </c>
       <c r="B70" t="s">
@@ -3353,28 +3351,28 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>114</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>78</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>54</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>12</v>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
         <v>8</v>
       </c>
       <c r="M70" t="s">
@@ -3382,7 +3380,7 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>43543</v>
       </c>
       <c r="B71" t="s">
@@ -3394,28 +3392,28 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>1314</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>977</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>84</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>57</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>7</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>131</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>2</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>125</v>
       </c>
       <c r="M71" t="s">
@@ -3423,7 +3421,7 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>43543</v>
       </c>
       <c r="B72" t="s">
@@ -3435,28 +3433,28 @@
       <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>108</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>68</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>68</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>2</v>
       </c>
       <c r="M72" t="s">
@@ -3464,7 +3462,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>43543</v>
       </c>
       <c r="B73" t="s">
@@ -3476,405 +3474,451 @@
       <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73" t="n">
-        <v>124</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="E73">
+        <v>127</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>86</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>86</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>8</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
         <v>7</v>
       </c>
       <c r="M73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" t="s">
+      <c r="A74" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B74" t="s">
         <v>40</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>57</v>
+      </c>
+      <c r="H74">
+        <v>57</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>14</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E75">
         <v>76</v>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>44</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H75">
         <v>18</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
         <v>3</v>
       </c>
-      <c r="M74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" t="s">
+      <c r="M75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>88</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>54</v>
+      </c>
+      <c r="H76">
+        <v>28</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>531</v>
+      </c>
+      <c r="F77">
+        <v>348</v>
+      </c>
+      <c r="G77">
+        <v>73</v>
+      </c>
+      <c r="H77">
+        <v>41</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>31</v>
+      </c>
+      <c r="M77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>97</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78">
+        <v>42</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>114</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79">
+        <v>54</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>12</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>1314</v>
+      </c>
+      <c r="F80">
+        <v>977</v>
+      </c>
+      <c r="G80">
+        <v>84</v>
+      </c>
+      <c r="H80">
+        <v>57</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>131</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>125</v>
+      </c>
+      <c r="M80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81">
+        <v>108</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>68</v>
+      </c>
+      <c r="H81">
+        <v>68</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <v>128</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>86</v>
+      </c>
+      <c r="H82">
+        <v>86</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B83" t="s">
         <v>40</v>
       </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="n">
-        <v>88</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>54</v>
-      </c>
-      <c r="H75" t="n">
-        <v>28</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4</v>
-      </c>
-      <c r="M75" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="n">
-        <v>531</v>
-      </c>
-      <c r="F76" t="n">
-        <v>348</v>
-      </c>
-      <c r="G76" t="n">
-        <v>73</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="C83" t="s">
         <v>41</v>
       </c>
-      <c r="I76" t="n">
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>75</v>
+      </c>
+      <c r="H83">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
         <v>5</v>
       </c>
-      <c r="J76" t="n">
-        <v>36</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>31</v>
-      </c>
-      <c r="M76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" t="n">
-        <v>97</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>77</v>
-      </c>
-      <c r="H77" t="n">
-        <v>42</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" t="n">
-        <v>114</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>78</v>
-      </c>
-      <c r="H78" t="n">
-        <v>54</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>8</v>
-      </c>
-      <c r="M78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1314</v>
-      </c>
-      <c r="F79" t="n">
-        <v>977</v>
-      </c>
-      <c r="G79" t="n">
-        <v>84</v>
-      </c>
-      <c r="H79" t="n">
-        <v>57</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>131</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2</v>
-      </c>
-      <c r="L79" t="n">
-        <v>125</v>
-      </c>
-      <c r="M79" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="n">
-        <v>108</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>68</v>
-      </c>
-      <c r="H80" t="n">
-        <v>68</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2</v>
-      </c>
-      <c r="M80" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" t="n">
-        <v>127</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>86</v>
-      </c>
-      <c r="H81" t="n">
-        <v>86</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="M83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" t="n">
-        <v>74</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>57</v>
-      </c>
-      <c r="H82" t="n">
-        <v>57</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>8</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5</v>
-      </c>
-      <c r="M82" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="43">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3909,6 +3909,375 @@
         <v>5</v>
       </c>
       <c r="M83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>76</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>44</v>
+      </c>
+      <c r="H84">
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>88</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>54</v>
+      </c>
+      <c r="H85">
+        <v>28</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86">
+        <v>531</v>
+      </c>
+      <c r="F86">
+        <v>348</v>
+      </c>
+      <c r="G86">
+        <v>73</v>
+      </c>
+      <c r="H86">
+        <v>41</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>36</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>31</v>
+      </c>
+      <c r="M86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>97</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>77</v>
+      </c>
+      <c r="H87">
+        <v>42</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <v>114</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>78</v>
+      </c>
+      <c r="H88">
+        <v>54</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>12</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <v>1314</v>
+      </c>
+      <c r="F89">
+        <v>977</v>
+      </c>
+      <c r="G89">
+        <v>84</v>
+      </c>
+      <c r="H89">
+        <v>57</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>131</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>125</v>
+      </c>
+      <c r="M89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>108</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>68</v>
+      </c>
+      <c r="H90">
+        <v>68</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91">
+        <v>128</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>86</v>
+      </c>
+      <c r="H91">
+        <v>86</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92">
+        <v>105</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>78</v>
+      </c>
+      <c r="H92">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92" t="s">
         <v>38</v>
       </c>
     </row>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="43">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4279,6 +4279,375 @@
       </c>
       <c r="M92" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>76</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>44</v>
+      </c>
+      <c r="H93">
+        <v>18</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>88</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>54</v>
+      </c>
+      <c r="H94">
+        <v>28</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>531</v>
+      </c>
+      <c r="F95">
+        <v>348</v>
+      </c>
+      <c r="G95">
+        <v>73</v>
+      </c>
+      <c r="H95">
+        <v>41</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>36</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>31</v>
+      </c>
+      <c r="M95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96">
+        <v>97</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>77</v>
+      </c>
+      <c r="H96">
+        <v>42</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97">
+        <v>114</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>78</v>
+      </c>
+      <c r="H97">
+        <v>54</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>12</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>8</v>
+      </c>
+      <c r="M97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98">
+        <v>1314</v>
+      </c>
+      <c r="F98">
+        <v>977</v>
+      </c>
+      <c r="G98">
+        <v>84</v>
+      </c>
+      <c r="H98">
+        <v>57</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>131</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>125</v>
+      </c>
+      <c r="M98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99">
+        <v>108</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>68</v>
+      </c>
+      <c r="H99">
+        <v>68</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>128</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>86</v>
+      </c>
+      <c r="H100">
+        <v>86</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101">
+        <v>105</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>78</v>
+      </c>
+      <c r="H101">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="46">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Pateste ligo like na do kati</t>
+  </si>
+  <si>
+    <t>974146599436745_1071293919722012</t>
+  </si>
+  <si>
+    <t>2019-03-26T07:59:46</t>
+  </si>
+  <si>
+    <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4648,6 +4657,416 @@
       </c>
       <c r="M101" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>76</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>44</v>
+      </c>
+      <c r="H102">
+        <v>18</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>88</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>54</v>
+      </c>
+      <c r="H103">
+        <v>28</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104">
+        <v>531</v>
+      </c>
+      <c r="F104">
+        <v>348</v>
+      </c>
+      <c r="G104">
+        <v>73</v>
+      </c>
+      <c r="H104">
+        <v>41</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>36</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>31</v>
+      </c>
+      <c r="M104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105">
+        <v>97</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>77</v>
+      </c>
+      <c r="H105">
+        <v>42</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106">
+        <v>114</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>78</v>
+      </c>
+      <c r="H106">
+        <v>54</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>12</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>8</v>
+      </c>
+      <c r="M106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>1314</v>
+      </c>
+      <c r="F107">
+        <v>977</v>
+      </c>
+      <c r="G107">
+        <v>84</v>
+      </c>
+      <c r="H107">
+        <v>57</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>131</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>125</v>
+      </c>
+      <c r="M107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>108</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>68</v>
+      </c>
+      <c r="H108">
+        <v>68</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109">
+        <v>130</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>86</v>
+      </c>
+      <c r="H109">
+        <v>86</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>7</v>
+      </c>
+      <c r="M109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <v>107</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>78</v>
+      </c>
+      <c r="H110">
+        <v>78</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>9</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>9</v>
+      </c>
+      <c r="H111">
+        <v>9</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="46">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5067,6 +5067,416 @@
       </c>
       <c r="M111" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>78</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>47</v>
+      </c>
+      <c r="H112">
+        <v>18</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>90</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>56</v>
+      </c>
+      <c r="H113">
+        <v>28</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>533</v>
+      </c>
+      <c r="F114">
+        <v>348</v>
+      </c>
+      <c r="G114">
+        <v>74</v>
+      </c>
+      <c r="H114">
+        <v>41</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+      <c r="J114">
+        <v>36</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>31</v>
+      </c>
+      <c r="M114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115">
+        <v>99</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>78</v>
+      </c>
+      <c r="H115">
+        <v>42</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>80</v>
+      </c>
+      <c r="H116">
+        <v>54</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>12</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>8</v>
+      </c>
+      <c r="M116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>1316</v>
+      </c>
+      <c r="F117">
+        <v>977</v>
+      </c>
+      <c r="G117">
+        <v>85</v>
+      </c>
+      <c r="H117">
+        <v>57</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>131</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>125</v>
+      </c>
+      <c r="M117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>110</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>69</v>
+      </c>
+      <c r="H118">
+        <v>68</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119">
+        <v>132</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>87</v>
+      </c>
+      <c r="H119">
+        <v>86</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>8</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>7</v>
+      </c>
+      <c r="M119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120">
+        <v>111</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>80</v>
+      </c>
+      <c r="H120">
+        <v>78</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>10</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>699</v>
+      </c>
+      <c r="F121">
+        <v>539</v>
+      </c>
+      <c r="G121">
+        <v>87</v>
+      </c>
+      <c r="H121">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>63</v>
+      </c>
+      <c r="K121">
+        <v>12</v>
+      </c>
+      <c r="L121">
+        <v>60</v>
+      </c>
+      <c r="M121" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="46">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5476,6 +5476,416 @@
         <v>60</v>
       </c>
       <c r="M121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122">
+        <v>78</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>47</v>
+      </c>
+      <c r="H122">
+        <v>18</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>90</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>56</v>
+      </c>
+      <c r="H123">
+        <v>28</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124">
+        <v>533</v>
+      </c>
+      <c r="F124">
+        <v>348</v>
+      </c>
+      <c r="G124">
+        <v>74</v>
+      </c>
+      <c r="H124">
+        <v>41</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <v>36</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>31</v>
+      </c>
+      <c r="M124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>99</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>78</v>
+      </c>
+      <c r="H125">
+        <v>42</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>115</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>80</v>
+      </c>
+      <c r="H126">
+        <v>54</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>12</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>8</v>
+      </c>
+      <c r="M126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127">
+        <v>1316</v>
+      </c>
+      <c r="F127">
+        <v>977</v>
+      </c>
+      <c r="G127">
+        <v>85</v>
+      </c>
+      <c r="H127">
+        <v>57</v>
+      </c>
+      <c r="I127">
+        <v>7</v>
+      </c>
+      <c r="J127">
+        <v>131</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>125</v>
+      </c>
+      <c r="M127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128">
+        <v>110</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>69</v>
+      </c>
+      <c r="H128">
+        <v>68</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129">
+        <v>132</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>87</v>
+      </c>
+      <c r="H129">
+        <v>86</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>7</v>
+      </c>
+      <c r="M129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130">
+        <v>113</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>80</v>
+      </c>
+      <c r="H130">
+        <v>78</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>10</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>6</v>
+      </c>
+      <c r="M130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131">
+        <v>1417</v>
+      </c>
+      <c r="F131">
+        <v>1161</v>
+      </c>
+      <c r="G131">
+        <v>96</v>
+      </c>
+      <c r="H131">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="J131">
+        <v>133</v>
+      </c>
+      <c r="K131">
+        <v>15</v>
+      </c>
+      <c r="L131">
+        <v>129</v>
+      </c>
+      <c r="M131" t="s">
         <v>38</v>
       </c>
     </row>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="52">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -158,6 +158,40 @@
   </si>
   <si>
     <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
+  </si>
+  <si>
+    <t>974146599436745_1075111582673579</t>
+  </si>
+  <si>
+    <t>2019-04-01T15:11:30</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient 
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>974146599436745_1075115836006487</t>
+  </si>
+  <si>
+    <t>2019-04-01T15:15:26</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -510,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5887,6 +5921,498 @@
       </c>
       <c r="M131" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>82</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>50</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>4</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>94</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>59</v>
+      </c>
+      <c r="H133">
+        <v>28</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134">
+        <v>536</v>
+      </c>
+      <c r="F134">
+        <v>348</v>
+      </c>
+      <c r="G134">
+        <v>77</v>
+      </c>
+      <c r="H134">
+        <v>41</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134">
+        <v>36</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>31</v>
+      </c>
+      <c r="M134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135">
+        <v>102</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>82</v>
+      </c>
+      <c r="H135">
+        <v>42</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136">
+        <v>118</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>83</v>
+      </c>
+      <c r="H136">
+        <v>54</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>12</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>8</v>
+      </c>
+      <c r="M136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137">
+        <v>1320</v>
+      </c>
+      <c r="F137">
+        <v>977</v>
+      </c>
+      <c r="G137">
+        <v>89</v>
+      </c>
+      <c r="H137">
+        <v>57</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137">
+        <v>131</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>125</v>
+      </c>
+      <c r="M137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138">
+        <v>116</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>75</v>
+      </c>
+      <c r="H138">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>4</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139">
+        <v>141</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>95</v>
+      </c>
+      <c r="H139">
+        <v>87</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>9</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>8</v>
+      </c>
+      <c r="M139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140">
+        <v>122</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>88</v>
+      </c>
+      <c r="H140">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>11</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>7</v>
+      </c>
+      <c r="M140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141">
+        <v>1447</v>
+      </c>
+      <c r="F141">
+        <v>1162</v>
+      </c>
+      <c r="G141">
+        <v>113</v>
+      </c>
+      <c r="H141">
+        <v>90</v>
+      </c>
+      <c r="I141">
+        <v>6</v>
+      </c>
+      <c r="J141">
+        <v>135</v>
+      </c>
+      <c r="K141">
+        <v>15</v>
+      </c>
+      <c r="L141">
+        <v>131</v>
+      </c>
+      <c r="M141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142">
+        <v>3282</v>
+      </c>
+      <c r="F142">
+        <v>940</v>
+      </c>
+      <c r="G142">
+        <v>1626</v>
+      </c>
+      <c r="H142">
+        <v>122</v>
+      </c>
+      <c r="I142">
+        <v>10</v>
+      </c>
+      <c r="J142">
+        <v>207</v>
+      </c>
+      <c r="K142">
+        <v>1528</v>
+      </c>
+      <c r="L142">
+        <v>120</v>
+      </c>
+      <c r="M142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143">
+        <v>545</v>
+      </c>
+      <c r="F143">
+        <v>346</v>
+      </c>
+      <c r="G143">
+        <v>115</v>
+      </c>
+      <c r="H143">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>13</v>
+      </c>
+      <c r="J143">
+        <v>62</v>
+      </c>
+      <c r="K143">
+        <v>41</v>
+      </c>
+      <c r="L143">
+        <v>49</v>
+      </c>
+      <c r="M143" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -159,39 +154,43 @@
   <si>
     <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
   </si>
+  <si>
+    <t>01/04/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -207,21 +206,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -509,14 +507,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -560,7 +562,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -572,28 +574,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>60</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -601,7 +603,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -613,28 +615,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -642,7 +644,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -654,28 +656,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>450</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>348</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -683,7 +685,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -695,28 +697,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>97</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>77</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -724,7 +726,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -736,28 +738,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>78</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>54</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -765,7 +767,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -777,28 +779,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1200</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>977</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>84</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>131</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -806,7 +808,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -818,28 +820,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>101</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>68</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -847,7 +849,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -859,28 +861,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>102</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>86</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -888,7 +890,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -900,28 +902,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>65</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>44</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -929,7 +931,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -941,28 +943,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>82</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>54</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -970,7 +972,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -982,28 +984,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>490</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>348</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>73</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>41</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>36</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -1011,7 +1013,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1023,28 +1025,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>97</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>42</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1052,7 +1054,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1064,28 +1066,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>110</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>78</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>54</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1093,7 +1095,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1105,28 +1107,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1250</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>977</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>84</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>131</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1134,7 +1136,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1146,28 +1148,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>68</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>68</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1175,7 +1177,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1187,28 +1189,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>110</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>86</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>86</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1216,7 +1218,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1228,28 +1230,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>68</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>44</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1257,7 +1259,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1269,28 +1271,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>88</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>28</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1298,7 +1300,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1310,28 +1312,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>530</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>348</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>73</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1339,7 +1341,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1351,28 +1353,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>97</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>77</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>42</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1380,7 +1382,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1392,28 +1394,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>112</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>78</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>54</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1421,7 +1423,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1433,28 +1435,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1280</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>977</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>84</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>57</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>131</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1462,7 +1464,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1474,28 +1476,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>108</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>68</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>68</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1503,7 +1505,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1515,28 +1517,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>115</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>86</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>86</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1544,7 +1546,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1556,28 +1558,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>70</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>44</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>18</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1585,7 +1587,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1597,28 +1599,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>88</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>54</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>28</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1626,7 +1628,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1638,28 +1640,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>531</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>348</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>73</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>41</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>36</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1667,7 +1669,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1679,28 +1681,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>97</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>77</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>42</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1708,7 +1710,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1720,28 +1722,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>114</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>78</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>54</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>12</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1749,7 +1751,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1761,28 +1763,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>1300</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>977</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>84</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>57</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>131</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1790,7 +1792,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1802,28 +1804,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>108</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>68</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>68</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1831,7 +1833,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1843,28 +1845,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>120</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>86</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>86</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1872,7 +1874,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1884,28 +1886,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>76</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>44</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>18</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1913,7 +1915,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1925,28 +1927,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>88</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>54</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1954,7 +1956,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -1966,28 +1968,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>531</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>348</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>73</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>41</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>36</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -1995,7 +1997,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -2007,28 +2009,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>97</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>77</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>42</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2036,7 +2038,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2048,28 +2050,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>114</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>78</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>54</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>12</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2077,7 +2079,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2089,28 +2091,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1310</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>977</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>84</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>57</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>131</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2118,7 +2120,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2130,28 +2132,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>108</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>68</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>68</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2159,7 +2161,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2171,28 +2173,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>122</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>86</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>86</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2200,7 +2202,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2212,28 +2214,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>76</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>44</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>18</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2241,7 +2243,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2253,28 +2255,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>88</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>54</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>28</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2282,7 +2284,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2294,28 +2296,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>531</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>348</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>73</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>41</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>36</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2323,7 +2325,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2335,28 +2337,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>97</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>77</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>42</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2364,7 +2366,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2376,28 +2378,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>114</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>78</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>54</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>12</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2405,7 +2407,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2417,28 +2419,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1314</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>977</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>84</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>57</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>131</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2446,7 +2448,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2458,28 +2460,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>108</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>68</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>68</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2487,7 +2489,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2499,28 +2501,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>122</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>86</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>86</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>8</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2528,7 +2530,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2540,28 +2542,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>76</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>44</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>18</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2569,7 +2571,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2581,28 +2583,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>88</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>54</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>28</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2610,7 +2612,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2622,28 +2624,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>531</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>348</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>73</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>36</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2651,7 +2653,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2663,28 +2665,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>97</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>77</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>42</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2692,7 +2694,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2704,28 +2706,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>114</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>78</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>54</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>12</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2733,7 +2735,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2745,28 +2747,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>1314</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>977</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>84</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>57</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>131</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2774,7 +2776,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2786,28 +2788,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>108</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>68</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>68</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2815,7 +2817,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2827,28 +2829,28 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>124</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>86</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>86</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>8</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>7</v>
       </c>
       <c r="M57" t="s">
@@ -2856,7 +2858,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B58" t="s">
@@ -2868,28 +2870,28 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>76</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>44</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>18</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>4</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="s">
@@ -2897,7 +2899,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B59" t="s">
@@ -2909,28 +2911,28 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>88</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>54</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="s">
@@ -2938,7 +2940,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B60" t="s">
@@ -2950,28 +2952,28 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>531</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>348</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>73</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>41</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>5</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>36</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>31</v>
       </c>
       <c r="M60" t="s">
@@ -2979,7 +2981,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B61" t="s">
@@ -2991,28 +2993,28 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>97</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>42</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="s">
@@ -3020,7 +3022,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B62" t="s">
@@ -3032,28 +3034,28 @@
       <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>114</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>78</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>54</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>12</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -3061,7 +3063,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B63" t="s">
@@ -3073,28 +3075,28 @@
       <c r="D63" t="s">
         <v>31</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>1314</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>977</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>84</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>57</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>7</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>131</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>125</v>
       </c>
       <c r="M63" t="s">
@@ -3102,7 +3104,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B64" t="s">
@@ -3114,28 +3116,28 @@
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>108</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>68</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>68</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>2</v>
       </c>
       <c r="M64" t="s">
@@ -3143,7 +3145,7 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B65" t="s">
@@ -3155,28 +3157,28 @@
       <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>124</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>86</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>86</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>8</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>7</v>
       </c>
       <c r="M65" t="s">
@@ -3184,7 +3186,7 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B66" t="s">
@@ -3196,28 +3198,28 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>76</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>44</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>18</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>4</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>3</v>
       </c>
       <c r="M66" t="s">
@@ -3225,7 +3227,7 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B67" t="s">
@@ -3237,28 +3239,28 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>88</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>54</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>28</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="s">
@@ -3266,7 +3268,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B68" t="s">
@@ -3278,28 +3280,28 @@
       <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>531</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>348</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>73</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>41</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>5</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>36</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>31</v>
       </c>
       <c r="M68" t="s">
@@ -3307,7 +3309,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B69" t="s">
@@ -3319,28 +3321,28 @@
       <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>97</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>77</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>42</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>2</v>
       </c>
       <c r="M69" t="s">
@@ -3348,7 +3350,7 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B70" t="s">
@@ -3360,28 +3362,28 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>114</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>78</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>54</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>12</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>8</v>
       </c>
       <c r="M70" t="s">
@@ -3389,7 +3391,7 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B71" t="s">
@@ -3401,28 +3403,28 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>1314</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>977</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>84</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>57</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>7</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>131</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>2</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="n">
         <v>125</v>
       </c>
       <c r="M71" t="s">
@@ -3430,7 +3432,7 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B72" t="s">
@@ -3442,28 +3444,28 @@
       <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>108</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>68</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>68</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>2</v>
       </c>
       <c r="M72" t="s">
@@ -3471,7 +3473,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B73" t="s">
@@ -3483,28 +3485,28 @@
       <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>127</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>86</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>86</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>8</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>7</v>
       </c>
       <c r="M73" t="s">
@@ -3512,7 +3514,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B74" t="s">
@@ -3524,28 +3526,28 @@
       <c r="D74" t="s">
         <v>42</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>74</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>57</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>57</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>8</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>5</v>
       </c>
       <c r="M74" t="s">
@@ -3553,7 +3555,7 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B75" t="s">
@@ -3565,28 +3567,28 @@
       <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>76</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>44</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>18</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>3</v>
       </c>
       <c r="M75" t="s">
@@ -3594,7 +3596,7 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B76" t="s">
@@ -3606,28 +3608,28 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>88</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>54</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>28</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>4</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>4</v>
       </c>
       <c r="M76" t="s">
@@ -3635,7 +3637,7 @@
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B77" t="s">
@@ -3647,28 +3649,28 @@
       <c r="D77" t="s">
         <v>22</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>531</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>348</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>73</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>41</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>5</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>36</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>31</v>
       </c>
       <c r="M77" t="s">
@@ -3676,7 +3678,7 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B78" t="s">
@@ -3688,28 +3690,28 @@
       <c r="D78" t="s">
         <v>25</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>97</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>77</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>42</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>2</v>
       </c>
       <c r="M78" t="s">
@@ -3717,7 +3719,7 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B79" t="s">
@@ -3729,28 +3731,28 @@
       <c r="D79" t="s">
         <v>28</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>114</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>78</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>54</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>12</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>8</v>
       </c>
       <c r="M79" t="s">
@@ -3758,7 +3760,7 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B80" t="s">
@@ -3770,28 +3772,28 @@
       <c r="D80" t="s">
         <v>31</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>1314</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>977</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>84</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>57</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>7</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>131</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>2</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="n">
         <v>125</v>
       </c>
       <c r="M80" t="s">
@@ -3799,7 +3801,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B81" t="s">
@@ -3811,28 +3813,28 @@
       <c r="D81" t="s">
         <v>34</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>108</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>68</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>68</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>4</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="s">
@@ -3840,7 +3842,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B82" t="s">
@@ -3852,28 +3854,28 @@
       <c r="D82" t="s">
         <v>37</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>128</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>86</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>86</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>8</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>7</v>
       </c>
       <c r="M82" t="s">
@@ -3881,7 +3883,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B83" t="s">
@@ -3893,28 +3895,28 @@
       <c r="D83" t="s">
         <v>42</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>100</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>75</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>75</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>8</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>5</v>
       </c>
       <c r="M83" t="s">
@@ -3922,7 +3924,7 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B84" t="s">
@@ -3934,28 +3936,28 @@
       <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>76</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>44</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>18</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>4</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>3</v>
       </c>
       <c r="M84" t="s">
@@ -3963,7 +3965,7 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B85" t="s">
@@ -3975,28 +3977,28 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>88</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>54</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>28</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>4</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>4</v>
       </c>
       <c r="M85" t="s">
@@ -4004,7 +4006,7 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B86" t="s">
@@ -4016,28 +4018,28 @@
       <c r="D86" t="s">
         <v>22</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>531</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>348</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>73</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>41</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>5</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>36</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>31</v>
       </c>
       <c r="M86" t="s">
@@ -4045,7 +4047,7 @@
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B87" t="s">
@@ -4057,28 +4059,28 @@
       <c r="D87" t="s">
         <v>25</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>97</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>77</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>42</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>3</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>2</v>
       </c>
       <c r="M87" t="s">
@@ -4086,7 +4088,7 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B88" t="s">
@@ -4098,28 +4100,28 @@
       <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>114</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>78</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>54</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>12</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>8</v>
       </c>
       <c r="M88" t="s">
@@ -4127,7 +4129,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B89" t="s">
@@ -4139,28 +4141,28 @@
       <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>1314</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>977</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>84</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>57</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>7</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>131</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>2</v>
       </c>
-      <c r="L89">
+      <c r="L89" t="n">
         <v>125</v>
       </c>
       <c r="M89" t="s">
@@ -4168,7 +4170,7 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B90" t="s">
@@ -4180,28 +4182,28 @@
       <c r="D90" t="s">
         <v>34</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>108</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>68</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>68</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>4</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>2</v>
       </c>
       <c r="M90" t="s">
@@ -4209,7 +4211,7 @@
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B91" t="s">
@@ -4221,28 +4223,28 @@
       <c r="D91" t="s">
         <v>37</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>128</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>86</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>86</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>8</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>7</v>
       </c>
       <c r="M91" t="s">
@@ -4250,7 +4252,7 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B92" t="s">
@@ -4262,28 +4264,28 @@
       <c r="D92" t="s">
         <v>42</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>105</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>78</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>78</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>8</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>5</v>
       </c>
       <c r="M92" t="s">
@@ -4291,7 +4293,7 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B93" t="s">
@@ -4303,28 +4305,28 @@
       <c r="D93" t="s">
         <v>15</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>76</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>44</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>18</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>4</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>3</v>
       </c>
       <c r="M93" t="s">
@@ -4332,7 +4334,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B94" t="s">
@@ -4344,28 +4346,28 @@
       <c r="D94" t="s">
         <v>19</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>88</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>54</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>28</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>4</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>4</v>
       </c>
       <c r="M94" t="s">
@@ -4373,7 +4375,7 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B95" t="s">
@@ -4385,28 +4387,28 @@
       <c r="D95" t="s">
         <v>22</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>531</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>348</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>73</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>41</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>5</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>36</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>31</v>
       </c>
       <c r="M95" t="s">
@@ -4414,7 +4416,7 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B96" t="s">
@@ -4426,28 +4428,28 @@
       <c r="D96" t="s">
         <v>25</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>97</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>77</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>42</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>3</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>2</v>
       </c>
       <c r="M96" t="s">
@@ -4455,7 +4457,7 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B97" t="s">
@@ -4467,28 +4469,28 @@
       <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>114</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>78</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>54</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>12</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>8</v>
       </c>
       <c r="M97" t="s">
@@ -4496,7 +4498,7 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B98" t="s">
@@ -4508,28 +4510,28 @@
       <c r="D98" t="s">
         <v>31</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>1314</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>977</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>84</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>57</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>7</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>131</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>2</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="n">
         <v>125</v>
       </c>
       <c r="M98" t="s">
@@ -4537,7 +4539,7 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B99" t="s">
@@ -4549,28 +4551,28 @@
       <c r="D99" t="s">
         <v>34</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>108</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>68</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>68</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>4</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="s">
@@ -4578,7 +4580,7 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B100" t="s">
@@ -4590,28 +4592,28 @@
       <c r="D100" t="s">
         <v>37</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>128</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>86</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>86</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>8</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>7</v>
       </c>
       <c r="M100" t="s">
@@ -4619,7 +4621,7 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B101" t="s">
@@ -4631,28 +4633,28 @@
       <c r="D101" t="s">
         <v>42</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>105</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>78</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>78</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>8</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>5</v>
       </c>
       <c r="M101" t="s">
@@ -4660,7 +4662,7 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B102" t="s">
@@ -4672,28 +4674,28 @@
       <c r="D102" t="s">
         <v>15</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>76</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>44</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>18</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>4</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>3</v>
       </c>
       <c r="M102" t="s">
@@ -4701,7 +4703,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B103" t="s">
@@ -4713,28 +4715,28 @@
       <c r="D103" t="s">
         <v>19</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>88</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>54</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>28</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>4</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>4</v>
       </c>
       <c r="M103" t="s">
@@ -4742,7 +4744,7 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B104" t="s">
@@ -4754,28 +4756,28 @@
       <c r="D104" t="s">
         <v>22</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>531</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>348</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>73</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>41</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>5</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>36</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>31</v>
       </c>
       <c r="M104" t="s">
@@ -4783,7 +4785,7 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B105" t="s">
@@ -4795,28 +4797,28 @@
       <c r="D105" t="s">
         <v>25</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>97</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>77</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>42</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>3</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>2</v>
       </c>
       <c r="M105" t="s">
@@ -4824,7 +4826,7 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B106" t="s">
@@ -4836,28 +4838,28 @@
       <c r="D106" t="s">
         <v>28</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>114</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>78</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>54</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>12</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>8</v>
       </c>
       <c r="M106" t="s">
@@ -4865,7 +4867,7 @@
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B107" t="s">
@@ -4877,28 +4879,28 @@
       <c r="D107" t="s">
         <v>31</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>1314</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>977</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>84</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>57</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>7</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>131</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>2</v>
       </c>
-      <c r="L107">
+      <c r="L107" t="n">
         <v>125</v>
       </c>
       <c r="M107" t="s">
@@ -4906,7 +4908,7 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B108" t="s">
@@ -4918,28 +4920,28 @@
       <c r="D108" t="s">
         <v>34</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>108</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>68</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>68</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>4</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>2</v>
       </c>
       <c r="M108" t="s">
@@ -4947,7 +4949,7 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B109" t="s">
@@ -4959,28 +4961,28 @@
       <c r="D109" t="s">
         <v>37</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>130</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>86</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>86</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>8</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>7</v>
       </c>
       <c r="M109" t="s">
@@ -4988,7 +4990,7 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B110" t="s">
@@ -5000,28 +5002,28 @@
       <c r="D110" t="s">
         <v>42</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>107</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>78</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>78</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>9</v>
       </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>5</v>
       </c>
       <c r="M110" t="s">
@@ -5029,7 +5031,7 @@
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B111" t="s">
@@ -5041,28 +5043,28 @@
       <c r="D111" t="s">
         <v>45</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>12</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>9</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>9</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>1</v>
       </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="s">
@@ -5070,7 +5072,7 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B112" t="s">
@@ -5082,28 +5084,28 @@
       <c r="D112" t="s">
         <v>15</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>78</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>47</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>18</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>4</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>3</v>
       </c>
       <c r="M112" t="s">
@@ -5111,7 +5113,7 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B113" t="s">
@@ -5123,28 +5125,28 @@
       <c r="D113" t="s">
         <v>19</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>90</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>56</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>28</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>4</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>4</v>
       </c>
       <c r="M113" t="s">
@@ -5152,7 +5154,7 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B114" t="s">
@@ -5164,28 +5166,28 @@
       <c r="D114" t="s">
         <v>22</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>533</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>348</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>74</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>41</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>5</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>36</v>
       </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>31</v>
       </c>
       <c r="M114" t="s">
@@ -5193,7 +5195,7 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B115" t="s">
@@ -5205,28 +5207,28 @@
       <c r="D115" t="s">
         <v>25</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>99</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>78</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>42</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>3</v>
       </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
         <v>2</v>
       </c>
       <c r="M115" t="s">
@@ -5234,7 +5236,7 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B116" t="s">
@@ -5246,28 +5248,28 @@
       <c r="D116" t="s">
         <v>28</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>115</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>80</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>54</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>12</v>
       </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>8</v>
       </c>
       <c r="M116" t="s">
@@ -5275,7 +5277,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B117" t="s">
@@ -5287,28 +5289,28 @@
       <c r="D117" t="s">
         <v>31</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>1316</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>977</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>85</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>57</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>7</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>131</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>2</v>
       </c>
-      <c r="L117">
+      <c r="L117" t="n">
         <v>125</v>
       </c>
       <c r="M117" t="s">
@@ -5316,7 +5318,7 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B118" t="s">
@@ -5328,28 +5330,28 @@
       <c r="D118" t="s">
         <v>34</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>110</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>69</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>68</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>4</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>2</v>
       </c>
       <c r="M118" t="s">
@@ -5357,7 +5359,7 @@
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B119" t="s">
@@ -5369,28 +5371,28 @@
       <c r="D119" t="s">
         <v>37</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>132</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
         <v>87</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>86</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>8</v>
       </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>7</v>
       </c>
       <c r="M119" t="s">
@@ -5398,7 +5400,7 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B120" t="s">
@@ -5410,28 +5412,28 @@
       <c r="D120" t="s">
         <v>42</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>111</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
         <v>80</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>78</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>10</v>
       </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>6</v>
       </c>
       <c r="M120" t="s">
@@ -5439,7 +5441,7 @@
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B121" t="s">
@@ -5451,28 +5453,28 @@
       <c r="D121" t="s">
         <v>45</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>699</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>539</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>87</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>74</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>2</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>63</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>12</v>
       </c>
-      <c r="L121">
+      <c r="L121" t="n">
         <v>60</v>
       </c>
       <c r="M121" t="s">
@@ -5480,7 +5482,7 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B122" t="s">
@@ -5492,28 +5494,28 @@
       <c r="D122" t="s">
         <v>15</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>78</v>
       </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
         <v>47</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>18</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>4</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>3</v>
       </c>
       <c r="M122" t="s">
@@ -5521,7 +5523,7 @@
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B123" t="s">
@@ -5533,28 +5535,28 @@
       <c r="D123" t="s">
         <v>19</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>90</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
         <v>56</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>28</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>4</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>4</v>
       </c>
       <c r="M123" t="s">
@@ -5562,7 +5564,7 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B124" t="s">
@@ -5574,28 +5576,28 @@
       <c r="D124" t="s">
         <v>22</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>533</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>348</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>74</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>41</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>5</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>36</v>
       </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>31</v>
       </c>
       <c r="M124" t="s">
@@ -5603,7 +5605,7 @@
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B125" t="s">
@@ -5615,28 +5617,28 @@
       <c r="D125" t="s">
         <v>25</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>99</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
         <v>78</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>42</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>3</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="s">
@@ -5644,7 +5646,7 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B126" t="s">
@@ -5656,28 +5658,28 @@
       <c r="D126" t="s">
         <v>28</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>115</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>80</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>54</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>12</v>
       </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>8</v>
       </c>
       <c r="M126" t="s">
@@ -5685,7 +5687,7 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B127" t="s">
@@ -5697,28 +5699,28 @@
       <c r="D127" t="s">
         <v>31</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>1316</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>977</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>85</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>57</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>7</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>131</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>2</v>
       </c>
-      <c r="L127">
+      <c r="L127" t="n">
         <v>125</v>
       </c>
       <c r="M127" t="s">
@@ -5726,7 +5728,7 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B128" t="s">
@@ -5738,28 +5740,28 @@
       <c r="D128" t="s">
         <v>34</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>110</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
         <v>69</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>68</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>4</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>2</v>
       </c>
       <c r="M128" t="s">
@@ -5767,7 +5769,7 @@
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B129" t="s">
@@ -5779,28 +5781,28 @@
       <c r="D129" t="s">
         <v>37</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>132</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
         <v>87</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>86</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>8</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>7</v>
       </c>
       <c r="M129" t="s">
@@ -5808,7 +5810,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B130" t="s">
@@ -5820,28 +5822,28 @@
       <c r="D130" t="s">
         <v>42</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>113</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
         <v>80</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>78</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>10</v>
       </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>6</v>
       </c>
       <c r="M130" t="s">
@@ -5849,7 +5851,7 @@
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B131" t="s">
@@ -5861,41 +5863,446 @@
       <c r="D131" t="s">
         <v>45</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>1417</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>1161</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>96</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>82</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>6</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>133</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>15</v>
       </c>
-      <c r="L131">
+      <c r="L131" t="n">
         <v>129</v>
       </c>
       <c r="M131" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="132" spans="1:13">
+      <c r="A132" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="n">
+        <v>78</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>47</v>
+      </c>
+      <c r="H132" t="n">
+        <v>18</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3</v>
+      </c>
+      <c r="M132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="n">
+        <v>90</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>56</v>
+      </c>
+      <c r="H133" t="n">
+        <v>28</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4</v>
+      </c>
+      <c r="M133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" t="n">
+        <v>533</v>
+      </c>
+      <c r="F134" t="n">
+        <v>348</v>
+      </c>
+      <c r="G134" t="n">
+        <v>74</v>
+      </c>
+      <c r="H134" t="n">
+        <v>41</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>36</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>31</v>
+      </c>
+      <c r="M134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="n">
+        <v>99</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78</v>
+      </c>
+      <c r="H135" t="n">
+        <v>42</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="n">
+        <v>115</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>80</v>
+      </c>
+      <c r="H136" t="n">
+        <v>54</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>8</v>
+      </c>
+      <c r="M136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1316</v>
+      </c>
+      <c r="F137" t="n">
+        <v>977</v>
+      </c>
+      <c r="G137" t="n">
+        <v>85</v>
+      </c>
+      <c r="H137" t="n">
+        <v>57</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7</v>
+      </c>
+      <c r="J137" t="n">
+        <v>131</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>125</v>
+      </c>
+      <c r="M137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" t="n">
+        <v>110</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>69</v>
+      </c>
+      <c r="H138" t="n">
+        <v>68</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="n">
+        <v>132</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>87</v>
+      </c>
+      <c r="H139" t="n">
+        <v>86</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>8</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>7</v>
+      </c>
+      <c r="M139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" t="n">
+        <v>113</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>80</v>
+      </c>
+      <c r="H140" t="n">
+        <v>78</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>10</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6</v>
+      </c>
+      <c r="M140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1429</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1162</v>
+      </c>
+      <c r="G141" t="n">
+        <v>103</v>
+      </c>
+      <c r="H141" t="n">
+        <v>88</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6</v>
+      </c>
+      <c r="J141" t="n">
+        <v>134</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>130</v>
+      </c>
+      <c r="M141" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15380" windowWidth="36800" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -160,72 +155,42 @@
     <t>Otan dokimazeis skordalia kai einai pita sto skordo</t>
   </si>
   <si>
-    <t>974146599436745_1075111582673579</t>
-  </si>
-  <si>
-    <t>2019-04-01T15:11:30</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Mediocre Level of Intelligence Quotient 
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>974146599436745_1075115836006487</t>
-  </si>
-  <si>
-    <t>2019-04-01T15:15:26</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
+    <t>01/04/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -241,21 +206,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -543,14 +507,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -594,7 +562,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B2" t="s">
@@ -606,28 +574,28 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>60</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="s">
@@ -635,7 +603,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B3" t="s">
@@ -647,28 +615,28 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="s">
@@ -676,7 +644,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B4" t="s">
@@ -688,28 +656,28 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>450</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>348</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>31</v>
       </c>
       <c r="M4" t="s">
@@ -717,7 +685,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B5" t="s">
@@ -729,28 +697,28 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>97</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>77</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -758,7 +726,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B6" t="s">
@@ -770,28 +738,28 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>78</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>54</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="s">
@@ -799,7 +767,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B7" t="s">
@@ -811,28 +779,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1200</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>977</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>84</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>131</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>125</v>
       </c>
       <c r="M7" t="s">
@@ -840,7 +808,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B8" t="s">
@@ -852,28 +820,28 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>101</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>68</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -881,7 +849,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B9" t="s">
@@ -893,28 +861,28 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>102</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>86</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="s">
@@ -922,7 +890,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B10" t="s">
@@ -934,28 +902,28 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>65</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>44</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>18</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -963,7 +931,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B11" t="s">
@@ -975,28 +943,28 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>82</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>54</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="s">
@@ -1004,7 +972,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B12" t="s">
@@ -1016,28 +984,28 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>490</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>348</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>73</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>41</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>36</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -1045,7 +1013,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B13" t="s">
@@ -1057,28 +1025,28 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>97</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>42</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="s">
@@ -1086,7 +1054,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B14" t="s">
@@ -1098,28 +1066,28 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>110</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>78</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>54</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="s">
@@ -1127,7 +1095,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B15" t="s">
@@ -1139,28 +1107,28 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1250</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>977</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>84</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>131</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>125</v>
       </c>
       <c r="M15" t="s">
@@ -1168,7 +1136,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B16" t="s">
@@ -1180,28 +1148,28 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>68</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>68</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="s">
@@ -1209,7 +1177,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B17" t="s">
@@ -1221,28 +1189,28 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>110</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>86</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>86</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="s">
@@ -1250,7 +1218,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B18" t="s">
@@ -1262,28 +1230,28 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>68</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>44</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="s">
@@ -1291,7 +1259,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B19" t="s">
@@ -1303,28 +1271,28 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>88</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>28</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="s">
@@ -1332,7 +1300,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B20" t="s">
@@ -1344,28 +1312,28 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>530</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>348</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>73</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>31</v>
       </c>
       <c r="M20" t="s">
@@ -1373,7 +1341,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B21" t="s">
@@ -1385,28 +1353,28 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>97</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>77</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>42</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="s">
@@ -1414,7 +1382,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B22" t="s">
@@ -1426,28 +1394,28 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>112</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>78</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>54</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>8</v>
       </c>
       <c r="M22" t="s">
@@ -1455,7 +1423,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B23" t="s">
@@ -1467,28 +1435,28 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1280</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>977</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>84</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>57</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>131</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>125</v>
       </c>
       <c r="M23" t="s">
@@ -1496,7 +1464,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B24" t="s">
@@ -1508,28 +1476,28 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>108</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>68</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>68</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="s">
@@ -1537,7 +1505,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B25" t="s">
@@ -1549,28 +1517,28 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>115</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>86</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>86</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="s">
@@ -1578,7 +1546,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B26" t="s">
@@ -1590,28 +1558,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>70</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>44</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>18</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="s">
@@ -1619,7 +1587,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B27" t="s">
@@ -1631,28 +1599,28 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>88</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>54</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>28</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="s">
@@ -1660,7 +1628,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B28" t="s">
@@ -1672,28 +1640,28 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>531</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>348</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>73</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>41</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>36</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>31</v>
       </c>
       <c r="M28" t="s">
@@ -1701,7 +1669,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B29" t="s">
@@ -1713,28 +1681,28 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>97</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>77</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>42</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="s">
@@ -1742,7 +1710,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B30" t="s">
@@ -1754,28 +1722,28 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>114</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>78</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>54</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>12</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>8</v>
       </c>
       <c r="M30" t="s">
@@ -1783,7 +1751,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B31" t="s">
@@ -1795,28 +1763,28 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>1300</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>977</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>84</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>57</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>131</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>125</v>
       </c>
       <c r="M31" t="s">
@@ -1824,7 +1792,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B32" t="s">
@@ -1836,28 +1804,28 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>108</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>68</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>68</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="s">
@@ -1865,7 +1833,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B33" t="s">
@@ -1877,28 +1845,28 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>120</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>86</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>86</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="s">
@@ -1906,7 +1874,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B34" t="s">
@@ -1918,28 +1886,28 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>76</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>44</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>18</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="s">
@@ -1947,7 +1915,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B35" t="s">
@@ -1959,28 +1927,28 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>88</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>54</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="s">
@@ -1988,7 +1956,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B36" t="s">
@@ -2000,28 +1968,28 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>531</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>348</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>73</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>41</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>36</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>31</v>
       </c>
       <c r="M36" t="s">
@@ -2029,7 +1997,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B37" t="s">
@@ -2041,28 +2009,28 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>97</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>77</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>42</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>2</v>
       </c>
       <c r="M37" t="s">
@@ -2070,7 +2038,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B38" t="s">
@@ -2082,28 +2050,28 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>114</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>78</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>54</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>12</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>8</v>
       </c>
       <c r="M38" t="s">
@@ -2111,7 +2079,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B39" t="s">
@@ -2123,28 +2091,28 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1310</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>977</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>84</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>57</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>131</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>125</v>
       </c>
       <c r="M39" t="s">
@@ -2152,7 +2120,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B40" t="s">
@@ -2164,28 +2132,28 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>108</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>68</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>68</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>2</v>
       </c>
       <c r="M40" t="s">
@@ -2193,7 +2161,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B41" t="s">
@@ -2205,28 +2173,28 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>122</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>86</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>86</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>7</v>
       </c>
       <c r="M41" t="s">
@@ -2234,7 +2202,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B42" t="s">
@@ -2246,28 +2214,28 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>76</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>44</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>18</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="s">
@@ -2275,7 +2243,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B43" t="s">
@@ -2287,28 +2255,28 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>88</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>54</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>28</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>4</v>
       </c>
       <c r="M43" t="s">
@@ -2316,7 +2284,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B44" t="s">
@@ -2328,28 +2296,28 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>531</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>348</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>73</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>41</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>36</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>31</v>
       </c>
       <c r="M44" t="s">
@@ -2357,7 +2325,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B45" t="s">
@@ -2369,28 +2337,28 @@
       <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>97</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>77</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>42</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="s">
@@ -2398,7 +2366,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B46" t="s">
@@ -2410,28 +2378,28 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>114</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>78</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>54</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>12</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>8</v>
       </c>
       <c r="M46" t="s">
@@ -2439,7 +2407,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B47" t="s">
@@ -2451,28 +2419,28 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1314</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>977</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>84</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>57</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>131</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>125</v>
       </c>
       <c r="M47" t="s">
@@ -2480,7 +2448,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B48" t="s">
@@ -2492,28 +2460,28 @@
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>108</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>68</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>68</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="s">
@@ -2521,7 +2489,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B49" t="s">
@@ -2533,28 +2501,28 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>122</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>86</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>86</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>8</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="s">
@@ -2562,7 +2530,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B50" t="s">
@@ -2574,28 +2542,28 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>76</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>44</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>18</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="s">
@@ -2603,7 +2571,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B51" t="s">
@@ -2615,28 +2583,28 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>88</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>54</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>28</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="s">
@@ -2644,7 +2612,7 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B52" t="s">
@@ -2656,28 +2624,28 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>531</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>348</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>73</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>36</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>31</v>
       </c>
       <c r="M52" t="s">
@@ -2685,7 +2653,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B53" t="s">
@@ -2697,28 +2665,28 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>97</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>77</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>42</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
       <c r="M53" t="s">
@@ -2726,7 +2694,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B54" t="s">
@@ -2738,28 +2706,28 @@
       <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>114</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>78</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>54</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>12</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>8</v>
       </c>
       <c r="M54" t="s">
@@ -2767,7 +2735,7 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B55" t="s">
@@ -2779,28 +2747,28 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>1314</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>977</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>84</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>57</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>131</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>125</v>
       </c>
       <c r="M55" t="s">
@@ -2808,7 +2776,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B56" t="s">
@@ -2820,28 +2788,28 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>108</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>68</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>68</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="s">
@@ -2849,7 +2817,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B57" t="s">
@@ -2861,28 +2829,28 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>124</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>86</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>86</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>8</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>7</v>
       </c>
       <c r="M57" t="s">
@@ -2890,7 +2858,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B58" t="s">
@@ -2902,28 +2870,28 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>76</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>44</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>18</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>4</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="s">
@@ -2931,7 +2899,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B59" t="s">
@@ -2943,28 +2911,28 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>88</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>54</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="s">
@@ -2972,7 +2940,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B60" t="s">
@@ -2984,28 +2952,28 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>531</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>348</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>73</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>41</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>5</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>36</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>31</v>
       </c>
       <c r="M60" t="s">
@@ -3013,7 +2981,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B61" t="s">
@@ -3025,28 +2993,28 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>97</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>42</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="s">
@@ -3054,7 +3022,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B62" t="s">
@@ -3066,28 +3034,28 @@
       <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>114</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>78</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>54</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>12</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -3095,7 +3063,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B63" t="s">
@@ -3107,28 +3075,28 @@
       <c r="D63" t="s">
         <v>31</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>1314</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>977</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>84</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>57</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>7</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>131</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>125</v>
       </c>
       <c r="M63" t="s">
@@ -3136,7 +3104,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B64" t="s">
@@ -3148,28 +3116,28 @@
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>108</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>68</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>68</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>2</v>
       </c>
       <c r="M64" t="s">
@@ -3177,7 +3145,7 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B65" t="s">
@@ -3189,28 +3157,28 @@
       <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>124</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>86</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>86</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>8</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>7</v>
       </c>
       <c r="M65" t="s">
@@ -3218,7 +3186,7 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B66" t="s">
@@ -3230,28 +3198,28 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>76</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>44</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>18</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>4</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>3</v>
       </c>
       <c r="M66" t="s">
@@ -3259,7 +3227,7 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B67" t="s">
@@ -3271,28 +3239,28 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>88</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>54</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>28</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="s">
@@ -3300,7 +3268,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B68" t="s">
@@ -3312,28 +3280,28 @@
       <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>531</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>348</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>73</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>41</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>5</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>36</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>31</v>
       </c>
       <c r="M68" t="s">
@@ -3341,7 +3309,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B69" t="s">
@@ -3353,28 +3321,28 @@
       <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>97</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>77</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>42</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>2</v>
       </c>
       <c r="M69" t="s">
@@ -3382,7 +3350,7 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B70" t="s">
@@ -3394,28 +3362,28 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>114</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>78</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>54</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>12</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>8</v>
       </c>
       <c r="M70" t="s">
@@ -3423,7 +3391,7 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B71" t="s">
@@ -3435,28 +3403,28 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>1314</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>977</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>84</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>57</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>7</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>131</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>2</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="n">
         <v>125</v>
       </c>
       <c r="M71" t="s">
@@ -3464,7 +3432,7 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B72" t="s">
@@ -3476,28 +3444,28 @@
       <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>108</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>68</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>68</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>2</v>
       </c>
       <c r="M72" t="s">
@@ -3505,7 +3473,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B73" t="s">
@@ -3517,28 +3485,28 @@
       <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>127</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>86</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>86</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>8</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>7</v>
       </c>
       <c r="M73" t="s">
@@ -3546,7 +3514,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B74" t="s">
@@ -3558,28 +3526,28 @@
       <c r="D74" t="s">
         <v>42</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>74</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>57</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>57</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>8</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>5</v>
       </c>
       <c r="M74" t="s">
@@ -3587,7 +3555,7 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B75" t="s">
@@ -3599,28 +3567,28 @@
       <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>76</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>44</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>18</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>3</v>
       </c>
       <c r="M75" t="s">
@@ -3628,7 +3596,7 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B76" t="s">
@@ -3640,28 +3608,28 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>88</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>54</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>28</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>4</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>4</v>
       </c>
       <c r="M76" t="s">
@@ -3669,7 +3637,7 @@
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B77" t="s">
@@ -3681,28 +3649,28 @@
       <c r="D77" t="s">
         <v>22</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>531</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>348</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>73</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>41</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>5</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>36</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>31</v>
       </c>
       <c r="M77" t="s">
@@ -3710,7 +3678,7 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B78" t="s">
@@ -3722,28 +3690,28 @@
       <c r="D78" t="s">
         <v>25</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>97</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>77</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>42</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>2</v>
       </c>
       <c r="M78" t="s">
@@ -3751,7 +3719,7 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B79" t="s">
@@ -3763,28 +3731,28 @@
       <c r="D79" t="s">
         <v>28</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>114</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>78</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>54</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>12</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>8</v>
       </c>
       <c r="M79" t="s">
@@ -3792,7 +3760,7 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B80" t="s">
@@ -3804,28 +3772,28 @@
       <c r="D80" t="s">
         <v>31</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>1314</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>977</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>84</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>57</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>7</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>131</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>2</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="n">
         <v>125</v>
       </c>
       <c r="M80" t="s">
@@ -3833,7 +3801,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B81" t="s">
@@ -3845,28 +3813,28 @@
       <c r="D81" t="s">
         <v>34</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>108</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>68</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>68</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>4</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="s">
@@ -3874,7 +3842,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B82" t="s">
@@ -3886,28 +3854,28 @@
       <c r="D82" t="s">
         <v>37</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>128</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>86</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>86</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>8</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>7</v>
       </c>
       <c r="M82" t="s">
@@ -3915,7 +3883,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B83" t="s">
@@ -3927,28 +3895,28 @@
       <c r="D83" t="s">
         <v>42</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>100</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>75</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>75</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>8</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>5</v>
       </c>
       <c r="M83" t="s">
@@ -3956,7 +3924,7 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B84" t="s">
@@ -3968,28 +3936,28 @@
       <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>76</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>44</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>18</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>4</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>3</v>
       </c>
       <c r="M84" t="s">
@@ -3997,7 +3965,7 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B85" t="s">
@@ -4009,28 +3977,28 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>88</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>54</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>28</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>4</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>4</v>
       </c>
       <c r="M85" t="s">
@@ -4038,7 +4006,7 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B86" t="s">
@@ -4050,28 +4018,28 @@
       <c r="D86" t="s">
         <v>22</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>531</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>348</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>73</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>41</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>5</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>36</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>31</v>
       </c>
       <c r="M86" t="s">
@@ -4079,7 +4047,7 @@
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B87" t="s">
@@ -4091,28 +4059,28 @@
       <c r="D87" t="s">
         <v>25</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>97</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>77</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>42</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>3</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>2</v>
       </c>
       <c r="M87" t="s">
@@ -4120,7 +4088,7 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B88" t="s">
@@ -4132,28 +4100,28 @@
       <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>114</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>78</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>54</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>12</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>8</v>
       </c>
       <c r="M88" t="s">
@@ -4161,7 +4129,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B89" t="s">
@@ -4173,28 +4141,28 @@
       <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>1314</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>977</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>84</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>57</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>7</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>131</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>2</v>
       </c>
-      <c r="L89">
+      <c r="L89" t="n">
         <v>125</v>
       </c>
       <c r="M89" t="s">
@@ -4202,7 +4170,7 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B90" t="s">
@@ -4214,28 +4182,28 @@
       <c r="D90" t="s">
         <v>34</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>108</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>68</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>68</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>4</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>2</v>
       </c>
       <c r="M90" t="s">
@@ -4243,7 +4211,7 @@
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B91" t="s">
@@ -4255,28 +4223,28 @@
       <c r="D91" t="s">
         <v>37</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>128</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>86</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>86</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>8</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>7</v>
       </c>
       <c r="M91" t="s">
@@ -4284,7 +4252,7 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B92" t="s">
@@ -4296,28 +4264,28 @@
       <c r="D92" t="s">
         <v>42</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>105</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>78</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>78</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>8</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>5</v>
       </c>
       <c r="M92" t="s">
@@ -4325,7 +4293,7 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B93" t="s">
@@ -4337,28 +4305,28 @@
       <c r="D93" t="s">
         <v>15</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>76</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>44</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>18</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>4</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>3</v>
       </c>
       <c r="M93" t="s">
@@ -4366,7 +4334,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B94" t="s">
@@ -4378,28 +4346,28 @@
       <c r="D94" t="s">
         <v>19</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>88</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>54</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>28</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>4</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>4</v>
       </c>
       <c r="M94" t="s">
@@ -4407,7 +4375,7 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B95" t="s">
@@ -4419,28 +4387,28 @@
       <c r="D95" t="s">
         <v>22</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>531</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>348</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>73</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>41</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>5</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>36</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>31</v>
       </c>
       <c r="M95" t="s">
@@ -4448,7 +4416,7 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B96" t="s">
@@ -4460,28 +4428,28 @@
       <c r="D96" t="s">
         <v>25</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>97</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>77</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>42</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>3</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>2</v>
       </c>
       <c r="M96" t="s">
@@ -4489,7 +4457,7 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B97" t="s">
@@ -4501,28 +4469,28 @@
       <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>114</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>78</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>54</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>12</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>8</v>
       </c>
       <c r="M97" t="s">
@@ -4530,7 +4498,7 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B98" t="s">
@@ -4542,28 +4510,28 @@
       <c r="D98" t="s">
         <v>31</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>1314</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>977</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>84</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>57</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>7</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>131</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>2</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="n">
         <v>125</v>
       </c>
       <c r="M98" t="s">
@@ -4571,7 +4539,7 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B99" t="s">
@@ -4583,28 +4551,28 @@
       <c r="D99" t="s">
         <v>34</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>108</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>68</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>68</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>4</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="s">
@@ -4612,7 +4580,7 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B100" t="s">
@@ -4624,28 +4592,28 @@
       <c r="D100" t="s">
         <v>37</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>128</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>86</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>86</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>8</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>7</v>
       </c>
       <c r="M100" t="s">
@@ -4653,7 +4621,7 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B101" t="s">
@@ -4665,28 +4633,28 @@
       <c r="D101" t="s">
         <v>42</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>105</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>78</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>78</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>8</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>5</v>
       </c>
       <c r="M101" t="s">
@@ -4694,7 +4662,7 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B102" t="s">
@@ -4706,28 +4674,28 @@
       <c r="D102" t="s">
         <v>15</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>76</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>44</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>18</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>4</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>3</v>
       </c>
       <c r="M102" t="s">
@@ -4735,7 +4703,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B103" t="s">
@@ -4747,28 +4715,28 @@
       <c r="D103" t="s">
         <v>19</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>88</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>54</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>28</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>4</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>4</v>
       </c>
       <c r="M103" t="s">
@@ -4776,7 +4744,7 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B104" t="s">
@@ -4788,28 +4756,28 @@
       <c r="D104" t="s">
         <v>22</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>531</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>348</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>73</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>41</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>5</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>36</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>31</v>
       </c>
       <c r="M104" t="s">
@@ -4817,7 +4785,7 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B105" t="s">
@@ -4829,28 +4797,28 @@
       <c r="D105" t="s">
         <v>25</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>97</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>77</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>42</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>3</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>2</v>
       </c>
       <c r="M105" t="s">
@@ -4858,7 +4826,7 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B106" t="s">
@@ -4870,28 +4838,28 @@
       <c r="D106" t="s">
         <v>28</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>114</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>78</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>54</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>12</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>8</v>
       </c>
       <c r="M106" t="s">
@@ -4899,7 +4867,7 @@
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B107" t="s">
@@ -4911,28 +4879,28 @@
       <c r="D107" t="s">
         <v>31</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>1314</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>977</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>84</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>57</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>7</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>131</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>2</v>
       </c>
-      <c r="L107">
+      <c r="L107" t="n">
         <v>125</v>
       </c>
       <c r="M107" t="s">
@@ -4940,7 +4908,7 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B108" t="s">
@@ -4952,28 +4920,28 @@
       <c r="D108" t="s">
         <v>34</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>108</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>68</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>68</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>4</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>2</v>
       </c>
       <c r="M108" t="s">
@@ -4981,7 +4949,7 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B109" t="s">
@@ -4993,28 +4961,28 @@
       <c r="D109" t="s">
         <v>37</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>130</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>86</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>86</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>8</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>7</v>
       </c>
       <c r="M109" t="s">
@@ -5022,7 +4990,7 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B110" t="s">
@@ -5034,28 +5002,28 @@
       <c r="D110" t="s">
         <v>42</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>107</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>78</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>78</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>9</v>
       </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>5</v>
       </c>
       <c r="M110" t="s">
@@ -5063,7 +5031,7 @@
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B111" t="s">
@@ -5075,28 +5043,28 @@
       <c r="D111" t="s">
         <v>45</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>12</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>9</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>9</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>1</v>
       </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="s">
@@ -5104,7 +5072,7 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B112" t="s">
@@ -5116,28 +5084,28 @@
       <c r="D112" t="s">
         <v>15</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>78</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>47</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>18</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>4</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>3</v>
       </c>
       <c r="M112" t="s">
@@ -5145,7 +5113,7 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B113" t="s">
@@ -5157,28 +5125,28 @@
       <c r="D113" t="s">
         <v>19</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>90</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>56</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>28</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>4</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>4</v>
       </c>
       <c r="M113" t="s">
@@ -5186,7 +5154,7 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B114" t="s">
@@ -5198,28 +5166,28 @@
       <c r="D114" t="s">
         <v>22</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>533</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>348</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>74</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>41</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>5</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>36</v>
       </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>31</v>
       </c>
       <c r="M114" t="s">
@@ -5227,7 +5195,7 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B115" t="s">
@@ -5239,28 +5207,28 @@
       <c r="D115" t="s">
         <v>25</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>99</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>78</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>42</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>3</v>
       </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
         <v>2</v>
       </c>
       <c r="M115" t="s">
@@ -5268,7 +5236,7 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B116" t="s">
@@ -5280,28 +5248,28 @@
       <c r="D116" t="s">
         <v>28</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>115</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>80</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>54</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>12</v>
       </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>8</v>
       </c>
       <c r="M116" t="s">
@@ -5309,7 +5277,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B117" t="s">
@@ -5321,28 +5289,28 @@
       <c r="D117" t="s">
         <v>31</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>1316</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>977</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>85</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>57</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>7</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>131</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>2</v>
       </c>
-      <c r="L117">
+      <c r="L117" t="n">
         <v>125</v>
       </c>
       <c r="M117" t="s">
@@ -5350,7 +5318,7 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B118" t="s">
@@ -5362,28 +5330,28 @@
       <c r="D118" t="s">
         <v>34</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>110</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>69</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>68</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>4</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>2</v>
       </c>
       <c r="M118" t="s">
@@ -5391,7 +5359,7 @@
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B119" t="s">
@@ -5403,28 +5371,28 @@
       <c r="D119" t="s">
         <v>37</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>132</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
         <v>87</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>86</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>8</v>
       </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>7</v>
       </c>
       <c r="M119" t="s">
@@ -5432,7 +5400,7 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B120" t="s">
@@ -5444,28 +5412,28 @@
       <c r="D120" t="s">
         <v>42</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>111</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
         <v>80</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>78</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>10</v>
       </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>6</v>
       </c>
       <c r="M120" t="s">
@@ -5473,7 +5441,7 @@
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B121" t="s">
@@ -5485,28 +5453,28 @@
       <c r="D121" t="s">
         <v>45</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>699</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>539</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>87</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>74</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>2</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>63</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>12</v>
       </c>
-      <c r="L121">
+      <c r="L121" t="n">
         <v>60</v>
       </c>
       <c r="M121" t="s">
@@ -5514,7 +5482,7 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B122" t="s">
@@ -5526,28 +5494,28 @@
       <c r="D122" t="s">
         <v>15</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>78</v>
       </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
         <v>47</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>18</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>4</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>3</v>
       </c>
       <c r="M122" t="s">
@@ -5555,7 +5523,7 @@
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B123" t="s">
@@ -5567,28 +5535,28 @@
       <c r="D123" t="s">
         <v>19</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>90</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
         <v>56</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>28</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>4</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>4</v>
       </c>
       <c r="M123" t="s">
@@ -5596,7 +5564,7 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B124" t="s">
@@ -5608,28 +5576,28 @@
       <c r="D124" t="s">
         <v>22</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>533</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>348</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>74</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>41</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>5</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>36</v>
       </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>31</v>
       </c>
       <c r="M124" t="s">
@@ -5637,7 +5605,7 @@
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B125" t="s">
@@ -5649,28 +5617,28 @@
       <c r="D125" t="s">
         <v>25</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>99</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
         <v>78</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>42</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>3</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="s">
@@ -5678,7 +5646,7 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B126" t="s">
@@ -5690,28 +5658,28 @@
       <c r="D126" t="s">
         <v>28</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>115</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>80</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>54</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>12</v>
       </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>8</v>
       </c>
       <c r="M126" t="s">
@@ -5719,7 +5687,7 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B127" t="s">
@@ -5731,28 +5699,28 @@
       <c r="D127" t="s">
         <v>31</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>1316</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>977</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>85</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>57</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>7</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>131</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>2</v>
       </c>
-      <c r="L127">
+      <c r="L127" t="n">
         <v>125</v>
       </c>
       <c r="M127" t="s">
@@ -5760,7 +5728,7 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B128" t="s">
@@ -5772,28 +5740,28 @@
       <c r="D128" t="s">
         <v>34</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>110</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
         <v>69</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>68</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>4</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>2</v>
       </c>
       <c r="M128" t="s">
@@ -5801,7 +5769,7 @@
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B129" t="s">
@@ -5813,28 +5781,28 @@
       <c r="D129" t="s">
         <v>37</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>132</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
         <v>87</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>86</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>8</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>7</v>
       </c>
       <c r="M129" t="s">
@@ -5842,7 +5810,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B130" t="s">
@@ -5854,28 +5822,28 @@
       <c r="D130" t="s">
         <v>42</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>113</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
         <v>80</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>78</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>10</v>
       </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>6</v>
       </c>
       <c r="M130" t="s">
@@ -5883,7 +5851,7 @@
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B131" t="s">
@@ -5895,28 +5863,28 @@
       <c r="D131" t="s">
         <v>45</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>1417</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>1161</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>96</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>82</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>6</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>133</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>15</v>
       </c>
-      <c r="L131">
+      <c r="L131" t="n">
         <v>129</v>
       </c>
       <c r="M131" t="s">
@@ -5924,8 +5892,8 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="1">
-        <v>43558</v>
+      <c r="A132" t="s">
+        <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -5936,37 +5904,37 @@
       <c r="D132" t="s">
         <v>15</v>
       </c>
-      <c r="E132">
-        <v>82</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>50</v>
-      </c>
-      <c r="H132">
+      <c r="E132" t="n">
+        <v>78</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>47</v>
+      </c>
+      <c r="H132" t="n">
         <v>18</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>4</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>3</v>
       </c>
       <c r="M132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="1">
-        <v>43558</v>
+      <c r="A133" t="s">
+        <v>46</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -5977,37 +5945,37 @@
       <c r="D133" t="s">
         <v>19</v>
       </c>
-      <c r="E133">
-        <v>94</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>59</v>
-      </c>
-      <c r="H133">
+      <c r="E133" t="n">
+        <v>90</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>56</v>
+      </c>
+      <c r="H133" t="n">
         <v>28</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>4</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>4</v>
       </c>
       <c r="M133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="1">
-        <v>43558</v>
+      <c r="A134" t="s">
+        <v>46</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -6018,37 +5986,37 @@
       <c r="D134" t="s">
         <v>22</v>
       </c>
-      <c r="E134">
-        <v>536</v>
-      </c>
-      <c r="F134">
+      <c r="E134" t="n">
+        <v>533</v>
+      </c>
+      <c r="F134" t="n">
         <v>348</v>
       </c>
-      <c r="G134">
-        <v>77</v>
-      </c>
-      <c r="H134">
+      <c r="G134" t="n">
+        <v>74</v>
+      </c>
+      <c r="H134" t="n">
         <v>41</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>5</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>36</v>
       </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>31</v>
       </c>
       <c r="M134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="1">
-        <v>43558</v>
+      <c r="A135" t="s">
+        <v>46</v>
       </c>
       <c r="B135" t="s">
         <v>23</v>
@@ -6059,37 +6027,37 @@
       <c r="D135" t="s">
         <v>25</v>
       </c>
-      <c r="E135">
-        <v>102</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>82</v>
-      </c>
-      <c r="H135">
+      <c r="E135" t="n">
+        <v>99</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78</v>
+      </c>
+      <c r="H135" t="n">
         <v>42</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
         <v>3</v>
       </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>2</v>
       </c>
       <c r="M135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="1">
-        <v>43558</v>
+      <c r="A136" t="s">
+        <v>46</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -6100,37 +6068,37 @@
       <c r="D136" t="s">
         <v>28</v>
       </c>
-      <c r="E136">
-        <v>118</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>83</v>
-      </c>
-      <c r="H136">
+      <c r="E136" t="n">
+        <v>115</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>80</v>
+      </c>
+      <c r="H136" t="n">
         <v>54</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>12</v>
       </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>8</v>
       </c>
       <c r="M136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="1">
-        <v>43558</v>
+      <c r="A137" t="s">
+        <v>46</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
@@ -6141,37 +6109,37 @@
       <c r="D137" t="s">
         <v>31</v>
       </c>
-      <c r="E137">
-        <v>1320</v>
-      </c>
-      <c r="F137">
+      <c r="E137" t="n">
+        <v>1316</v>
+      </c>
+      <c r="F137" t="n">
         <v>977</v>
       </c>
-      <c r="G137">
-        <v>89</v>
-      </c>
-      <c r="H137">
+      <c r="G137" t="n">
+        <v>85</v>
+      </c>
+      <c r="H137" t="n">
         <v>57</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>7</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>131</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>2</v>
       </c>
-      <c r="L137">
+      <c r="L137" t="n">
         <v>125</v>
       </c>
       <c r="M137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="1">
-        <v>43558</v>
+      <c r="A138" t="s">
+        <v>46</v>
       </c>
       <c r="B138" t="s">
         <v>32</v>
@@ -6182,37 +6150,37 @@
       <c r="D138" t="s">
         <v>34</v>
       </c>
-      <c r="E138">
-        <v>116</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>75</v>
-      </c>
-      <c r="H138">
+      <c r="E138" t="n">
+        <v>110</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>69</v>
+      </c>
+      <c r="H138" t="n">
         <v>68</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>4</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>2</v>
       </c>
       <c r="M138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="1">
-        <v>43558</v>
+      <c r="A139" t="s">
+        <v>46</v>
       </c>
       <c r="B139" t="s">
         <v>35</v>
@@ -6223,37 +6191,37 @@
       <c r="D139" t="s">
         <v>37</v>
       </c>
-      <c r="E139">
-        <v>141</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>95</v>
-      </c>
-      <c r="H139">
+      <c r="E139" t="n">
+        <v>132</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
         <v>87</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>9</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
+      <c r="H139" t="n">
+        <v>86</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>8</v>
       </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>7</v>
+      </c>
       <c r="M139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="1">
-        <v>43558</v>
+      <c r="A140" t="s">
+        <v>46</v>
       </c>
       <c r="B140" t="s">
         <v>40</v>
@@ -6264,37 +6232,37 @@
       <c r="D140" t="s">
         <v>42</v>
       </c>
-      <c r="E140">
-        <v>122</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>88</v>
-      </c>
-      <c r="H140">
+      <c r="E140" t="n">
+        <v>113</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>80</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>11</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>7</v>
+      <c r="H140" t="n">
+        <v>78</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>10</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6</v>
       </c>
       <c r="M140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="1">
-        <v>43558</v>
+      <c r="A141" t="s">
+        <v>46</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -6305,123 +6273,36 @@
       <c r="D141" t="s">
         <v>45</v>
       </c>
-      <c r="E141">
-        <v>1447</v>
-      </c>
-      <c r="F141">
+      <c r="E141" t="n">
+        <v>1429</v>
+      </c>
+      <c r="F141" t="n">
         <v>1162</v>
       </c>
-      <c r="G141">
-        <v>113</v>
-      </c>
-      <c r="H141">
-        <v>90</v>
-      </c>
-      <c r="I141">
+      <c r="G141" t="n">
+        <v>103</v>
+      </c>
+      <c r="H141" t="n">
+        <v>88</v>
+      </c>
+      <c r="I141" t="n">
         <v>6</v>
       </c>
-      <c r="J141">
-        <v>135</v>
-      </c>
-      <c r="K141">
+      <c r="J141" t="n">
+        <v>134</v>
+      </c>
+      <c r="K141" t="n">
         <v>15</v>
       </c>
-      <c r="L141">
-        <v>131</v>
+      <c r="L141" t="n">
+        <v>130</v>
       </c>
       <c r="M141" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="1">
-        <v>43558</v>
-      </c>
-      <c r="B142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C142" t="s">
-        <v>47</v>
-      </c>
-      <c r="D142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E142">
-        <v>3282</v>
-      </c>
-      <c r="F142">
-        <v>940</v>
-      </c>
-      <c r="G142">
-        <v>1626</v>
-      </c>
-      <c r="H142">
-        <v>122</v>
-      </c>
-      <c r="I142">
-        <v>10</v>
-      </c>
-      <c r="J142">
-        <v>207</v>
-      </c>
-      <c r="K142">
-        <v>1528</v>
-      </c>
-      <c r="L142">
-        <v>120</v>
-      </c>
-      <c r="M142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="1">
-        <v>43558</v>
-      </c>
-      <c r="B143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C143" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143" t="s">
-        <v>51</v>
-      </c>
-      <c r="E143">
-        <v>545</v>
-      </c>
-      <c r="F143">
-        <v>346</v>
-      </c>
-      <c r="G143">
-        <v>115</v>
-      </c>
-      <c r="H143">
-        <v>81</v>
-      </c>
-      <c r="I143">
-        <v>13</v>
-      </c>
-      <c r="J143">
-        <v>62</v>
-      </c>
-      <c r="K143">
-        <v>41</v>
-      </c>
-      <c r="L143">
-        <v>49</v>
-      </c>
-      <c r="M143" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -193,6 +193,9 @@
 Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
 Kale epitukhia!!!!</t>
   </si>
+  <si>
+    <t xml:space="preserve">Begging for likes </t>
+  </si>
 </sst>
 </file>
 
@@ -240,18 +243,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5925,7 +5936,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -5937,13 +5948,13 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H132">
         <v>18</v>
@@ -5961,12 +5972,12 @@
         <v>3</v>
       </c>
       <c r="M132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -5978,13 +5989,13 @@
         <v>19</v>
       </c>
       <c r="E133">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H133">
         <v>28</v>
@@ -6002,12 +6013,12 @@
         <v>4</v>
       </c>
       <c r="M133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -6019,13 +6030,13 @@
         <v>22</v>
       </c>
       <c r="E134">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F134">
         <v>348</v>
       </c>
       <c r="G134">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H134">
         <v>41</v>
@@ -6043,12 +6054,12 @@
         <v>31</v>
       </c>
       <c r="M134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B135" t="s">
         <v>23</v>
@@ -6060,13 +6071,13 @@
         <v>25</v>
       </c>
       <c r="E135">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H135">
         <v>42</v>
@@ -6084,12 +6095,12 @@
         <v>2</v>
       </c>
       <c r="M135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -6101,13 +6112,13 @@
         <v>28</v>
       </c>
       <c r="E136">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H136">
         <v>54</v>
@@ -6125,12 +6136,12 @@
         <v>8</v>
       </c>
       <c r="M136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
@@ -6142,13 +6153,13 @@
         <v>31</v>
       </c>
       <c r="E137">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F137">
         <v>977</v>
       </c>
       <c r="G137">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H137">
         <v>57</v>
@@ -6166,12 +6177,12 @@
         <v>125</v>
       </c>
       <c r="M137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B138" t="s">
         <v>32</v>
@@ -6183,13 +6194,13 @@
         <v>34</v>
       </c>
       <c r="E138">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H138">
         <v>68</v>
@@ -6207,12 +6218,12 @@
         <v>2</v>
       </c>
       <c r="M138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B139" t="s">
         <v>35</v>
@@ -6221,39 +6232,39 @@
         <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E139">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H139">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B140" t="s">
         <v>40</v>
@@ -6265,36 +6276,36 @@
         <v>42</v>
       </c>
       <c r="E140">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H140">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -6306,28 +6317,28 @@
         <v>45</v>
       </c>
       <c r="E141">
-        <v>1447</v>
+        <v>1429</v>
       </c>
       <c r="F141">
         <v>1162</v>
       </c>
       <c r="G141">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H141">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I141">
         <v>6</v>
       </c>
       <c r="J141">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K141">
         <v>15</v>
       </c>
       <c r="L141">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M141" t="s">
         <v>38</v>
@@ -6338,40 +6349,40 @@
         <v>43558</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>3282</v>
+        <v>82</v>
       </c>
       <c r="F142">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>1626</v>
+        <v>50</v>
       </c>
       <c r="H142">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I142">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="K142">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="M142" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6379,40 +6390,942 @@
         <v>43558</v>
       </c>
       <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>94</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>59</v>
+      </c>
+      <c r="H143">
+        <v>28</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>4</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144">
+        <v>536</v>
+      </c>
+      <c r="F144">
+        <v>348</v>
+      </c>
+      <c r="G144">
+        <v>77</v>
+      </c>
+      <c r="H144">
+        <v>41</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144">
+        <v>36</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>31</v>
+      </c>
+      <c r="M144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145">
+        <v>102</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>82</v>
+      </c>
+      <c r="H145">
+        <v>42</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146">
+        <v>118</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>83</v>
+      </c>
+      <c r="H146">
+        <v>54</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>12</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>8</v>
+      </c>
+      <c r="M146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>1320</v>
+      </c>
+      <c r="F147">
+        <v>977</v>
+      </c>
+      <c r="G147">
+        <v>89</v>
+      </c>
+      <c r="H147">
+        <v>57</v>
+      </c>
+      <c r="I147">
+        <v>7</v>
+      </c>
+      <c r="J147">
+        <v>131</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>125</v>
+      </c>
+      <c r="M147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148">
+        <v>116</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>75</v>
+      </c>
+      <c r="H148">
+        <v>68</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149">
+        <v>141</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>95</v>
+      </c>
+      <c r="H149">
+        <v>87</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>9</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>8</v>
+      </c>
+      <c r="M149" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B150" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150">
+        <v>122</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>88</v>
+      </c>
+      <c r="H150">
+        <v>80</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>11</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>7</v>
+      </c>
+      <c r="M150" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151">
+        <v>1447</v>
+      </c>
+      <c r="F151">
+        <v>1162</v>
+      </c>
+      <c r="G151">
+        <v>113</v>
+      </c>
+      <c r="H151">
+        <v>90</v>
+      </c>
+      <c r="I151">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <v>135</v>
+      </c>
+      <c r="K151">
+        <v>15</v>
+      </c>
+      <c r="L151">
+        <v>131</v>
+      </c>
+      <c r="M151" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B152" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152">
+        <v>3282</v>
+      </c>
+      <c r="F152">
+        <v>940</v>
+      </c>
+      <c r="G152">
+        <v>1626</v>
+      </c>
+      <c r="H152">
+        <v>122</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <v>207</v>
+      </c>
+      <c r="K152">
+        <v>1528</v>
+      </c>
+      <c r="L152">
+        <v>120</v>
+      </c>
+      <c r="M152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B153" t="s">
         <v>49</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C153" t="s">
         <v>50</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D153" t="s">
         <v>51</v>
       </c>
-      <c r="E143">
+      <c r="E153">
         <v>545</v>
       </c>
-      <c r="F143">
+      <c r="F153">
         <v>346</v>
       </c>
-      <c r="G143">
+      <c r="G153">
         <v>115</v>
       </c>
-      <c r="H143">
+      <c r="H153">
         <v>81</v>
       </c>
-      <c r="I143">
+      <c r="I153">
         <v>13</v>
       </c>
-      <c r="J143">
+      <c r="J153">
         <v>62</v>
       </c>
-      <c r="K143">
+      <c r="K153">
         <v>41</v>
       </c>
-      <c r="L143">
+      <c r="L153">
         <v>49</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M153" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>50</v>
+      </c>
+      <c r="H154">
+        <v>18</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>4</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>94</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>59</v>
+      </c>
+      <c r="H155">
+        <v>28</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>4</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156">
+        <v>536</v>
+      </c>
+      <c r="F156">
+        <v>348</v>
+      </c>
+      <c r="G156">
+        <v>77</v>
+      </c>
+      <c r="H156">
+        <v>41</v>
+      </c>
+      <c r="I156">
+        <v>5</v>
+      </c>
+      <c r="J156">
+        <v>36</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>31</v>
+      </c>
+      <c r="M156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157">
+        <v>103</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>83</v>
+      </c>
+      <c r="H157">
+        <v>42</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>3</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158">
+        <v>119</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>84</v>
+      </c>
+      <c r="H158">
+        <v>54</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>12</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>8</v>
+      </c>
+      <c r="M158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159">
+        <v>1321</v>
+      </c>
+      <c r="F159">
+        <v>977</v>
+      </c>
+      <c r="G159">
+        <v>90</v>
+      </c>
+      <c r="H159">
+        <v>57</v>
+      </c>
+      <c r="I159">
+        <v>7</v>
+      </c>
+      <c r="J159">
+        <v>131</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>125</v>
+      </c>
+      <c r="M159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B160" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>117</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>76</v>
+      </c>
+      <c r="H160">
+        <v>68</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>4</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161">
+        <v>143</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>97</v>
+      </c>
+      <c r="H161">
+        <v>88</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>9</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>8</v>
+      </c>
+      <c r="M161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B162" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162">
+        <v>127</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>92</v>
+      </c>
+      <c r="H162">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>11</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>7</v>
+      </c>
+      <c r="M162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163">
+        <v>1456</v>
+      </c>
+      <c r="F163">
+        <v>1162</v>
+      </c>
+      <c r="G163">
+        <v>116</v>
+      </c>
+      <c r="H163">
+        <v>94</v>
+      </c>
+      <c r="I163">
+        <v>6</v>
+      </c>
+      <c r="J163">
+        <v>135</v>
+      </c>
+      <c r="K163">
+        <v>15</v>
+      </c>
+      <c r="L163">
+        <v>131</v>
+      </c>
+      <c r="M163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B164" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" t="s">
+        <v>47</v>
+      </c>
+      <c r="D164" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164">
+        <v>4644</v>
+      </c>
+      <c r="F164">
+        <v>950</v>
+      </c>
+      <c r="G164">
+        <v>2538</v>
+      </c>
+      <c r="H164">
+        <v>139</v>
+      </c>
+      <c r="I164">
+        <v>10</v>
+      </c>
+      <c r="J164">
+        <v>260</v>
+      </c>
+      <c r="K164">
+        <v>2431</v>
+      </c>
+      <c r="L164">
+        <v>143</v>
+      </c>
+      <c r="M164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" t="s">
+        <v>50</v>
+      </c>
+      <c r="D165" t="s">
+        <v>51</v>
+      </c>
+      <c r="E165">
+        <v>722</v>
+      </c>
+      <c r="F165">
+        <v>346</v>
+      </c>
+      <c r="G165">
+        <v>227</v>
+      </c>
+      <c r="H165">
+        <v>107</v>
+      </c>
+      <c r="I165">
+        <v>13</v>
+      </c>
+      <c r="J165">
+        <v>67</v>
+      </c>
+      <c r="K165">
+        <v>135</v>
+      </c>
+      <c r="L165">
+        <v>53</v>
+      </c>
+      <c r="M165" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="15380"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="36800" windowHeight="18780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="53">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -243,10 +243,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -256,13 +272,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="L176" sqref="L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6346,7 +6378,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
@@ -6387,7 +6419,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -6428,7 +6460,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
@@ -6469,7 +6501,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B145" t="s">
         <v>23</v>
@@ -6510,7 +6542,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B146" t="s">
         <v>26</v>
@@ -6551,7 +6583,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B147" t="s">
         <v>29</v>
@@ -6592,7 +6624,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B148" t="s">
         <v>32</v>
@@ -6633,7 +6665,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B149" t="s">
         <v>35</v>
@@ -6674,7 +6706,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B150" t="s">
         <v>40</v>
@@ -6686,7 +6718,7 @@
         <v>42</v>
       </c>
       <c r="E150">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -6715,7 +6747,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B151" t="s">
         <v>43</v>
@@ -6727,7 +6759,7 @@
         <v>45</v>
       </c>
       <c r="E151">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="F151">
         <v>1162</v>
@@ -6756,7 +6788,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B152" t="s">
         <v>46</v>
@@ -6768,16 +6800,16 @@
         <v>48</v>
       </c>
       <c r="E152">
-        <v>3282</v>
+        <v>2873</v>
       </c>
       <c r="F152">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="G152">
         <v>1626</v>
       </c>
       <c r="H152">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I152">
         <v>10</v>
@@ -6797,7 +6829,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B153" t="s">
         <v>49</v>
@@ -6809,10 +6841,10 @@
         <v>51</v>
       </c>
       <c r="E153">
-        <v>545</v>
+        <v>412</v>
       </c>
       <c r="F153">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G153">
         <v>115</v>
@@ -6838,7 +6870,7 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
@@ -6850,7 +6882,7 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6874,12 +6906,12 @@
         <v>3</v>
       </c>
       <c r="M154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
@@ -6891,7 +6923,7 @@
         <v>19</v>
       </c>
       <c r="E155">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6915,12 +6947,12 @@
         <v>4</v>
       </c>
       <c r="M155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -6932,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="E156">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F156">
         <v>348</v>
@@ -6956,12 +6988,12 @@
         <v>31</v>
       </c>
       <c r="M156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B157" t="s">
         <v>23</v>
@@ -6973,13 +7005,13 @@
         <v>25</v>
       </c>
       <c r="E157">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H157">
         <v>42</v>
@@ -7002,7 +7034,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
@@ -7014,13 +7046,13 @@
         <v>28</v>
       </c>
       <c r="E158">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H158">
         <v>54</v>
@@ -7043,7 +7075,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -7055,13 +7087,13 @@
         <v>31</v>
       </c>
       <c r="E159">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="F159">
         <v>977</v>
       </c>
       <c r="G159">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H159">
         <v>57</v>
@@ -7084,7 +7116,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B160" t="s">
         <v>32</v>
@@ -7096,13 +7128,13 @@
         <v>34</v>
       </c>
       <c r="E160">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H160">
         <v>68</v>
@@ -7125,7 +7157,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B161" t="s">
         <v>35</v>
@@ -7137,16 +7169,16 @@
         <v>37</v>
       </c>
       <c r="E161">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H161">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7166,7 +7198,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B162" t="s">
         <v>40</v>
@@ -7178,16 +7210,16 @@
         <v>42</v>
       </c>
       <c r="E162">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H162">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -7207,7 +7239,7 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B163" t="s">
         <v>43</v>
@@ -7219,16 +7251,16 @@
         <v>45</v>
       </c>
       <c r="E163">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="F163">
         <v>1162</v>
       </c>
       <c r="G163">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H163">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I163">
         <v>6</v>
@@ -7248,7 +7280,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B164" t="s">
         <v>46</v>
@@ -7260,28 +7292,28 @@
         <v>48</v>
       </c>
       <c r="E164">
-        <v>4644</v>
+        <v>3282</v>
       </c>
       <c r="F164">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="G164">
-        <v>2538</v>
+        <v>1864</v>
       </c>
       <c r="H164">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="I164">
         <v>10</v>
       </c>
       <c r="J164">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="K164">
-        <v>2431</v>
+        <v>1728</v>
       </c>
       <c r="L164">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M164" t="s">
         <v>38</v>
@@ -7289,7 +7321,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="B165" t="s">
         <v>49</v>
@@ -7301,30 +7333,1014 @@
         <v>51</v>
       </c>
       <c r="E165">
-        <v>722</v>
+        <v>545</v>
       </c>
       <c r="F165">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G165">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="H165">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I165">
         <v>13</v>
       </c>
       <c r="J165">
+        <v>65</v>
+      </c>
+      <c r="K165">
+        <v>69</v>
+      </c>
+      <c r="L165">
+        <v>50</v>
+      </c>
+      <c r="M165" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>82</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>50</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167">
+        <v>94</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>59</v>
+      </c>
+      <c r="H167">
+        <v>28</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>4</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>536</v>
+      </c>
+      <c r="F168">
+        <v>348</v>
+      </c>
+      <c r="G168">
+        <v>77</v>
+      </c>
+      <c r="H168">
+        <v>41</v>
+      </c>
+      <c r="I168">
+        <v>5</v>
+      </c>
+      <c r="J168">
+        <v>36</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>31</v>
+      </c>
+      <c r="M168" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>103</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>83</v>
+      </c>
+      <c r="H169">
+        <v>42</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170">
+        <v>119</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>84</v>
+      </c>
+      <c r="H170">
+        <v>54</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>12</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>8</v>
+      </c>
+      <c r="M170" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171">
+        <v>1321</v>
+      </c>
+      <c r="F171">
+        <v>977</v>
+      </c>
+      <c r="G171">
+        <v>90</v>
+      </c>
+      <c r="H171">
+        <v>57</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>131</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>125</v>
+      </c>
+      <c r="M171" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172">
+        <v>117</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>76</v>
+      </c>
+      <c r="H172">
+        <v>68</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" t="s">
+        <v>36</v>
+      </c>
+      <c r="D173" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173">
+        <v>140</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>97</v>
+      </c>
+      <c r="H173">
+        <v>88</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>9</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>8</v>
+      </c>
+      <c r="M173" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" t="s">
+        <v>42</v>
+      </c>
+      <c r="E174">
+        <v>125</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>92</v>
+      </c>
+      <c r="H174">
+        <v>83</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>11</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>7</v>
+      </c>
+      <c r="M174" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B175" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" t="s">
+        <v>44</v>
+      </c>
+      <c r="D175" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175">
+        <v>1450</v>
+      </c>
+      <c r="F175">
+        <v>1162</v>
+      </c>
+      <c r="G175">
+        <v>116</v>
+      </c>
+      <c r="H175">
+        <v>94</v>
+      </c>
+      <c r="I175">
+        <v>6</v>
+      </c>
+      <c r="J175">
+        <v>135</v>
+      </c>
+      <c r="K175">
+        <v>15</v>
+      </c>
+      <c r="L175">
+        <v>131</v>
+      </c>
+      <c r="M175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B176" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176">
+        <v>3987</v>
+      </c>
+      <c r="F176">
+        <v>945</v>
+      </c>
+      <c r="G176">
+        <v>2138</v>
+      </c>
+      <c r="H176">
+        <v>130</v>
+      </c>
+      <c r="I176">
+        <v>10</v>
+      </c>
+      <c r="J176">
+        <v>245</v>
+      </c>
+      <c r="K176">
+        <v>2271</v>
+      </c>
+      <c r="L176">
+        <v>133</v>
+      </c>
+      <c r="M176" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B177" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" t="s">
+        <v>51</v>
+      </c>
+      <c r="E177">
+        <v>638</v>
+      </c>
+      <c r="F177">
+        <v>346</v>
+      </c>
+      <c r="G177">
+        <v>227</v>
+      </c>
+      <c r="H177">
+        <v>105</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+      <c r="J177">
         <v>67</v>
       </c>
-      <c r="K165">
+      <c r="K177">
+        <v>103</v>
+      </c>
+      <c r="L177">
+        <v>51</v>
+      </c>
+      <c r="M177" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178">
+        <v>82</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>50</v>
+      </c>
+      <c r="H178">
+        <v>18</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>4</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>94</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>59</v>
+      </c>
+      <c r="H179">
+        <v>28</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>4</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>536</v>
+      </c>
+      <c r="F180">
+        <v>348</v>
+      </c>
+      <c r="G180">
+        <v>77</v>
+      </c>
+      <c r="H180">
+        <v>41</v>
+      </c>
+      <c r="I180">
+        <v>5</v>
+      </c>
+      <c r="J180">
+        <v>36</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>31</v>
+      </c>
+      <c r="M180" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181">
+        <v>103</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>83</v>
+      </c>
+      <c r="H181">
+        <v>42</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182">
+        <v>119</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>84</v>
+      </c>
+      <c r="H182">
+        <v>54</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>12</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>8</v>
+      </c>
+      <c r="M182" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183">
+        <v>1321</v>
+      </c>
+      <c r="F183">
+        <v>977</v>
+      </c>
+      <c r="G183">
+        <v>90</v>
+      </c>
+      <c r="H183">
+        <v>57</v>
+      </c>
+      <c r="I183">
+        <v>7</v>
+      </c>
+      <c r="J183">
+        <v>131</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>125</v>
+      </c>
+      <c r="M183" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B184" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184">
+        <v>117</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>76</v>
+      </c>
+      <c r="H184">
+        <v>68</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185">
+        <v>143</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>97</v>
+      </c>
+      <c r="H185">
+        <v>88</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>9</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>8</v>
+      </c>
+      <c r="M185" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186">
+        <v>127</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>92</v>
+      </c>
+      <c r="H186">
+        <v>83</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>11</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>7</v>
+      </c>
+      <c r="M186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187" t="s">
+        <v>45</v>
+      </c>
+      <c r="E187">
+        <v>1456</v>
+      </c>
+      <c r="F187">
+        <v>1162</v>
+      </c>
+      <c r="G187">
+        <v>116</v>
+      </c>
+      <c r="H187">
+        <v>94</v>
+      </c>
+      <c r="I187">
+        <v>6</v>
+      </c>
+      <c r="J187">
         <v>135</v>
       </c>
-      <c r="L165">
+      <c r="K187">
+        <v>15</v>
+      </c>
+      <c r="L187">
+        <v>131</v>
+      </c>
+      <c r="M187" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B188" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188">
+        <v>4644</v>
+      </c>
+      <c r="F188">
+        <v>950</v>
+      </c>
+      <c r="G188">
+        <v>2538</v>
+      </c>
+      <c r="H188">
+        <v>139</v>
+      </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188">
+        <v>260</v>
+      </c>
+      <c r="K188">
+        <v>2431</v>
+      </c>
+      <c r="L188">
+        <v>143</v>
+      </c>
+      <c r="M188" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189">
+        <v>722</v>
+      </c>
+      <c r="F189">
+        <v>346</v>
+      </c>
+      <c r="G189">
+        <v>227</v>
+      </c>
+      <c r="H189">
+        <v>107</v>
+      </c>
+      <c r="I189">
+        <v>13</v>
+      </c>
+      <c r="J189">
+        <v>67</v>
+      </c>
+      <c r="K189">
+        <v>135</v>
+      </c>
+      <c r="L189">
         <v>53</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M189" t="s">
         <v>38</v>
       </c>
     </row>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="36800" windowHeight="18780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="56">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -257,27 +252,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -566,18 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228:XFD228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43535</v>
       </c>
@@ -659,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43535</v>
       </c>
@@ -700,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43535</v>
       </c>
@@ -741,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>43535</v>
       </c>
@@ -782,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>43535</v>
       </c>
@@ -823,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>43535</v>
       </c>
@@ -864,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>43535</v>
       </c>
@@ -905,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43535</v>
       </c>
@@ -946,7 +952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43536</v>
       </c>
@@ -987,7 +993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>43536</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>43536</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>43536</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>43536</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>43536</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>43536</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>43537</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>43537</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>43537</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>43537</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>43537</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>43537</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>43537</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>43537</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>43538</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>43538</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>43538</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>43538</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>43538</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>43538</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>43538</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>43539</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>43539</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43539</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>43539</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>43539</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>43539</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>43539</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>43540</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>43540</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43540</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43540</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>43540</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>43540</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>43540</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>43540</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>43541</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>43541</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>43541</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>43541</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>43541</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>43541</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>43541</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>43541</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>43542</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>43542</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>43542</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>43542</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>43542</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>43542</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>43542</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>43542</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>43543</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>43543</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>43543</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>43543</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>43543</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>43543</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>43543</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>43543</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>43543</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>43544</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>43544</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>43544</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>43544</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>43544</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>43544</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>43544</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>43544</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>43544</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>43545</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>43545</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>43545</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>43545</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>43545</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>43545</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>43545</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>43545</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>43545</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>43546</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>43546</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>43546</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>43546</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>43546</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>43546</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>43546</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>43546</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>43546</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>43550</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>43550</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>43550</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>43550</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>43550</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>43550</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>43550</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>43550</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>43550</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>43550</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>43551</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>43551</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>43551</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>43551</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>43551</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>43551</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>43551</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>43551</v>
       </c>
@@ -5456,7 +5462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>43551</v>
       </c>
@@ -5497,7 +5503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>43551</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>43552</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>43552</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>43552</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>43552</v>
       </c>
@@ -5702,7 +5708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>43552</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>43552</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>43552</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>43552</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>43552</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>43552</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>43556</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>43556</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>43556</v>
       </c>
@@ -6071,7 +6077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>43556</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>43556</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>43556</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>43556</v>
       </c>
@@ -6276,7 +6282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>43556</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>43556</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>43557</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>43557</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>43557</v>
       </c>
@@ -6481,7 +6487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>43557</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>43557</v>
       </c>
@@ -6563,7 +6569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>43557</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>43557</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>43557</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>43557</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>43557</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>43557</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>43557</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>43558</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>43558</v>
       </c>
@@ -6932,7 +6938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>43558</v>
       </c>
@@ -6973,7 +6979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>43558</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>43558</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>43558</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>43558</v>
       </c>
@@ -7137,7 +7143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>43558</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>43558</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>43558</v>
       </c>
@@ -7260,7 +7266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>43558</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>43558</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>43559</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>43559</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>43559</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>43559</v>
       </c>
@@ -7506,7 +7512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>43559</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>43559</v>
       </c>
@@ -7588,7 +7594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>43559</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>43559</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>43559</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>43559</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>43559</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>43559</v>
       </c>
@@ -7834,7 +7840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
         <v>43560</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
         <v>43560</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
         <v>43560</v>
       </c>
@@ -7957,7 +7963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
         <v>43560</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
         <v>43560</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
         <v>43560</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
         <v>43560</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
         <v>43560</v>
       </c>
@@ -8162,7 +8168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
         <v>43560</v>
       </c>
@@ -8203,7 +8209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
         <v>43560</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
         <v>43560</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
         <v>43560</v>
       </c>
@@ -8326,7 +8332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
         <v>43561</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
         <v>43561</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
         <v>43561</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
         <v>43561</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" s="1">
         <v>43561</v>
       </c>
@@ -8531,7 +8537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" s="1">
         <v>43561</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" s="1">
         <v>43561</v>
       </c>
@@ -8613,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" s="1">
         <v>43561</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" s="1">
         <v>43561</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" s="1">
         <v>43561</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" s="1">
         <v>43561</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" s="1">
         <v>43561</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" s="1">
         <v>43562</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203" s="1">
         <v>43562</v>
       </c>
@@ -8900,7 +8906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204" s="1">
         <v>43562</v>
       </c>
@@ -8941,7 +8947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205" s="1">
         <v>43562</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206" s="1">
         <v>43562</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207" s="1">
         <v>43562</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" s="1">
         <v>43562</v>
       </c>
@@ -9105,7 +9111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
         <v>43562</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210" s="1">
         <v>43562</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211" s="1">
         <v>43562</v>
       </c>
@@ -9228,7 +9234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212" s="1">
         <v>43562</v>
       </c>
@@ -9269,7 +9275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213" s="1">
         <v>43562</v>
       </c>
@@ -9310,7 +9316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214" s="1">
         <v>43562</v>
       </c>
@@ -9348,11 +9354,1082 @@
         <v>56</v>
       </c>
       <c r="M214" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215">
+        <v>82</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>50</v>
+      </c>
+      <c r="H215">
+        <v>18</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>4</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B216" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216">
+        <v>94</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>59</v>
+      </c>
+      <c r="H216">
+        <v>28</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>4</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217">
+        <v>537</v>
+      </c>
+      <c r="F217">
+        <v>348</v>
+      </c>
+      <c r="G217">
+        <v>77</v>
+      </c>
+      <c r="H217">
+        <v>41</v>
+      </c>
+      <c r="I217">
+        <v>5</v>
+      </c>
+      <c r="J217">
+        <v>36</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>31</v>
+      </c>
+      <c r="M217" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218">
+        <v>104</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>83</v>
+      </c>
+      <c r="H218">
+        <v>42</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>3</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B219" t="s">
+        <v>26</v>
+      </c>
+      <c r="C219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219">
+        <v>120</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>84</v>
+      </c>
+      <c r="H219">
+        <v>54</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>12</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>8</v>
+      </c>
+      <c r="M219" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B220" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" t="s">
+        <v>55</v>
+      </c>
+      <c r="E220">
+        <v>114</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>81</v>
+      </c>
+      <c r="H220">
+        <v>50</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>4</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
+      <c r="A221" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221">
+        <v>1322</v>
+      </c>
+      <c r="F221">
+        <v>977</v>
+      </c>
+      <c r="G221">
+        <v>90</v>
+      </c>
+      <c r="H221">
+        <v>57</v>
+      </c>
+      <c r="I221">
+        <v>7</v>
+      </c>
+      <c r="J221">
+        <v>131</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>125</v>
+      </c>
+      <c r="M221" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
+      <c r="A222" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222" t="s">
+        <v>34</v>
+      </c>
+      <c r="E222">
+        <v>118</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>76</v>
+      </c>
+      <c r="H222">
+        <v>68</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>4</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223">
+        <v>144</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>97</v>
+      </c>
+      <c r="H223">
+        <v>88</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>9</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>8</v>
+      </c>
+      <c r="M223" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B224" t="s">
+        <v>40</v>
+      </c>
+      <c r="C224" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" t="s">
+        <v>42</v>
+      </c>
+      <c r="E224">
+        <v>128</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>92</v>
+      </c>
+      <c r="H224">
+        <v>83</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>11</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>7</v>
+      </c>
+      <c r="M224" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B225" t="s">
+        <v>43</v>
+      </c>
+      <c r="C225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D225" t="s">
+        <v>45</v>
+      </c>
+      <c r="E225">
+        <v>1457</v>
+      </c>
+      <c r="F225">
+        <v>1162</v>
+      </c>
+      <c r="G225">
+        <v>116</v>
+      </c>
+      <c r="H225">
+        <v>94</v>
+      </c>
+      <c r="I225">
+        <v>6</v>
+      </c>
+      <c r="J225">
+        <v>135</v>
+      </c>
+      <c r="K225">
+        <v>15</v>
+      </c>
+      <c r="L225">
+        <v>131</v>
+      </c>
+      <c r="M225" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s">
+        <v>48</v>
+      </c>
+      <c r="D226" t="s">
+        <v>49</v>
+      </c>
+      <c r="E226">
+        <v>4893</v>
+      </c>
+      <c r="F226">
+        <v>950</v>
+      </c>
+      <c r="G226">
+        <v>2670</v>
+      </c>
+      <c r="H226">
+        <v>141</v>
+      </c>
+      <c r="I226">
+        <v>10</v>
+      </c>
+      <c r="J226">
+        <v>265</v>
+      </c>
+      <c r="K226">
+        <v>2570</v>
+      </c>
+      <c r="L226">
+        <v>145</v>
+      </c>
+      <c r="M226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B227" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" t="s">
+        <v>52</v>
+      </c>
+      <c r="E227">
+        <v>784</v>
+      </c>
+      <c r="F227">
+        <v>346</v>
+      </c>
+      <c r="G227">
+        <v>260</v>
+      </c>
+      <c r="H227">
+        <v>109</v>
+      </c>
+      <c r="I227">
+        <v>13</v>
+      </c>
+      <c r="J227">
+        <v>70</v>
+      </c>
+      <c r="K227">
+        <v>170</v>
+      </c>
+      <c r="L227">
+        <v>56</v>
+      </c>
+      <c r="M227" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228">
+        <v>82</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>50</v>
+      </c>
+      <c r="H228">
+        <v>18</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>4</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229">
+        <v>94</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>59</v>
+      </c>
+      <c r="H229">
+        <v>28</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>4</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="M229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230">
+        <v>537</v>
+      </c>
+      <c r="F230">
+        <v>348</v>
+      </c>
+      <c r="G230">
+        <v>77</v>
+      </c>
+      <c r="H230">
+        <v>41</v>
+      </c>
+      <c r="I230">
+        <v>5</v>
+      </c>
+      <c r="J230">
+        <v>36</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>31</v>
+      </c>
+      <c r="M230" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B231" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231">
+        <v>104</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>83</v>
+      </c>
+      <c r="H231">
+        <v>42</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>3</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B232" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232">
+        <v>120</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>84</v>
+      </c>
+      <c r="H232">
+        <v>54</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>12</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>8</v>
+      </c>
+      <c r="M232" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B233" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" t="s">
+        <v>55</v>
+      </c>
+      <c r="E233">
+        <v>114</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>81</v>
+      </c>
+      <c r="H233">
+        <v>50</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>4</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234">
+        <v>1322</v>
+      </c>
+      <c r="F234">
+        <v>977</v>
+      </c>
+      <c r="G234">
+        <v>90</v>
+      </c>
+      <c r="H234">
+        <v>57</v>
+      </c>
+      <c r="I234">
+        <v>7</v>
+      </c>
+      <c r="J234">
+        <v>131</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>125</v>
+      </c>
+      <c r="M234" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235">
+        <v>118</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>76</v>
+      </c>
+      <c r="H235">
+        <v>68</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>4</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B236" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236" t="s">
+        <v>36</v>
+      </c>
+      <c r="D236" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236">
+        <v>144</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>97</v>
+      </c>
+      <c r="H236">
+        <v>88</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>9</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>8</v>
+      </c>
+      <c r="M236" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B237" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" t="s">
+        <v>42</v>
+      </c>
+      <c r="E237">
+        <v>128</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>92</v>
+      </c>
+      <c r="H237">
+        <v>83</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>11</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>7</v>
+      </c>
+      <c r="M237" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
+        <v>44</v>
+      </c>
+      <c r="D238" t="s">
+        <v>45</v>
+      </c>
+      <c r="E238">
+        <v>1458</v>
+      </c>
+      <c r="F238">
+        <v>1162</v>
+      </c>
+      <c r="G238">
+        <v>117</v>
+      </c>
+      <c r="H238">
+        <v>94</v>
+      </c>
+      <c r="I238">
+        <v>6</v>
+      </c>
+      <c r="J238">
+        <v>135</v>
+      </c>
+      <c r="K238">
+        <v>15</v>
+      </c>
+      <c r="L238">
+        <v>131</v>
+      </c>
+      <c r="M238" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" t="s">
+        <v>48</v>
+      </c>
+      <c r="D239" t="s">
+        <v>49</v>
+      </c>
+      <c r="E239">
+        <v>4995</v>
+      </c>
+      <c r="F239">
+        <v>950</v>
+      </c>
+      <c r="G239">
+        <v>2704</v>
+      </c>
+      <c r="H239">
+        <v>143</v>
+      </c>
+      <c r="I239">
+        <v>10</v>
+      </c>
+      <c r="J239">
+        <v>268</v>
+      </c>
+      <c r="K239">
+        <v>2605</v>
+      </c>
+      <c r="L239">
+        <v>146</v>
+      </c>
+      <c r="M239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B240" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>51</v>
+      </c>
+      <c r="D240" t="s">
+        <v>52</v>
+      </c>
+      <c r="E240">
+        <v>789</v>
+      </c>
+      <c r="F240">
+        <v>346</v>
+      </c>
+      <c r="G240">
+        <v>264</v>
+      </c>
+      <c r="H240">
+        <v>109</v>
+      </c>
+      <c r="I240">
+        <v>13</v>
+      </c>
+      <c r="J240">
+        <v>70</v>
+      </c>
+      <c r="K240">
+        <v>172</v>
+      </c>
+      <c r="L240">
+        <v>56</v>
+      </c>
+      <c r="M240" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="36800" windowHeight="18780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="56">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -252,38 +257,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -572,18 +566,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228:XFD228"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43535</v>
       </c>
@@ -665,7 +659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43535</v>
       </c>
@@ -706,7 +700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43535</v>
       </c>
@@ -747,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43535</v>
       </c>
@@ -788,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43535</v>
       </c>
@@ -829,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43535</v>
       </c>
@@ -870,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43535</v>
       </c>
@@ -911,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43535</v>
       </c>
@@ -952,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43536</v>
       </c>
@@ -993,7 +987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43536</v>
       </c>
@@ -1034,7 +1028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43536</v>
       </c>
@@ -1075,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43536</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43536</v>
       </c>
@@ -1157,7 +1151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43536</v>
       </c>
@@ -1198,7 +1192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43536</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43536</v>
       </c>
@@ -1280,7 +1274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43537</v>
       </c>
@@ -1321,7 +1315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43537</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43537</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43537</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43537</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43537</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43537</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43537</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43538</v>
       </c>
@@ -1649,7 +1643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43538</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43538</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43538</v>
       </c>
@@ -1772,7 +1766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -1813,7 +1807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43538</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43538</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43538</v>
       </c>
@@ -1936,7 +1930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43539</v>
       </c>
@@ -1977,7 +1971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43539</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43539</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43539</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43539</v>
       </c>
@@ -2182,7 +2176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43539</v>
       </c>
@@ -2223,7 +2217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43539</v>
       </c>
@@ -2264,7 +2258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43540</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43540</v>
       </c>
@@ -2346,7 +2340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43540</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43540</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43540</v>
       </c>
@@ -2469,7 +2463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43540</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43540</v>
       </c>
@@ -2551,7 +2545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43540</v>
       </c>
@@ -2592,7 +2586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43541</v>
       </c>
@@ -2633,7 +2627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43541</v>
       </c>
@@ -2674,7 +2668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43541</v>
       </c>
@@ -2715,7 +2709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43541</v>
       </c>
@@ -2756,7 +2750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43541</v>
       </c>
@@ -2797,7 +2791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43541</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43541</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43541</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43542</v>
       </c>
@@ -2961,7 +2955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43542</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43542</v>
       </c>
@@ -3043,7 +3037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43542</v>
       </c>
@@ -3084,7 +3078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43542</v>
       </c>
@@ -3125,7 +3119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43542</v>
       </c>
@@ -3166,7 +3160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43542</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43542</v>
       </c>
@@ -3248,7 +3242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43543</v>
       </c>
@@ -3289,7 +3283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43543</v>
       </c>
@@ -3330,7 +3324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43543</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43543</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43543</v>
       </c>
@@ -3453,7 +3447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43543</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43543</v>
       </c>
@@ -3535,7 +3529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43543</v>
       </c>
@@ -3576,7 +3570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43543</v>
       </c>
@@ -3617,7 +3611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43544</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43544</v>
       </c>
@@ -3699,7 +3693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43544</v>
       </c>
@@ -3740,7 +3734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43544</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43544</v>
       </c>
@@ -3822,7 +3816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43544</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43544</v>
       </c>
@@ -3904,7 +3898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43544</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43544</v>
       </c>
@@ -3986,7 +3980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43545</v>
       </c>
@@ -4027,7 +4021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43545</v>
       </c>
@@ -4068,7 +4062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43545</v>
       </c>
@@ -4109,7 +4103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43545</v>
       </c>
@@ -4150,7 +4144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43545</v>
       </c>
@@ -4191,7 +4185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43545</v>
       </c>
@@ -4232,7 +4226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43545</v>
       </c>
@@ -4273,7 +4267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43545</v>
       </c>
@@ -4314,7 +4308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43545</v>
       </c>
@@ -4355,7 +4349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43546</v>
       </c>
@@ -4396,7 +4390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43546</v>
       </c>
@@ -4437,7 +4431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43546</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43546</v>
       </c>
@@ -4519,7 +4513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43546</v>
       </c>
@@ -4560,7 +4554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43546</v>
       </c>
@@ -4601,7 +4595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43546</v>
       </c>
@@ -4642,7 +4636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43546</v>
       </c>
@@ -4683,7 +4677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43546</v>
       </c>
@@ -4724,7 +4718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43550</v>
       </c>
@@ -4765,7 +4759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43550</v>
       </c>
@@ -4806,7 +4800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43550</v>
       </c>
@@ -4847,7 +4841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43550</v>
       </c>
@@ -4888,7 +4882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43550</v>
       </c>
@@ -4929,7 +4923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43550</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43550</v>
       </c>
@@ -5011,7 +5005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43550</v>
       </c>
@@ -5052,7 +5046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43550</v>
       </c>
@@ -5093,7 +5087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43550</v>
       </c>
@@ -5134,7 +5128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43551</v>
       </c>
@@ -5175,7 +5169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43551</v>
       </c>
@@ -5216,7 +5210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43551</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43551</v>
       </c>
@@ -5298,7 +5292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43551</v>
       </c>
@@ -5339,7 +5333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43551</v>
       </c>
@@ -5380,7 +5374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43551</v>
       </c>
@@ -5421,7 +5415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43551</v>
       </c>
@@ -5462,7 +5456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43551</v>
       </c>
@@ -5503,7 +5497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43551</v>
       </c>
@@ -5544,7 +5538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43552</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43552</v>
       </c>
@@ -5626,7 +5620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43552</v>
       </c>
@@ -5667,7 +5661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43552</v>
       </c>
@@ -5708,7 +5702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43552</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43552</v>
       </c>
@@ -5790,7 +5784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43552</v>
       </c>
@@ -5831,7 +5825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43552</v>
       </c>
@@ -5872,7 +5866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43552</v>
       </c>
@@ -5913,7 +5907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43552</v>
       </c>
@@ -5954,7 +5948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43556</v>
       </c>
@@ -5995,7 +5989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43556</v>
       </c>
@@ -6036,7 +6030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43556</v>
       </c>
@@ -6077,7 +6071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43556</v>
       </c>
@@ -6118,7 +6112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43556</v>
       </c>
@@ -6159,7 +6153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -6200,7 +6194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43556</v>
       </c>
@@ -6241,7 +6235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43556</v>
       </c>
@@ -6282,7 +6276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43556</v>
       </c>
@@ -6323,7 +6317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43556</v>
       </c>
@@ -6364,7 +6358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43557</v>
       </c>
@@ -6405,7 +6399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43557</v>
       </c>
@@ -6446,7 +6440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43557</v>
       </c>
@@ -6487,7 +6481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43557</v>
       </c>
@@ -6528,7 +6522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43557</v>
       </c>
@@ -6569,7 +6563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43557</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43557</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43557</v>
       </c>
@@ -6692,7 +6686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43557</v>
       </c>
@@ -6733,7 +6727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43557</v>
       </c>
@@ -6774,7 +6768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43557</v>
       </c>
@@ -6815,7 +6809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43557</v>
       </c>
@@ -6856,7 +6850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43558</v>
       </c>
@@ -6897,7 +6891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43558</v>
       </c>
@@ -6938,7 +6932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43558</v>
       </c>
@@ -6979,7 +6973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43558</v>
       </c>
@@ -7020,7 +7014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43558</v>
       </c>
@@ -7061,7 +7055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43558</v>
       </c>
@@ -7102,7 +7096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43558</v>
       </c>
@@ -7143,7 +7137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43558</v>
       </c>
@@ -7184,7 +7178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43558</v>
       </c>
@@ -7225,7 +7219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43558</v>
       </c>
@@ -7266,7 +7260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43558</v>
       </c>
@@ -7307,7 +7301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43558</v>
       </c>
@@ -7348,7 +7342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43559</v>
       </c>
@@ -7389,7 +7383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43559</v>
       </c>
@@ -7430,7 +7424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43559</v>
       </c>
@@ -7471,7 +7465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43559</v>
       </c>
@@ -7512,7 +7506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43559</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43559</v>
       </c>
@@ -7594,7 +7588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43559</v>
       </c>
@@ -7635,7 +7629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43559</v>
       </c>
@@ -7676,7 +7670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43559</v>
       </c>
@@ -7717,7 +7711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43559</v>
       </c>
@@ -7758,7 +7752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43559</v>
       </c>
@@ -7799,7 +7793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43559</v>
       </c>
@@ -7840,7 +7834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43560</v>
       </c>
@@ -7881,7 +7875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43560</v>
       </c>
@@ -7922,7 +7916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43560</v>
       </c>
@@ -7963,7 +7957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43560</v>
       </c>
@@ -8004,7 +7998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43560</v>
       </c>
@@ -8045,7 +8039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43560</v>
       </c>
@@ -8086,7 +8080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43560</v>
       </c>
@@ -8127,7 +8121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43560</v>
       </c>
@@ -8168,7 +8162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43560</v>
       </c>
@@ -8209,7 +8203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43560</v>
       </c>
@@ -8250,7 +8244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43560</v>
       </c>
@@ -8291,7 +8285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43560</v>
       </c>
@@ -8332,7 +8326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43561</v>
       </c>
@@ -8373,7 +8367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43561</v>
       </c>
@@ -8414,7 +8408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43561</v>
       </c>
@@ -8455,7 +8449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43561</v>
       </c>
@@ -8496,7 +8490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43561</v>
       </c>
@@ -8537,7 +8531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43561</v>
       </c>
@@ -8578,7 +8572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43561</v>
       </c>
@@ -8619,7 +8613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43561</v>
       </c>
@@ -8660,7 +8654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43561</v>
       </c>
@@ -8701,7 +8695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43561</v>
       </c>
@@ -8742,7 +8736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43561</v>
       </c>
@@ -8783,7 +8777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43561</v>
       </c>
@@ -8824,7 +8818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43562</v>
       </c>
@@ -8865,7 +8859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43562</v>
       </c>
@@ -8906,7 +8900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43562</v>
       </c>
@@ -8947,7 +8941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43562</v>
       </c>
@@ -8988,7 +8982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43562</v>
       </c>
@@ -9029,7 +9023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43562</v>
       </c>
@@ -9070,7 +9064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43562</v>
       </c>
@@ -9111,7 +9105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43562</v>
       </c>
@@ -9152,7 +9146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43562</v>
       </c>
@@ -9193,7 +9187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43562</v>
       </c>
@@ -9234,7 +9228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43562</v>
       </c>
@@ -9275,7 +9269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43562</v>
       </c>
@@ -9316,7 +9310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43562</v>
       </c>
@@ -9357,7 +9351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43563</v>
       </c>
@@ -9398,7 +9392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43563</v>
       </c>
@@ -9439,7 +9433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43563</v>
       </c>
@@ -9480,7 +9474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43563</v>
       </c>
@@ -9521,7 +9515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43563</v>
       </c>
@@ -9562,7 +9556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43563</v>
       </c>
@@ -9603,7 +9597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43563</v>
       </c>
@@ -9644,7 +9638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43563</v>
       </c>
@@ -9685,7 +9679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43563</v>
       </c>
@@ -9726,7 +9720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43563</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43563</v>
       </c>
@@ -9808,7 +9802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43563</v>
       </c>
@@ -9846,10 +9840,10 @@
         <v>145</v>
       </c>
       <c r="M226" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43563</v>
       </c>
@@ -9887,10 +9881,10 @@
         <v>56</v>
       </c>
       <c r="M227" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43564</v>
       </c>
@@ -9931,7 +9925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43564</v>
       </c>
@@ -9972,7 +9966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43564</v>
       </c>
@@ -10013,7 +10007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43564</v>
       </c>
@@ -10054,7 +10048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43564</v>
       </c>
@@ -10095,7 +10089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43564</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43564</v>
       </c>
@@ -10177,7 +10171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43564</v>
       </c>
@@ -10218,7 +10212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43564</v>
       </c>
@@ -10259,7 +10253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43564</v>
       </c>
@@ -10300,7 +10294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43564</v>
       </c>
@@ -10341,7 +10335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43564</v>
       </c>
@@ -10382,7 +10376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43564</v>
       </c>
@@ -10421,15 +10415,543 @@
       </c>
       <c r="M240" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241">
+        <v>82</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>50</v>
+      </c>
+      <c r="H241">
+        <v>18</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>4</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>3</v>
+      </c>
+      <c r="M241" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242">
+        <v>94</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>59</v>
+      </c>
+      <c r="H242">
+        <v>28</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>4</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>4</v>
+      </c>
+      <c r="M242" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B243" t="s">
+        <v>20</v>
+      </c>
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243">
+        <v>537</v>
+      </c>
+      <c r="F243">
+        <v>348</v>
+      </c>
+      <c r="G243">
+        <v>77</v>
+      </c>
+      <c r="H243">
+        <v>41</v>
+      </c>
+      <c r="I243">
+        <v>5</v>
+      </c>
+      <c r="J243">
+        <v>36</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>31</v>
+      </c>
+      <c r="M243" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244">
+        <v>104</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>83</v>
+      </c>
+      <c r="H244">
+        <v>42</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B245" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245" t="s">
+        <v>27</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245">
+        <v>120</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>84</v>
+      </c>
+      <c r="H245">
+        <v>54</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>12</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>8</v>
+      </c>
+      <c r="M245" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B246" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" t="s">
+        <v>55</v>
+      </c>
+      <c r="E246">
+        <v>114</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>81</v>
+      </c>
+      <c r="H246">
+        <v>50</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>4</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B247" t="s">
+        <v>29</v>
+      </c>
+      <c r="C247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247">
+        <v>1322</v>
+      </c>
+      <c r="F247">
+        <v>977</v>
+      </c>
+      <c r="G247">
+        <v>90</v>
+      </c>
+      <c r="H247">
+        <v>57</v>
+      </c>
+      <c r="I247">
+        <v>7</v>
+      </c>
+      <c r="J247">
+        <v>131</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>125</v>
+      </c>
+      <c r="M247" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B248" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+      <c r="E248">
+        <v>118</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>76</v>
+      </c>
+      <c r="H248">
+        <v>68</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>4</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B249" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" t="s">
+        <v>36</v>
+      </c>
+      <c r="D249" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249">
+        <v>144</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>97</v>
+      </c>
+      <c r="H249">
+        <v>88</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>9</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>8</v>
+      </c>
+      <c r="M249" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B250" t="s">
+        <v>40</v>
+      </c>
+      <c r="C250" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" t="s">
+        <v>42</v>
+      </c>
+      <c r="E250">
+        <v>128</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>92</v>
+      </c>
+      <c r="H250">
+        <v>83</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>11</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>7</v>
+      </c>
+      <c r="M250" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B251" t="s">
+        <v>43</v>
+      </c>
+      <c r="C251" t="s">
+        <v>44</v>
+      </c>
+      <c r="D251" t="s">
+        <v>45</v>
+      </c>
+      <c r="E251">
+        <v>1458</v>
+      </c>
+      <c r="F251">
+        <v>1162</v>
+      </c>
+      <c r="G251">
+        <v>117</v>
+      </c>
+      <c r="H251">
+        <v>94</v>
+      </c>
+      <c r="I251">
+        <v>6</v>
+      </c>
+      <c r="J251">
+        <v>135</v>
+      </c>
+      <c r="K251">
+        <v>15</v>
+      </c>
+      <c r="L251">
+        <v>131</v>
+      </c>
+      <c r="M251" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B252" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" t="s">
+        <v>49</v>
+      </c>
+      <c r="E252">
+        <v>5001</v>
+      </c>
+      <c r="F252">
+        <v>950</v>
+      </c>
+      <c r="G252">
+        <v>2707</v>
+      </c>
+      <c r="H252">
+        <v>143</v>
+      </c>
+      <c r="I252">
+        <v>10</v>
+      </c>
+      <c r="J252">
+        <v>268</v>
+      </c>
+      <c r="K252">
+        <v>2609</v>
+      </c>
+      <c r="L252">
+        <v>146</v>
+      </c>
+      <c r="M252" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B253" t="s">
+        <v>50</v>
+      </c>
+      <c r="C253" t="s">
+        <v>51</v>
+      </c>
+      <c r="D253" t="s">
+        <v>52</v>
+      </c>
+      <c r="E253">
+        <v>789</v>
+      </c>
+      <c r="F253">
+        <v>346</v>
+      </c>
+      <c r="G253">
+        <v>264</v>
+      </c>
+      <c r="H253">
+        <v>109</v>
+      </c>
+      <c r="I253">
+        <v>13</v>
+      </c>
+      <c r="J253">
+        <v>70</v>
+      </c>
+      <c r="K253">
+        <v>172</v>
+      </c>
+      <c r="L253">
+        <v>56</v>
+      </c>
+      <c r="M253" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="56">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10950,6 +10950,539 @@
         <v>39</v>
       </c>
     </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254">
+        <v>82</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>50</v>
+      </c>
+      <c r="H254">
+        <v>18</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>4</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>3</v>
+      </c>
+      <c r="M254" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B255" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255">
+        <v>94</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>59</v>
+      </c>
+      <c r="H255">
+        <v>28</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>4</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256">
+        <v>537</v>
+      </c>
+      <c r="F256">
+        <v>348</v>
+      </c>
+      <c r="G256">
+        <v>77</v>
+      </c>
+      <c r="H256">
+        <v>41</v>
+      </c>
+      <c r="I256">
+        <v>5</v>
+      </c>
+      <c r="J256">
+        <v>36</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>31</v>
+      </c>
+      <c r="M256" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" t="s">
+        <v>24</v>
+      </c>
+      <c r="D257" t="s">
+        <v>25</v>
+      </c>
+      <c r="E257">
+        <v>104</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>83</v>
+      </c>
+      <c r="H257">
+        <v>42</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>3</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B258" t="s">
+        <v>26</v>
+      </c>
+      <c r="C258" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258">
+        <v>120</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>84</v>
+      </c>
+      <c r="H258">
+        <v>54</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>12</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>8</v>
+      </c>
+      <c r="M258" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B259" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" t="s">
+        <v>55</v>
+      </c>
+      <c r="E259">
+        <v>114</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>81</v>
+      </c>
+      <c r="H259">
+        <v>50</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>4</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C260" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260">
+        <v>1322</v>
+      </c>
+      <c r="F260">
+        <v>977</v>
+      </c>
+      <c r="G260">
+        <v>90</v>
+      </c>
+      <c r="H260">
+        <v>57</v>
+      </c>
+      <c r="I260">
+        <v>7</v>
+      </c>
+      <c r="J260">
+        <v>131</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>125</v>
+      </c>
+      <c r="M260" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B261" t="s">
+        <v>32</v>
+      </c>
+      <c r="C261" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261">
+        <v>118</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>76</v>
+      </c>
+      <c r="H261">
+        <v>68</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>4</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B262" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262">
+        <v>144</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>97</v>
+      </c>
+      <c r="H262">
+        <v>88</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>9</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>8</v>
+      </c>
+      <c r="M262" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B263" t="s">
+        <v>40</v>
+      </c>
+      <c r="C263" t="s">
+        <v>41</v>
+      </c>
+      <c r="D263" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263">
+        <v>128</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>92</v>
+      </c>
+      <c r="H263">
+        <v>83</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>11</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>7</v>
+      </c>
+      <c r="M263" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B264" t="s">
+        <v>43</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264" t="s">
+        <v>45</v>
+      </c>
+      <c r="E264">
+        <v>1458</v>
+      </c>
+      <c r="F264">
+        <v>1162</v>
+      </c>
+      <c r="G264">
+        <v>117</v>
+      </c>
+      <c r="H264">
+        <v>94</v>
+      </c>
+      <c r="I264">
+        <v>6</v>
+      </c>
+      <c r="J264">
+        <v>135</v>
+      </c>
+      <c r="K264">
+        <v>15</v>
+      </c>
+      <c r="L264">
+        <v>131</v>
+      </c>
+      <c r="M264" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B265" t="s">
+        <v>47</v>
+      </c>
+      <c r="C265" t="s">
+        <v>48</v>
+      </c>
+      <c r="D265" t="s">
+        <v>49</v>
+      </c>
+      <c r="E265">
+        <v>5008</v>
+      </c>
+      <c r="F265">
+        <v>950</v>
+      </c>
+      <c r="G265">
+        <v>2711</v>
+      </c>
+      <c r="H265">
+        <v>143</v>
+      </c>
+      <c r="I265">
+        <v>10</v>
+      </c>
+      <c r="J265">
+        <v>268</v>
+      </c>
+      <c r="K265">
+        <v>2616</v>
+      </c>
+      <c r="L265">
+        <v>146</v>
+      </c>
+      <c r="M265" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
+        <v>51</v>
+      </c>
+      <c r="D266" t="s">
+        <v>52</v>
+      </c>
+      <c r="E266">
+        <v>790</v>
+      </c>
+      <c r="F266">
+        <v>346</v>
+      </c>
+      <c r="G266">
+        <v>264</v>
+      </c>
+      <c r="H266">
+        <v>109</v>
+      </c>
+      <c r="I266">
+        <v>13</v>
+      </c>
+      <c r="J266">
+        <v>70</v>
+      </c>
+      <c r="K266">
+        <v>172</v>
+      </c>
+      <c r="L266">
+        <v>56</v>
+      </c>
+      <c r="M266" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="56">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11483,6 +11483,539 @@
         <v>38</v>
       </c>
     </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267">
+        <v>82</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>50</v>
+      </c>
+      <c r="H267">
+        <v>18</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>4</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>3</v>
+      </c>
+      <c r="M267" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" t="s">
+        <v>18</v>
+      </c>
+      <c r="D268" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268">
+        <v>94</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>59</v>
+      </c>
+      <c r="H268">
+        <v>28</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>4</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>4</v>
+      </c>
+      <c r="M268" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B269" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269">
+        <v>537</v>
+      </c>
+      <c r="F269">
+        <v>348</v>
+      </c>
+      <c r="G269">
+        <v>77</v>
+      </c>
+      <c r="H269">
+        <v>41</v>
+      </c>
+      <c r="I269">
+        <v>5</v>
+      </c>
+      <c r="J269">
+        <v>36</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>31</v>
+      </c>
+      <c r="M269" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B270" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" t="s">
+        <v>24</v>
+      </c>
+      <c r="D270" t="s">
+        <v>25</v>
+      </c>
+      <c r="E270">
+        <v>104</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>83</v>
+      </c>
+      <c r="H270">
+        <v>42</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>3</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B271" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271">
+        <v>120</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>84</v>
+      </c>
+      <c r="H271">
+        <v>54</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>12</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>8</v>
+      </c>
+      <c r="M271" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B272" t="s">
+        <v>53</v>
+      </c>
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" t="s">
+        <v>55</v>
+      </c>
+      <c r="E272">
+        <v>114</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>81</v>
+      </c>
+      <c r="H272">
+        <v>50</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>4</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B273" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" t="s">
+        <v>30</v>
+      </c>
+      <c r="D273" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273">
+        <v>1322</v>
+      </c>
+      <c r="F273">
+        <v>977</v>
+      </c>
+      <c r="G273">
+        <v>90</v>
+      </c>
+      <c r="H273">
+        <v>57</v>
+      </c>
+      <c r="I273">
+        <v>7</v>
+      </c>
+      <c r="J273">
+        <v>131</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>125</v>
+      </c>
+      <c r="M273" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B274" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274" t="s">
+        <v>33</v>
+      </c>
+      <c r="D274" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274">
+        <v>118</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>76</v>
+      </c>
+      <c r="H274">
+        <v>68</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>4</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B275" t="s">
+        <v>35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>37</v>
+      </c>
+      <c r="E275">
+        <v>144</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>97</v>
+      </c>
+      <c r="H275">
+        <v>88</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>9</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>8</v>
+      </c>
+      <c r="M275" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B276" t="s">
+        <v>40</v>
+      </c>
+      <c r="C276" t="s">
+        <v>41</v>
+      </c>
+      <c r="D276" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276">
+        <v>128</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>92</v>
+      </c>
+      <c r="H276">
+        <v>83</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>11</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>7</v>
+      </c>
+      <c r="M276" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B277" t="s">
+        <v>43</v>
+      </c>
+      <c r="C277" t="s">
+        <v>44</v>
+      </c>
+      <c r="D277" t="s">
+        <v>45</v>
+      </c>
+      <c r="E277">
+        <v>1458</v>
+      </c>
+      <c r="F277">
+        <v>1162</v>
+      </c>
+      <c r="G277">
+        <v>117</v>
+      </c>
+      <c r="H277">
+        <v>94</v>
+      </c>
+      <c r="I277">
+        <v>6</v>
+      </c>
+      <c r="J277">
+        <v>135</v>
+      </c>
+      <c r="K277">
+        <v>15</v>
+      </c>
+      <c r="L277">
+        <v>131</v>
+      </c>
+      <c r="M277" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C278" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" t="s">
+        <v>49</v>
+      </c>
+      <c r="E278">
+        <v>5010</v>
+      </c>
+      <c r="F278">
+        <v>950</v>
+      </c>
+      <c r="G278">
+        <v>2711</v>
+      </c>
+      <c r="H278">
+        <v>143</v>
+      </c>
+      <c r="I278">
+        <v>10</v>
+      </c>
+      <c r="J278">
+        <v>268</v>
+      </c>
+      <c r="K278">
+        <v>2616</v>
+      </c>
+      <c r="L278">
+        <v>146</v>
+      </c>
+      <c r="M278" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B279" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" t="s">
+        <v>51</v>
+      </c>
+      <c r="D279" t="s">
+        <v>52</v>
+      </c>
+      <c r="E279">
+        <v>790</v>
+      </c>
+      <c r="F279">
+        <v>346</v>
+      </c>
+      <c r="G279">
+        <v>264</v>
+      </c>
+      <c r="H279">
+        <v>109</v>
+      </c>
+      <c r="I279">
+        <v>13</v>
+      </c>
+      <c r="J279">
+        <v>70</v>
+      </c>
+      <c r="K279">
+        <v>172</v>
+      </c>
+      <c r="L279">
+        <v>56</v>
+      </c>
+      <c r="M279" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="64">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -209,6 +209,69 @@
   </si>
   <si>
     <t>quote</t>
+  </si>
+  <si>
+    <t>974146599436745_1081619658689438</t>
+  </si>
+  <si>
+    <t>2019-04-12T07:59:01</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS
+[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
+H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 10 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Einai anagkaio na patesete Like ste Selida mas!
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>15/04/2019</t>
+  </si>
+  <si>
+    <t>Begging for likes 
+Me:</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient 
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS
+[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
+H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 10 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Einai anagkaio na patesete Like ste Selida mas!
+Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -566,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M279"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12016,6 +12079,1728 @@
         <v>39</v>
       </c>
     </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280">
+        <v>82</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>50</v>
+      </c>
+      <c r="H280">
+        <v>18</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>4</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>3</v>
+      </c>
+      <c r="M280" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B281" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281">
+        <v>94</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>59</v>
+      </c>
+      <c r="H281">
+        <v>28</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>4</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282">
+        <v>537</v>
+      </c>
+      <c r="F282">
+        <v>348</v>
+      </c>
+      <c r="G282">
+        <v>77</v>
+      </c>
+      <c r="H282">
+        <v>41</v>
+      </c>
+      <c r="I282">
+        <v>5</v>
+      </c>
+      <c r="J282">
+        <v>36</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>31</v>
+      </c>
+      <c r="M282" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B283" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" t="s">
+        <v>24</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283">
+        <v>104</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>83</v>
+      </c>
+      <c r="H283">
+        <v>42</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>3</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" t="s">
+        <v>27</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284">
+        <v>120</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>84</v>
+      </c>
+      <c r="H284">
+        <v>54</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>12</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>8</v>
+      </c>
+      <c r="M284" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>53</v>
+      </c>
+      <c r="C285" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" t="s">
+        <v>55</v>
+      </c>
+      <c r="E285">
+        <v>114</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>81</v>
+      </c>
+      <c r="H285">
+        <v>50</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>4</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B286" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" t="s">
+        <v>31</v>
+      </c>
+      <c r="E286">
+        <v>1322</v>
+      </c>
+      <c r="F286">
+        <v>977</v>
+      </c>
+      <c r="G286">
+        <v>90</v>
+      </c>
+      <c r="H286">
+        <v>57</v>
+      </c>
+      <c r="I286">
+        <v>7</v>
+      </c>
+      <c r="J286">
+        <v>131</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>125</v>
+      </c>
+      <c r="M286" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B287" t="s">
+        <v>32</v>
+      </c>
+      <c r="C287" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" t="s">
+        <v>34</v>
+      </c>
+      <c r="E287">
+        <v>118</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>76</v>
+      </c>
+      <c r="H287">
+        <v>68</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>4</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288" t="s">
+        <v>36</v>
+      </c>
+      <c r="D288" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288">
+        <v>144</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>97</v>
+      </c>
+      <c r="H288">
+        <v>88</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>9</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>8</v>
+      </c>
+      <c r="M288" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289" t="s">
+        <v>41</v>
+      </c>
+      <c r="D289" t="s">
+        <v>42</v>
+      </c>
+      <c r="E289">
+        <v>128</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>92</v>
+      </c>
+      <c r="H289">
+        <v>83</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>11</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>7</v>
+      </c>
+      <c r="M289" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B290" t="s">
+        <v>43</v>
+      </c>
+      <c r="C290" t="s">
+        <v>44</v>
+      </c>
+      <c r="D290" t="s">
+        <v>45</v>
+      </c>
+      <c r="E290">
+        <v>1458</v>
+      </c>
+      <c r="F290">
+        <v>1162</v>
+      </c>
+      <c r="G290">
+        <v>117</v>
+      </c>
+      <c r="H290">
+        <v>94</v>
+      </c>
+      <c r="I290">
+        <v>6</v>
+      </c>
+      <c r="J290">
+        <v>135</v>
+      </c>
+      <c r="K290">
+        <v>15</v>
+      </c>
+      <c r="L290">
+        <v>131</v>
+      </c>
+      <c r="M290" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" t="s">
+        <v>48</v>
+      </c>
+      <c r="D291" t="s">
+        <v>49</v>
+      </c>
+      <c r="E291">
+        <v>5016</v>
+      </c>
+      <c r="F291">
+        <v>950</v>
+      </c>
+      <c r="G291">
+        <v>2715</v>
+      </c>
+      <c r="H291">
+        <v>143</v>
+      </c>
+      <c r="I291">
+        <v>10</v>
+      </c>
+      <c r="J291">
+        <v>268</v>
+      </c>
+      <c r="K291">
+        <v>2619</v>
+      </c>
+      <c r="L291">
+        <v>146</v>
+      </c>
+      <c r="M291" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B292" t="s">
+        <v>50</v>
+      </c>
+      <c r="C292" t="s">
+        <v>51</v>
+      </c>
+      <c r="D292" t="s">
+        <v>52</v>
+      </c>
+      <c r="E292">
+        <v>791</v>
+      </c>
+      <c r="F292">
+        <v>346</v>
+      </c>
+      <c r="G292">
+        <v>264</v>
+      </c>
+      <c r="H292">
+        <v>109</v>
+      </c>
+      <c r="I292">
+        <v>13</v>
+      </c>
+      <c r="J292">
+        <v>71</v>
+      </c>
+      <c r="K292">
+        <v>172</v>
+      </c>
+      <c r="L292">
+        <v>56</v>
+      </c>
+      <c r="M292" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B293" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" t="s">
+        <v>57</v>
+      </c>
+      <c r="D293" t="s">
+        <v>58</v>
+      </c>
+      <c r="E293">
+        <v>408</v>
+      </c>
+      <c r="F293">
+        <v>160</v>
+      </c>
+      <c r="G293">
+        <v>141</v>
+      </c>
+      <c r="H293">
+        <v>100</v>
+      </c>
+      <c r="I293">
+        <v>17</v>
+      </c>
+      <c r="J293">
+        <v>32</v>
+      </c>
+      <c r="K293">
+        <v>49</v>
+      </c>
+      <c r="L293">
+        <v>27</v>
+      </c>
+      <c r="M293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294">
+        <v>82</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>50</v>
+      </c>
+      <c r="H294">
+        <v>18</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>4</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B295" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295">
+        <v>94</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>59</v>
+      </c>
+      <c r="H295">
+        <v>28</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>4</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296">
+        <v>537</v>
+      </c>
+      <c r="F296">
+        <v>348</v>
+      </c>
+      <c r="G296">
+        <v>77</v>
+      </c>
+      <c r="H296">
+        <v>41</v>
+      </c>
+      <c r="I296">
+        <v>5</v>
+      </c>
+      <c r="J296">
+        <v>36</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>31</v>
+      </c>
+      <c r="M296" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" t="s">
+        <v>24</v>
+      </c>
+      <c r="D297" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297">
+        <v>104</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>83</v>
+      </c>
+      <c r="H297">
+        <v>42</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>3</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B298" t="s">
+        <v>26</v>
+      </c>
+      <c r="C298" t="s">
+        <v>27</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298">
+        <v>120</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>84</v>
+      </c>
+      <c r="H298">
+        <v>54</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>12</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>8</v>
+      </c>
+      <c r="M298" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B299" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" t="s">
+        <v>55</v>
+      </c>
+      <c r="E299">
+        <v>114</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>81</v>
+      </c>
+      <c r="H299">
+        <v>50</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>4</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B300" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" t="s">
+        <v>31</v>
+      </c>
+      <c r="E300">
+        <v>1322</v>
+      </c>
+      <c r="F300">
+        <v>977</v>
+      </c>
+      <c r="G300">
+        <v>90</v>
+      </c>
+      <c r="H300">
+        <v>57</v>
+      </c>
+      <c r="I300">
+        <v>7</v>
+      </c>
+      <c r="J300">
+        <v>131</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>125</v>
+      </c>
+      <c r="M300" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B301" t="s">
+        <v>32</v>
+      </c>
+      <c r="C301" t="s">
+        <v>33</v>
+      </c>
+      <c r="D301" t="s">
+        <v>34</v>
+      </c>
+      <c r="E301">
+        <v>118</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>76</v>
+      </c>
+      <c r="H301">
+        <v>68</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>4</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B302" t="s">
+        <v>35</v>
+      </c>
+      <c r="C302" t="s">
+        <v>36</v>
+      </c>
+      <c r="D302" t="s">
+        <v>60</v>
+      </c>
+      <c r="E302">
+        <v>144</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>97</v>
+      </c>
+      <c r="H302">
+        <v>88</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>9</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>8</v>
+      </c>
+      <c r="M302" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B303" t="s">
+        <v>40</v>
+      </c>
+      <c r="C303" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" t="s">
+        <v>42</v>
+      </c>
+      <c r="E303">
+        <v>128</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>92</v>
+      </c>
+      <c r="H303">
+        <v>83</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>11</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>7</v>
+      </c>
+      <c r="M303" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B304" t="s">
+        <v>43</v>
+      </c>
+      <c r="C304" t="s">
+        <v>44</v>
+      </c>
+      <c r="D304" t="s">
+        <v>45</v>
+      </c>
+      <c r="E304">
+        <v>1458</v>
+      </c>
+      <c r="F304">
+        <v>1162</v>
+      </c>
+      <c r="G304">
+        <v>117</v>
+      </c>
+      <c r="H304">
+        <v>94</v>
+      </c>
+      <c r="I304">
+        <v>6</v>
+      </c>
+      <c r="J304">
+        <v>135</v>
+      </c>
+      <c r="K304">
+        <v>15</v>
+      </c>
+      <c r="L304">
+        <v>131</v>
+      </c>
+      <c r="M304" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B305" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" t="s">
+        <v>48</v>
+      </c>
+      <c r="D305" t="s">
+        <v>61</v>
+      </c>
+      <c r="E305">
+        <v>5016</v>
+      </c>
+      <c r="F305">
+        <v>950</v>
+      </c>
+      <c r="G305">
+        <v>2715</v>
+      </c>
+      <c r="H305">
+        <v>143</v>
+      </c>
+      <c r="I305">
+        <v>10</v>
+      </c>
+      <c r="J305">
+        <v>268</v>
+      </c>
+      <c r="K305">
+        <v>2619</v>
+      </c>
+      <c r="L305">
+        <v>146</v>
+      </c>
+      <c r="M305" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B306" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" t="s">
+        <v>51</v>
+      </c>
+      <c r="D306" t="s">
+        <v>62</v>
+      </c>
+      <c r="E306">
+        <v>791</v>
+      </c>
+      <c r="F306">
+        <v>346</v>
+      </c>
+      <c r="G306">
+        <v>264</v>
+      </c>
+      <c r="H306">
+        <v>109</v>
+      </c>
+      <c r="I306">
+        <v>13</v>
+      </c>
+      <c r="J306">
+        <v>71</v>
+      </c>
+      <c r="K306">
+        <v>172</v>
+      </c>
+      <c r="L306">
+        <v>56</v>
+      </c>
+      <c r="M306" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B307" t="s">
+        <v>56</v>
+      </c>
+      <c r="C307" t="s">
+        <v>57</v>
+      </c>
+      <c r="D307" t="s">
+        <v>63</v>
+      </c>
+      <c r="E307">
+        <v>791</v>
+      </c>
+      <c r="F307">
+        <v>196</v>
+      </c>
+      <c r="G307">
+        <v>201</v>
+      </c>
+      <c r="H307">
+        <v>105</v>
+      </c>
+      <c r="I307">
+        <v>17</v>
+      </c>
+      <c r="J307">
+        <v>36</v>
+      </c>
+      <c r="K307">
+        <v>94</v>
+      </c>
+      <c r="L307">
+        <v>32</v>
+      </c>
+      <c r="M307" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>59</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308">
+        <v>82</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>50</v>
+      </c>
+      <c r="H308">
+        <v>18</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>4</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>3</v>
+      </c>
+      <c r="M308" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>59</v>
+      </c>
+      <c r="B309" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309">
+        <v>94</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>59</v>
+      </c>
+      <c r="H309">
+        <v>28</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>4</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>4</v>
+      </c>
+      <c r="M309" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>59</v>
+      </c>
+      <c r="B310" t="s">
+        <v>20</v>
+      </c>
+      <c r="C310" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310">
+        <v>537</v>
+      </c>
+      <c r="F310">
+        <v>348</v>
+      </c>
+      <c r="G310">
+        <v>77</v>
+      </c>
+      <c r="H310">
+        <v>41</v>
+      </c>
+      <c r="I310">
+        <v>5</v>
+      </c>
+      <c r="J310">
+        <v>36</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>31</v>
+      </c>
+      <c r="M310" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>59</v>
+      </c>
+      <c r="B311" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" t="s">
+        <v>24</v>
+      </c>
+      <c r="D311" t="s">
+        <v>25</v>
+      </c>
+      <c r="E311">
+        <v>104</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>83</v>
+      </c>
+      <c r="H311">
+        <v>42</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>3</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>59</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" t="s">
+        <v>27</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312">
+        <v>120</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>84</v>
+      </c>
+      <c r="H312">
+        <v>54</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>12</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>8</v>
+      </c>
+      <c r="M312" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>59</v>
+      </c>
+      <c r="B313" t="s">
+        <v>53</v>
+      </c>
+      <c r="C313" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313" t="s">
+        <v>55</v>
+      </c>
+      <c r="E313">
+        <v>114</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>81</v>
+      </c>
+      <c r="H313">
+        <v>50</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>4</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>59</v>
+      </c>
+      <c r="B314" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" t="s">
+        <v>31</v>
+      </c>
+      <c r="E314">
+        <v>1322</v>
+      </c>
+      <c r="F314">
+        <v>977</v>
+      </c>
+      <c r="G314">
+        <v>90</v>
+      </c>
+      <c r="H314">
+        <v>57</v>
+      </c>
+      <c r="I314">
+        <v>7</v>
+      </c>
+      <c r="J314">
+        <v>131</v>
+      </c>
+      <c r="K314">
+        <v>2</v>
+      </c>
+      <c r="L314">
+        <v>125</v>
+      </c>
+      <c r="M314" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>59</v>
+      </c>
+      <c r="B315" t="s">
+        <v>32</v>
+      </c>
+      <c r="C315" t="s">
+        <v>33</v>
+      </c>
+      <c r="D315" t="s">
+        <v>34</v>
+      </c>
+      <c r="E315">
+        <v>118</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>76</v>
+      </c>
+      <c r="H315">
+        <v>68</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>4</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>59</v>
+      </c>
+      <c r="B316" t="s">
+        <v>35</v>
+      </c>
+      <c r="C316" t="s">
+        <v>36</v>
+      </c>
+      <c r="D316" t="s">
+        <v>37</v>
+      </c>
+      <c r="E316">
+        <v>144</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>97</v>
+      </c>
+      <c r="H316">
+        <v>88</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>9</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>8</v>
+      </c>
+      <c r="M316" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>59</v>
+      </c>
+      <c r="B317" t="s">
+        <v>40</v>
+      </c>
+      <c r="C317" t="s">
+        <v>41</v>
+      </c>
+      <c r="D317" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317">
+        <v>128</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>92</v>
+      </c>
+      <c r="H317">
+        <v>83</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>11</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>7</v>
+      </c>
+      <c r="M317" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>59</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>44</v>
+      </c>
+      <c r="D318" t="s">
+        <v>45</v>
+      </c>
+      <c r="E318">
+        <v>1458</v>
+      </c>
+      <c r="F318">
+        <v>1162</v>
+      </c>
+      <c r="G318">
+        <v>117</v>
+      </c>
+      <c r="H318">
+        <v>94</v>
+      </c>
+      <c r="I318">
+        <v>6</v>
+      </c>
+      <c r="J318">
+        <v>135</v>
+      </c>
+      <c r="K318">
+        <v>15</v>
+      </c>
+      <c r="L318">
+        <v>131</v>
+      </c>
+      <c r="M318" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>59</v>
+      </c>
+      <c r="B319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>48</v>
+      </c>
+      <c r="D319" t="s">
+        <v>49</v>
+      </c>
+      <c r="E319">
+        <v>5018</v>
+      </c>
+      <c r="F319">
+        <v>950</v>
+      </c>
+      <c r="G319">
+        <v>2715</v>
+      </c>
+      <c r="H319">
+        <v>143</v>
+      </c>
+      <c r="I319">
+        <v>10</v>
+      </c>
+      <c r="J319">
+        <v>268</v>
+      </c>
+      <c r="K319">
+        <v>2619</v>
+      </c>
+      <c r="L319">
+        <v>146</v>
+      </c>
+      <c r="M319" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>59</v>
+      </c>
+      <c r="B320" t="s">
+        <v>50</v>
+      </c>
+      <c r="C320" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" t="s">
+        <v>52</v>
+      </c>
+      <c r="E320">
+        <v>791</v>
+      </c>
+      <c r="F320">
+        <v>346</v>
+      </c>
+      <c r="G320">
+        <v>264</v>
+      </c>
+      <c r="H320">
+        <v>109</v>
+      </c>
+      <c r="I320">
+        <v>13</v>
+      </c>
+      <c r="J320">
+        <v>71</v>
+      </c>
+      <c r="K320">
+        <v>172</v>
+      </c>
+      <c r="L320">
+        <v>56</v>
+      </c>
+      <c r="M320" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" t="s">
+        <v>56</v>
+      </c>
+      <c r="C321" t="s">
+        <v>57</v>
+      </c>
+      <c r="D321" t="s">
+        <v>58</v>
+      </c>
+      <c r="E321">
+        <v>637</v>
+      </c>
+      <c r="F321">
+        <v>225</v>
+      </c>
+      <c r="G321">
+        <v>244</v>
+      </c>
+      <c r="H321">
+        <v>119</v>
+      </c>
+      <c r="I321">
+        <v>17</v>
+      </c>
+      <c r="J321">
+        <v>47</v>
+      </c>
+      <c r="K321">
+        <v>140</v>
+      </c>
+      <c r="L321">
+        <v>38</v>
+      </c>
+      <c r="M321" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="60">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -232,46 +232,6 @@
   </si>
   <si>
     <t>15/04/2019</t>
-  </si>
-  <si>
-    <t>Begging for likes 
-Me:</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Mediocre Level of Intelligence Quotient 
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>DIAGONISMOS
-[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
-H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 10 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-U.G. Einai anagkaio na patesete Like ste Selida mas!
-Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -629,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M321"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12992,7 +12952,7 @@
         <v>36</v>
       </c>
       <c r="D302" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E302">
         <v>144</v>
@@ -13115,7 +13075,7 @@
         <v>48</v>
       </c>
       <c r="D305" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E305">
         <v>5016</v>
@@ -13142,7 +13102,7 @@
         <v>146</v>
       </c>
       <c r="M305" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
@@ -13156,7 +13116,7 @@
         <v>51</v>
       </c>
       <c r="D306" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E306">
         <v>791</v>
@@ -13183,7 +13143,7 @@
         <v>56</v>
       </c>
       <c r="M306" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
@@ -13197,7 +13157,7 @@
         <v>57</v>
       </c>
       <c r="D307" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E307">
         <v>791</v>
@@ -13798,6 +13758,580 @@
         <v>38</v>
       </c>
       <c r="M321" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322">
+        <v>82</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>50</v>
+      </c>
+      <c r="H322">
+        <v>18</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>4</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>3</v>
+      </c>
+      <c r="M322" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323">
+        <v>94</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>59</v>
+      </c>
+      <c r="H323">
+        <v>28</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>4</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>4</v>
+      </c>
+      <c r="M323" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B324" t="s">
+        <v>20</v>
+      </c>
+      <c r="C324" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324">
+        <v>537</v>
+      </c>
+      <c r="F324">
+        <v>348</v>
+      </c>
+      <c r="G324">
+        <v>77</v>
+      </c>
+      <c r="H324">
+        <v>41</v>
+      </c>
+      <c r="I324">
+        <v>5</v>
+      </c>
+      <c r="J324">
+        <v>36</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>31</v>
+      </c>
+      <c r="M324" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B325" t="s">
+        <v>23</v>
+      </c>
+      <c r="C325" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" t="s">
+        <v>25</v>
+      </c>
+      <c r="E325">
+        <v>104</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>83</v>
+      </c>
+      <c r="H325">
+        <v>42</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>3</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326" t="s">
+        <v>27</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326">
+        <v>120</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>84</v>
+      </c>
+      <c r="H326">
+        <v>54</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>12</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>8</v>
+      </c>
+      <c r="M326" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" t="s">
+        <v>55</v>
+      </c>
+      <c r="E327">
+        <v>114</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>81</v>
+      </c>
+      <c r="H327">
+        <v>50</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>4</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>2</v>
+      </c>
+      <c r="M327" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" t="s">
+        <v>31</v>
+      </c>
+      <c r="E328">
+        <v>1322</v>
+      </c>
+      <c r="F328">
+        <v>977</v>
+      </c>
+      <c r="G328">
+        <v>90</v>
+      </c>
+      <c r="H328">
+        <v>57</v>
+      </c>
+      <c r="I328">
+        <v>7</v>
+      </c>
+      <c r="J328">
+        <v>131</v>
+      </c>
+      <c r="K328">
+        <v>2</v>
+      </c>
+      <c r="L328">
+        <v>125</v>
+      </c>
+      <c r="M328" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B329" t="s">
+        <v>32</v>
+      </c>
+      <c r="C329" t="s">
+        <v>33</v>
+      </c>
+      <c r="D329" t="s">
+        <v>34</v>
+      </c>
+      <c r="E329">
+        <v>118</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>76</v>
+      </c>
+      <c r="H329">
+        <v>68</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>4</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>2</v>
+      </c>
+      <c r="M329" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B330" t="s">
+        <v>35</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
+      </c>
+      <c r="D330" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330">
+        <v>144</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>97</v>
+      </c>
+      <c r="H330">
+        <v>88</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>9</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>8</v>
+      </c>
+      <c r="M330" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B331" t="s">
+        <v>40</v>
+      </c>
+      <c r="C331" t="s">
+        <v>41</v>
+      </c>
+      <c r="D331" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331">
+        <v>128</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>92</v>
+      </c>
+      <c r="H331">
+        <v>83</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>11</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>7</v>
+      </c>
+      <c r="M331" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B332" t="s">
+        <v>43</v>
+      </c>
+      <c r="C332" t="s">
+        <v>44</v>
+      </c>
+      <c r="D332" t="s">
+        <v>45</v>
+      </c>
+      <c r="E332">
+        <v>1458</v>
+      </c>
+      <c r="F332">
+        <v>1162</v>
+      </c>
+      <c r="G332">
+        <v>117</v>
+      </c>
+      <c r="H332">
+        <v>94</v>
+      </c>
+      <c r="I332">
+        <v>6</v>
+      </c>
+      <c r="J332">
+        <v>135</v>
+      </c>
+      <c r="K332">
+        <v>15</v>
+      </c>
+      <c r="L332">
+        <v>131</v>
+      </c>
+      <c r="M332" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B333" t="s">
+        <v>47</v>
+      </c>
+      <c r="C333" t="s">
+        <v>48</v>
+      </c>
+      <c r="D333" t="s">
+        <v>49</v>
+      </c>
+      <c r="E333">
+        <v>5020</v>
+      </c>
+      <c r="F333">
+        <v>950</v>
+      </c>
+      <c r="G333">
+        <v>2715</v>
+      </c>
+      <c r="H333">
+        <v>143</v>
+      </c>
+      <c r="I333">
+        <v>10</v>
+      </c>
+      <c r="J333">
+        <v>268</v>
+      </c>
+      <c r="K333">
+        <v>2619</v>
+      </c>
+      <c r="L333">
+        <v>146</v>
+      </c>
+      <c r="M333" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B334" t="s">
+        <v>50</v>
+      </c>
+      <c r="C334" t="s">
+        <v>51</v>
+      </c>
+      <c r="D334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E334">
+        <v>792</v>
+      </c>
+      <c r="F334">
+        <v>346</v>
+      </c>
+      <c r="G334">
+        <v>265</v>
+      </c>
+      <c r="H334">
+        <v>109</v>
+      </c>
+      <c r="I334">
+        <v>13</v>
+      </c>
+      <c r="J334">
+        <v>71</v>
+      </c>
+      <c r="K334">
+        <v>173</v>
+      </c>
+      <c r="L334">
+        <v>56</v>
+      </c>
+      <c r="M334" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B335" t="s">
+        <v>56</v>
+      </c>
+      <c r="C335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" t="s">
+        <v>58</v>
+      </c>
+      <c r="E335">
+        <v>704</v>
+      </c>
+      <c r="F335">
+        <v>225</v>
+      </c>
+      <c r="G335">
+        <v>290</v>
+      </c>
+      <c r="H335">
+        <v>123</v>
+      </c>
+      <c r="I335">
+        <v>17</v>
+      </c>
+      <c r="J335">
+        <v>49</v>
+      </c>
+      <c r="K335">
+        <v>184</v>
+      </c>
+      <c r="L335">
+        <v>39</v>
+      </c>
+      <c r="M335" t="s">
         <v>38</v>
       </c>
     </row>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="63">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -231,7 +231,44 @@
 Kale epitukhia!!!!</t>
   </si>
   <si>
-    <t>15/04/2019</t>
+    <t>Begging for likes 
+Me:</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient 
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>*[?][?]DIAGONISMOS[?][?]*
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 5 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS
+[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
+H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Pateste Like sten selida mas
+3. Pateste "Mou aresei", akoma kai an den sas aresei
+4. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 10 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Einai anagkaio na patesete Like ste Selida mas!
+Kale epitukhia!!!!</t>
   </si>
 </sst>
 </file>
@@ -589,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="M321" sqref="M321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12615,7 +12652,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B294" t="s">
         <v>13</v>
@@ -12656,7 +12693,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B295" t="s">
         <v>17</v>
@@ -12697,7 +12734,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B296" t="s">
         <v>20</v>
@@ -12738,7 +12775,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B297" t="s">
         <v>23</v>
@@ -12779,7 +12816,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B298" t="s">
         <v>26</v>
@@ -12820,7 +12857,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B299" t="s">
         <v>53</v>
@@ -12861,7 +12898,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B300" t="s">
         <v>29</v>
@@ -12902,7 +12939,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B301" t="s">
         <v>32</v>
@@ -12943,7 +12980,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B302" t="s">
         <v>35</v>
@@ -12984,7 +13021,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B303" t="s">
         <v>40</v>
@@ -13025,7 +13062,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B304" t="s">
         <v>43</v>
@@ -13066,7 +13103,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B305" t="s">
         <v>47</v>
@@ -13107,7 +13144,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B306" t="s">
         <v>50</v>
@@ -13148,7 +13185,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="B307" t="s">
         <v>56</v>
@@ -13188,8 +13225,8 @@
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>59</v>
+      <c r="A308" s="1">
+        <v>43570</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
@@ -13229,8 +13266,8 @@
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>59</v>
+      <c r="A309" s="1">
+        <v>43570</v>
       </c>
       <c r="B309" t="s">
         <v>17</v>
@@ -13270,8 +13307,8 @@
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>59</v>
+      <c r="A310" s="1">
+        <v>43570</v>
       </c>
       <c r="B310" t="s">
         <v>20</v>
@@ -13311,8 +13348,8 @@
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>59</v>
+      <c r="A311" s="1">
+        <v>43570</v>
       </c>
       <c r="B311" t="s">
         <v>23</v>
@@ -13352,8 +13389,8 @@
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>59</v>
+      <c r="A312" s="1">
+        <v>43570</v>
       </c>
       <c r="B312" t="s">
         <v>26</v>
@@ -13393,8 +13430,8 @@
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>59</v>
+      <c r="A313" s="1">
+        <v>43570</v>
       </c>
       <c r="B313" t="s">
         <v>53</v>
@@ -13434,8 +13471,8 @@
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>59</v>
+      <c r="A314" s="1">
+        <v>43570</v>
       </c>
       <c r="B314" t="s">
         <v>29</v>
@@ -13475,8 +13512,8 @@
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>59</v>
+      <c r="A315" s="1">
+        <v>43570</v>
       </c>
       <c r="B315" t="s">
         <v>32</v>
@@ -13516,8 +13553,8 @@
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>59</v>
+      <c r="A316" s="1">
+        <v>43570</v>
       </c>
       <c r="B316" t="s">
         <v>35</v>
@@ -13557,8 +13594,8 @@
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>59</v>
+      <c r="A317" s="1">
+        <v>43570</v>
       </c>
       <c r="B317" t="s">
         <v>40</v>
@@ -13598,8 +13635,8 @@
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>59</v>
+      <c r="A318" s="1">
+        <v>43570</v>
       </c>
       <c r="B318" t="s">
         <v>43</v>
@@ -13639,8 +13676,8 @@
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>59</v>
+      <c r="A319" s="1">
+        <v>43570</v>
       </c>
       <c r="B319" t="s">
         <v>47</v>
@@ -13680,8 +13717,8 @@
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>59</v>
+      <c r="A320" s="1">
+        <v>43570</v>
       </c>
       <c r="B320" t="s">
         <v>50</v>
@@ -13721,8 +13758,8 @@
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>59</v>
+      <c r="A321" s="1">
+        <v>43570</v>
       </c>
       <c r="B321" t="s">
         <v>56</v>
@@ -13734,7 +13771,7 @@
         <v>58</v>
       </c>
       <c r="E321">
-        <v>637</v>
+        <v>837</v>
       </c>
       <c r="F321">
         <v>225</v>
@@ -13758,7 +13795,7 @@
         <v>38</v>
       </c>
       <c r="M321" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -14100,7 +14137,7 @@
         <v>36</v>
       </c>
       <c r="D330" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E330">
         <v>144</v>
@@ -14223,10 +14260,10 @@
         <v>48</v>
       </c>
       <c r="D333" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E333">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="F333">
         <v>950</v>
@@ -14264,7 +14301,7 @@
         <v>51</v>
       </c>
       <c r="D334" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E334">
         <v>792</v>
@@ -14291,7 +14328,7 @@
         <v>56</v>
       </c>
       <c r="M334" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
@@ -14305,16 +14342,16 @@
         <v>57</v>
       </c>
       <c r="D335" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E335">
-        <v>704</v>
+        <v>850</v>
       </c>
       <c r="F335">
         <v>225</v>
       </c>
       <c r="G335">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H335">
         <v>123</v>
@@ -14326,7 +14363,7 @@
         <v>49</v>
       </c>
       <c r="K335">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L335">
         <v>39</v>
@@ -14334,6 +14371,48 @@
       <c r="M335" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="60">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -231,44 +231,7 @@
 Kale epitukhia!!!!</t>
   </si>
   <si>
-    <t>Begging for likes 
-Me:</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Slim 500GB  !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Mediocre Level of Intelligence Quotient 
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>*[?][?]DIAGONISMOS[?][?]*
-H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 5 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>DIAGONISMOS
-[?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?][?]
-H My Thesis Page giortazei gia tous apisteutous 400 akolouthous, sas eukharistei gia ten sterixe kai sas prospherei proionta KIKO by Milano !!!
-Gia na summetekhete sto diagonismo mas, prepei na:
-1. Ginete mele sten selida mas, My Thesis Page (r)
-2. Pateste Like sten selida mas
-3. Pateste "Mou aresei", akoma kai an den sas aresei
-4. Mediocre Level of Intelligence Quotient
-O diagonismos legei stis 10 MaIou 2019, 23:59.
-Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
-U.G. Einai anagkaio na patesete Like ste Selida mas!
-Kale epitukhia!!!!</t>
+    <t>17/04/2019</t>
   </si>
 </sst>
 </file>
@@ -626,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="M321" sqref="M321"/>
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14137,7 +14100,7 @@
         <v>36</v>
       </c>
       <c r="D330" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E330">
         <v>144</v>
@@ -14260,7 +14223,7 @@
         <v>48</v>
       </c>
       <c r="D333" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E333">
         <v>5021</v>
@@ -14301,7 +14264,7 @@
         <v>51</v>
       </c>
       <c r="D334" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E334">
         <v>792</v>
@@ -14328,7 +14291,7 @@
         <v>56</v>
       </c>
       <c r="M334" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
@@ -14342,7 +14305,7 @@
         <v>57</v>
       </c>
       <c r="D335" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E335">
         <v>850</v>
@@ -14375,44 +14338,618 @@
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>59</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350">
+        <v>82</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>50</v>
+      </c>
+      <c r="H350">
+        <v>18</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>4</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>59</v>
+      </c>
+      <c r="B351" t="s">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>94</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>59</v>
+      </c>
+      <c r="H351">
+        <v>28</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>4</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>59</v>
+      </c>
+      <c r="B352" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352">
+        <v>537</v>
+      </c>
+      <c r="F352">
+        <v>348</v>
+      </c>
+      <c r="G352">
+        <v>77</v>
+      </c>
+      <c r="H352">
+        <v>41</v>
+      </c>
+      <c r="I352">
+        <v>5</v>
+      </c>
+      <c r="J352">
+        <v>36</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>31</v>
+      </c>
+      <c r="M352" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>59</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" t="s">
+        <v>24</v>
+      </c>
+      <c r="D353" t="s">
+        <v>25</v>
+      </c>
+      <c r="E353">
+        <v>104</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>83</v>
+      </c>
+      <c r="H353">
+        <v>42</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>3</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>2</v>
+      </c>
+      <c r="M353" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>59</v>
+      </c>
+      <c r="B354" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" t="s">
+        <v>27</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>120</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>84</v>
+      </c>
+      <c r="H354">
+        <v>54</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>12</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>8</v>
+      </c>
+      <c r="M354" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>59</v>
+      </c>
+      <c r="B355" t="s">
+        <v>53</v>
+      </c>
+      <c r="C355" t="s">
+        <v>54</v>
+      </c>
+      <c r="D355" t="s">
+        <v>55</v>
+      </c>
+      <c r="E355">
+        <v>114</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>81</v>
+      </c>
+      <c r="H355">
+        <v>50</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>4</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>59</v>
+      </c>
+      <c r="B356" t="s">
+        <v>29</v>
+      </c>
+      <c r="C356" t="s">
+        <v>30</v>
+      </c>
+      <c r="D356" t="s">
+        <v>31</v>
+      </c>
+      <c r="E356">
+        <v>1322</v>
+      </c>
+      <c r="F356">
+        <v>977</v>
+      </c>
+      <c r="G356">
+        <v>90</v>
+      </c>
+      <c r="H356">
+        <v>57</v>
+      </c>
+      <c r="I356">
+        <v>7</v>
+      </c>
+      <c r="J356">
+        <v>131</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>125</v>
+      </c>
+      <c r="M356" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>59</v>
+      </c>
+      <c r="B357" t="s">
+        <v>32</v>
+      </c>
+      <c r="C357" t="s">
+        <v>33</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357">
+        <v>118</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>76</v>
+      </c>
+      <c r="H357">
+        <v>68</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>4</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>59</v>
+      </c>
+      <c r="B358" t="s">
+        <v>35</v>
+      </c>
+      <c r="C358" t="s">
+        <v>36</v>
+      </c>
+      <c r="D358" t="s">
+        <v>37</v>
+      </c>
+      <c r="E358">
+        <v>145</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>98</v>
+      </c>
+      <c r="H358">
+        <v>88</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>9</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>8</v>
+      </c>
+      <c r="M358" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>59</v>
+      </c>
+      <c r="B359" t="s">
+        <v>40</v>
+      </c>
+      <c r="C359" t="s">
+        <v>41</v>
+      </c>
+      <c r="D359" t="s">
+        <v>42</v>
+      </c>
+      <c r="E359">
+        <v>129</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>93</v>
+      </c>
+      <c r="H359">
+        <v>83</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>11</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>7</v>
+      </c>
+      <c r="M359" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>59</v>
+      </c>
+      <c r="B360" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360" t="s">
+        <v>44</v>
+      </c>
+      <c r="D360" t="s">
+        <v>45</v>
+      </c>
+      <c r="E360">
+        <v>1459</v>
+      </c>
+      <c r="F360">
+        <v>1162</v>
+      </c>
+      <c r="G360">
+        <v>118</v>
+      </c>
+      <c r="H360">
+        <v>94</v>
+      </c>
+      <c r="I360">
+        <v>6</v>
+      </c>
+      <c r="J360">
+        <v>135</v>
+      </c>
+      <c r="K360">
+        <v>15</v>
+      </c>
+      <c r="L360">
+        <v>131</v>
+      </c>
+      <c r="M360" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>59</v>
+      </c>
+      <c r="B361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" t="s">
+        <v>49</v>
+      </c>
+      <c r="E361">
+        <v>5024</v>
+      </c>
+      <c r="F361">
+        <v>950</v>
+      </c>
+      <c r="G361">
+        <v>2719</v>
+      </c>
+      <c r="H361">
+        <v>143</v>
+      </c>
+      <c r="I361">
+        <v>10</v>
+      </c>
+      <c r="J361">
+        <v>268</v>
+      </c>
+      <c r="K361">
+        <v>2619</v>
+      </c>
+      <c r="L361">
+        <v>146</v>
+      </c>
+      <c r="M361" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>59</v>
+      </c>
+      <c r="B362" t="s">
+        <v>50</v>
+      </c>
+      <c r="C362" t="s">
+        <v>51</v>
+      </c>
+      <c r="D362" t="s">
+        <v>52</v>
+      </c>
+      <c r="E362">
+        <v>793</v>
+      </c>
+      <c r="F362">
+        <v>346</v>
+      </c>
+      <c r="G362">
+        <v>267</v>
+      </c>
+      <c r="H362">
+        <v>109</v>
+      </c>
+      <c r="I362">
+        <v>13</v>
+      </c>
+      <c r="J362">
+        <v>71</v>
+      </c>
+      <c r="K362">
+        <v>173</v>
+      </c>
+      <c r="L362">
+        <v>56</v>
+      </c>
+      <c r="M362" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>59</v>
+      </c>
+      <c r="B363" t="s">
+        <v>56</v>
+      </c>
+      <c r="C363" t="s">
+        <v>57</v>
+      </c>
+      <c r="D363" t="s">
+        <v>58</v>
+      </c>
+      <c r="E363">
+        <v>719</v>
+      </c>
+      <c r="F363">
+        <v>225</v>
+      </c>
+      <c r="G363">
+        <v>301</v>
+      </c>
+      <c r="H363">
+        <v>123</v>
+      </c>
+      <c r="I363">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>49</v>
+      </c>
+      <c r="K363">
+        <v>196</v>
+      </c>
+      <c r="L363">
+        <v>39</v>
+      </c>
+      <c r="M363" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="36800" windowHeight="18780"/>
+    <workbookView xWindow="5420" yWindow="2380" windowWidth="36800" windowHeight="18780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="59">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -229,9 +229,6 @@
 Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
 U.G. Einai anagkaio na patesete Like ste Selida mas!
 Kale epitukhia!!!!</t>
-  </si>
-  <si>
-    <t>17/04/2019</t>
   </si>
 </sst>
 </file>
@@ -589,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A334" sqref="A334"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14336,618 +14333,576 @@
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A336" s="1"/>
+      <c r="A336" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B336" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336">
+        <v>82</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>50</v>
+      </c>
+      <c r="H336">
+        <v>18</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>4</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>3</v>
+      </c>
+      <c r="M336" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
+      <c r="A337" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B337" t="s">
+        <v>17</v>
+      </c>
+      <c r="C337" t="s">
+        <v>18</v>
+      </c>
+      <c r="D337" t="s">
+        <v>19</v>
+      </c>
+      <c r="E337">
+        <v>94</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>59</v>
+      </c>
+      <c r="H337">
+        <v>28</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>4</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>4</v>
+      </c>
+      <c r="M337" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B338" t="s">
+        <v>20</v>
+      </c>
+      <c r="C338" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338">
+        <v>537</v>
+      </c>
+      <c r="F338">
+        <v>348</v>
+      </c>
+      <c r="G338">
+        <v>77</v>
+      </c>
+      <c r="H338">
+        <v>41</v>
+      </c>
+      <c r="I338">
+        <v>5</v>
+      </c>
+      <c r="J338">
+        <v>36</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>31</v>
+      </c>
+      <c r="M338" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A339" s="1"/>
+      <c r="A339" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" t="s">
+        <v>24</v>
+      </c>
+      <c r="D339" t="s">
+        <v>25</v>
+      </c>
+      <c r="E339">
+        <v>104</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>83</v>
+      </c>
+      <c r="H339">
+        <v>42</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>3</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>2</v>
+      </c>
+      <c r="M339" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
+      <c r="A340" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B340" t="s">
+        <v>26</v>
+      </c>
+      <c r="C340" t="s">
+        <v>27</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340">
+        <v>120</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>84</v>
+      </c>
+      <c r="H340">
+        <v>54</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>12</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>8</v>
+      </c>
+      <c r="M340" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A341" s="1"/>
+      <c r="A341" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B341" t="s">
+        <v>53</v>
+      </c>
+      <c r="C341" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341" t="s">
+        <v>55</v>
+      </c>
+      <c r="E341">
+        <v>114</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>81</v>
+      </c>
+      <c r="H341">
+        <v>50</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>4</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A342" s="1"/>
+      <c r="A342" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B342" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" t="s">
+        <v>31</v>
+      </c>
+      <c r="E342">
+        <v>1322</v>
+      </c>
+      <c r="F342">
+        <v>977</v>
+      </c>
+      <c r="G342">
+        <v>90</v>
+      </c>
+      <c r="H342">
+        <v>57</v>
+      </c>
+      <c r="I342">
+        <v>7</v>
+      </c>
+      <c r="J342">
+        <v>131</v>
+      </c>
+      <c r="K342">
+        <v>2</v>
+      </c>
+      <c r="L342">
+        <v>125</v>
+      </c>
+      <c r="M342" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B343" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343" t="s">
+        <v>33</v>
+      </c>
+      <c r="D343" t="s">
+        <v>34</v>
+      </c>
+      <c r="E343">
+        <v>118</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>76</v>
+      </c>
+      <c r="H343">
+        <v>68</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>4</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>2</v>
+      </c>
+      <c r="M343" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B344" t="s">
+        <v>35</v>
+      </c>
+      <c r="C344" t="s">
+        <v>36</v>
+      </c>
+      <c r="D344" t="s">
+        <v>37</v>
+      </c>
+      <c r="E344">
+        <v>145</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>98</v>
+      </c>
+      <c r="H344">
+        <v>88</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>9</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>8</v>
+      </c>
+      <c r="M344" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B345" t="s">
+        <v>40</v>
+      </c>
+      <c r="C345" t="s">
+        <v>41</v>
+      </c>
+      <c r="D345" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345">
+        <v>129</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>93</v>
+      </c>
+      <c r="H345">
+        <v>83</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>11</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>7</v>
+      </c>
+      <c r="M345" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B346" t="s">
+        <v>43</v>
+      </c>
+      <c r="C346" t="s">
+        <v>44</v>
+      </c>
+      <c r="D346" t="s">
+        <v>45</v>
+      </c>
+      <c r="E346">
+        <v>1459</v>
+      </c>
+      <c r="F346">
+        <v>1162</v>
+      </c>
+      <c r="G346">
+        <v>118</v>
+      </c>
+      <c r="H346">
+        <v>94</v>
+      </c>
+      <c r="I346">
+        <v>6</v>
+      </c>
+      <c r="J346">
+        <v>135</v>
+      </c>
+      <c r="K346">
+        <v>15</v>
+      </c>
+      <c r="L346">
+        <v>131</v>
+      </c>
+      <c r="M346" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B347" t="s">
+        <v>47</v>
+      </c>
+      <c r="C347" t="s">
+        <v>48</v>
+      </c>
+      <c r="D347" t="s">
+        <v>49</v>
+      </c>
+      <c r="E347">
+        <v>5024</v>
+      </c>
+      <c r="F347">
+        <v>950</v>
+      </c>
+      <c r="G347">
+        <v>2719</v>
+      </c>
+      <c r="H347">
+        <v>143</v>
+      </c>
+      <c r="I347">
+        <v>10</v>
+      </c>
+      <c r="J347">
+        <v>268</v>
+      </c>
+      <c r="K347">
+        <v>2619</v>
+      </c>
+      <c r="L347">
+        <v>146</v>
+      </c>
+      <c r="M347" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B348" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" t="s">
+        <v>51</v>
+      </c>
+      <c r="D348" t="s">
+        <v>52</v>
+      </c>
+      <c r="E348">
+        <v>793</v>
+      </c>
+      <c r="F348">
+        <v>346</v>
+      </c>
+      <c r="G348">
+        <v>267</v>
+      </c>
+      <c r="H348">
+        <v>109</v>
+      </c>
+      <c r="I348">
+        <v>13</v>
+      </c>
+      <c r="J348">
+        <v>71</v>
+      </c>
+      <c r="K348">
+        <v>173</v>
+      </c>
+      <c r="L348">
+        <v>56</v>
+      </c>
+      <c r="M348" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>59</v>
-      </c>
-      <c r="B350" t="s">
-        <v>13</v>
-      </c>
-      <c r="C350" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350">
-        <v>82</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-      <c r="G350">
-        <v>50</v>
-      </c>
-      <c r="H350">
-        <v>18</v>
-      </c>
-      <c r="I350">
-        <v>0</v>
-      </c>
-      <c r="J350">
-        <v>4</v>
-      </c>
-      <c r="K350">
-        <v>0</v>
-      </c>
-      <c r="L350">
-        <v>3</v>
-      </c>
-      <c r="M350" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>59</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="A349" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B349" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" t="s">
+        <v>57</v>
+      </c>
+      <c r="D349" t="s">
+        <v>58</v>
+      </c>
+      <c r="E349">
+        <v>719</v>
+      </c>
+      <c r="F349">
+        <v>225</v>
+      </c>
+      <c r="G349">
+        <v>301</v>
+      </c>
+      <c r="H349">
+        <v>123</v>
+      </c>
+      <c r="I349">
         <v>17</v>
       </c>
-      <c r="C351" t="s">
-        <v>18</v>
-      </c>
-      <c r="D351" t="s">
-        <v>19</v>
-      </c>
-      <c r="E351">
-        <v>94</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-      <c r="G351">
-        <v>59</v>
-      </c>
-      <c r="H351">
-        <v>28</v>
-      </c>
-      <c r="I351">
-        <v>0</v>
-      </c>
-      <c r="J351">
-        <v>4</v>
-      </c>
-      <c r="K351">
-        <v>0</v>
-      </c>
-      <c r="L351">
-        <v>4</v>
-      </c>
-      <c r="M351" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>59</v>
-      </c>
-      <c r="B352" t="s">
-        <v>20</v>
-      </c>
-      <c r="C352" t="s">
-        <v>21</v>
-      </c>
-      <c r="D352" t="s">
-        <v>22</v>
-      </c>
-      <c r="E352">
-        <v>537</v>
-      </c>
-      <c r="F352">
-        <v>348</v>
-      </c>
-      <c r="G352">
-        <v>77</v>
-      </c>
-      <c r="H352">
-        <v>41</v>
-      </c>
-      <c r="I352">
-        <v>5</v>
-      </c>
-      <c r="J352">
-        <v>36</v>
-      </c>
-      <c r="K352">
-        <v>0</v>
-      </c>
-      <c r="L352">
-        <v>31</v>
-      </c>
-      <c r="M352" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>59</v>
-      </c>
-      <c r="B353" t="s">
-        <v>23</v>
-      </c>
-      <c r="C353" t="s">
-        <v>24</v>
-      </c>
-      <c r="D353" t="s">
-        <v>25</v>
-      </c>
-      <c r="E353">
-        <v>104</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-      <c r="G353">
-        <v>83</v>
-      </c>
-      <c r="H353">
-        <v>42</v>
-      </c>
-      <c r="I353">
-        <v>0</v>
-      </c>
-      <c r="J353">
-        <v>3</v>
-      </c>
-      <c r="K353">
-        <v>0</v>
-      </c>
-      <c r="L353">
-        <v>2</v>
-      </c>
-      <c r="M353" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>59</v>
-      </c>
-      <c r="B354" t="s">
-        <v>26</v>
-      </c>
-      <c r="C354" t="s">
-        <v>27</v>
-      </c>
-      <c r="D354" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354">
-        <v>120</v>
-      </c>
-      <c r="F354">
-        <v>0</v>
-      </c>
-      <c r="G354">
-        <v>84</v>
-      </c>
-      <c r="H354">
-        <v>54</v>
-      </c>
-      <c r="I354">
-        <v>0</v>
-      </c>
-      <c r="J354">
-        <v>12</v>
-      </c>
-      <c r="K354">
-        <v>0</v>
-      </c>
-      <c r="L354">
-        <v>8</v>
-      </c>
-      <c r="M354" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>59</v>
-      </c>
-      <c r="B355" t="s">
-        <v>53</v>
-      </c>
-      <c r="C355" t="s">
-        <v>54</v>
-      </c>
-      <c r="D355" t="s">
-        <v>55</v>
-      </c>
-      <c r="E355">
-        <v>114</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-      <c r="G355">
-        <v>81</v>
-      </c>
-      <c r="H355">
-        <v>50</v>
-      </c>
-      <c r="I355">
-        <v>0</v>
-      </c>
-      <c r="J355">
-        <v>4</v>
-      </c>
-      <c r="K355">
-        <v>0</v>
-      </c>
-      <c r="L355">
-        <v>2</v>
-      </c>
-      <c r="M355" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>59</v>
-      </c>
-      <c r="B356" t="s">
-        <v>29</v>
-      </c>
-      <c r="C356" t="s">
-        <v>30</v>
-      </c>
-      <c r="D356" t="s">
-        <v>31</v>
-      </c>
-      <c r="E356">
-        <v>1322</v>
-      </c>
-      <c r="F356">
-        <v>977</v>
-      </c>
-      <c r="G356">
-        <v>90</v>
-      </c>
-      <c r="H356">
-        <v>57</v>
-      </c>
-      <c r="I356">
-        <v>7</v>
-      </c>
-      <c r="J356">
-        <v>131</v>
-      </c>
-      <c r="K356">
-        <v>2</v>
-      </c>
-      <c r="L356">
-        <v>125</v>
-      </c>
-      <c r="M356" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>59</v>
-      </c>
-      <c r="B357" t="s">
-        <v>32</v>
-      </c>
-      <c r="C357" t="s">
-        <v>33</v>
-      </c>
-      <c r="D357" t="s">
-        <v>34</v>
-      </c>
-      <c r="E357">
-        <v>118</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-      <c r="G357">
-        <v>76</v>
-      </c>
-      <c r="H357">
-        <v>68</v>
-      </c>
-      <c r="I357">
-        <v>0</v>
-      </c>
-      <c r="J357">
-        <v>4</v>
-      </c>
-      <c r="K357">
-        <v>0</v>
-      </c>
-      <c r="L357">
-        <v>2</v>
-      </c>
-      <c r="M357" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>59</v>
-      </c>
-      <c r="B358" t="s">
-        <v>35</v>
-      </c>
-      <c r="C358" t="s">
-        <v>36</v>
-      </c>
-      <c r="D358" t="s">
-        <v>37</v>
-      </c>
-      <c r="E358">
-        <v>145</v>
-      </c>
-      <c r="F358">
-        <v>0</v>
-      </c>
-      <c r="G358">
-        <v>98</v>
-      </c>
-      <c r="H358">
-        <v>88</v>
-      </c>
-      <c r="I358">
-        <v>0</v>
-      </c>
-      <c r="J358">
-        <v>9</v>
-      </c>
-      <c r="K358">
-        <v>0</v>
-      </c>
-      <c r="L358">
-        <v>8</v>
-      </c>
-      <c r="M358" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>59</v>
-      </c>
-      <c r="B359" t="s">
-        <v>40</v>
-      </c>
-      <c r="C359" t="s">
-        <v>41</v>
-      </c>
-      <c r="D359" t="s">
-        <v>42</v>
-      </c>
-      <c r="E359">
-        <v>129</v>
-      </c>
-      <c r="F359">
-        <v>0</v>
-      </c>
-      <c r="G359">
-        <v>93</v>
-      </c>
-      <c r="H359">
-        <v>83</v>
-      </c>
-      <c r="I359">
-        <v>0</v>
-      </c>
-      <c r="J359">
-        <v>11</v>
-      </c>
-      <c r="K359">
-        <v>0</v>
-      </c>
-      <c r="L359">
-        <v>7</v>
-      </c>
-      <c r="M359" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>59</v>
-      </c>
-      <c r="B360" t="s">
-        <v>43</v>
-      </c>
-      <c r="C360" t="s">
-        <v>44</v>
-      </c>
-      <c r="D360" t="s">
-        <v>45</v>
-      </c>
-      <c r="E360">
-        <v>1459</v>
-      </c>
-      <c r="F360">
-        <v>1162</v>
-      </c>
-      <c r="G360">
-        <v>118</v>
-      </c>
-      <c r="H360">
-        <v>94</v>
-      </c>
-      <c r="I360">
-        <v>6</v>
-      </c>
-      <c r="J360">
-        <v>135</v>
-      </c>
-      <c r="K360">
-        <v>15</v>
-      </c>
-      <c r="L360">
-        <v>131</v>
-      </c>
-      <c r="M360" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>59</v>
-      </c>
-      <c r="B361" t="s">
-        <v>47</v>
-      </c>
-      <c r="C361" t="s">
-        <v>48</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="J349">
         <v>49</v>
       </c>
-      <c r="E361">
-        <v>5024</v>
-      </c>
-      <c r="F361">
-        <v>950</v>
-      </c>
-      <c r="G361">
-        <v>2719</v>
-      </c>
-      <c r="H361">
-        <v>143</v>
-      </c>
-      <c r="I361">
-        <v>10</v>
-      </c>
-      <c r="J361">
-        <v>268</v>
-      </c>
-      <c r="K361">
-        <v>2619</v>
-      </c>
-      <c r="L361">
-        <v>146</v>
-      </c>
-      <c r="M361" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>59</v>
-      </c>
-      <c r="B362" t="s">
-        <v>50</v>
-      </c>
-      <c r="C362" t="s">
-        <v>51</v>
-      </c>
-      <c r="D362" t="s">
-        <v>52</v>
-      </c>
-      <c r="E362">
-        <v>793</v>
-      </c>
-      <c r="F362">
-        <v>346</v>
-      </c>
-      <c r="G362">
-        <v>267</v>
-      </c>
-      <c r="H362">
-        <v>109</v>
-      </c>
-      <c r="I362">
-        <v>13</v>
-      </c>
-      <c r="J362">
-        <v>71</v>
-      </c>
-      <c r="K362">
-        <v>173</v>
-      </c>
-      <c r="L362">
-        <v>56</v>
-      </c>
-      <c r="M362" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>59</v>
-      </c>
-      <c r="B363" t="s">
-        <v>56</v>
-      </c>
-      <c r="C363" t="s">
-        <v>57</v>
-      </c>
-      <c r="D363" t="s">
-        <v>58</v>
-      </c>
-      <c r="E363">
-        <v>719</v>
-      </c>
-      <c r="F363">
-        <v>225</v>
-      </c>
-      <c r="G363">
-        <v>301</v>
-      </c>
-      <c r="H363">
-        <v>123</v>
-      </c>
-      <c r="I363">
-        <v>17</v>
-      </c>
-      <c r="J363">
-        <v>49</v>
-      </c>
-      <c r="K363">
+      <c r="K349">
         <v>196</v>
       </c>
-      <c r="L363">
-        <v>39</v>
-      </c>
-      <c r="M363" t="s">
+      <c r="L349">
+        <v>39</v>
+      </c>
+      <c r="M349" t="s">
         <v>39</v>
       </c>
     </row>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="2380" windowWidth="36800" windowHeight="18780"/>
+    <workbookView xWindow="1600" yWindow="2380" windowWidth="36800" windowHeight="18780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="59">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -586,15 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -14904,6 +14904,580 @@
       </c>
       <c r="M349" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350">
+        <v>82</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>50</v>
+      </c>
+      <c r="H350">
+        <v>18</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>4</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B351" t="s">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>94</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>59</v>
+      </c>
+      <c r="H351">
+        <v>28</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>4</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B352" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352">
+        <v>537</v>
+      </c>
+      <c r="F352">
+        <v>348</v>
+      </c>
+      <c r="G352">
+        <v>77</v>
+      </c>
+      <c r="H352">
+        <v>41</v>
+      </c>
+      <c r="I352">
+        <v>5</v>
+      </c>
+      <c r="J352">
+        <v>36</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>31</v>
+      </c>
+      <c r="M352" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" t="s">
+        <v>24</v>
+      </c>
+      <c r="D353" t="s">
+        <v>25</v>
+      </c>
+      <c r="E353">
+        <v>104</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>83</v>
+      </c>
+      <c r="H353">
+        <v>42</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>3</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>2</v>
+      </c>
+      <c r="M353" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B354" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" t="s">
+        <v>27</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>120</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>84</v>
+      </c>
+      <c r="H354">
+        <v>54</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>12</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>8</v>
+      </c>
+      <c r="M354" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B355" t="s">
+        <v>53</v>
+      </c>
+      <c r="C355" t="s">
+        <v>54</v>
+      </c>
+      <c r="D355" t="s">
+        <v>55</v>
+      </c>
+      <c r="E355">
+        <v>114</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>81</v>
+      </c>
+      <c r="H355">
+        <v>50</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>4</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B356" t="s">
+        <v>29</v>
+      </c>
+      <c r="C356" t="s">
+        <v>30</v>
+      </c>
+      <c r="D356" t="s">
+        <v>31</v>
+      </c>
+      <c r="E356">
+        <v>1322</v>
+      </c>
+      <c r="F356">
+        <v>977</v>
+      </c>
+      <c r="G356">
+        <v>90</v>
+      </c>
+      <c r="H356">
+        <v>57</v>
+      </c>
+      <c r="I356">
+        <v>7</v>
+      </c>
+      <c r="J356">
+        <v>131</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>125</v>
+      </c>
+      <c r="M356" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B357" t="s">
+        <v>32</v>
+      </c>
+      <c r="C357" t="s">
+        <v>33</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357">
+        <v>118</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>76</v>
+      </c>
+      <c r="H357">
+        <v>68</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>4</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B358" t="s">
+        <v>35</v>
+      </c>
+      <c r="C358" t="s">
+        <v>36</v>
+      </c>
+      <c r="D358" t="s">
+        <v>37</v>
+      </c>
+      <c r="E358">
+        <v>145</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>98</v>
+      </c>
+      <c r="H358">
+        <v>88</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>9</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>8</v>
+      </c>
+      <c r="M358" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B359" t="s">
+        <v>40</v>
+      </c>
+      <c r="C359" t="s">
+        <v>41</v>
+      </c>
+      <c r="D359" t="s">
+        <v>42</v>
+      </c>
+      <c r="E359">
+        <v>130</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>94</v>
+      </c>
+      <c r="H359">
+        <v>84</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>11</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>7</v>
+      </c>
+      <c r="M359" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B360" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360" t="s">
+        <v>44</v>
+      </c>
+      <c r="D360" t="s">
+        <v>45</v>
+      </c>
+      <c r="E360">
+        <v>1460</v>
+      </c>
+      <c r="F360">
+        <v>1162</v>
+      </c>
+      <c r="G360">
+        <v>119</v>
+      </c>
+      <c r="H360">
+        <v>95</v>
+      </c>
+      <c r="I360">
+        <v>6</v>
+      </c>
+      <c r="J360">
+        <v>135</v>
+      </c>
+      <c r="K360">
+        <v>15</v>
+      </c>
+      <c r="L360">
+        <v>131</v>
+      </c>
+      <c r="M360" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" t="s">
+        <v>49</v>
+      </c>
+      <c r="E361">
+        <v>5025</v>
+      </c>
+      <c r="F361">
+        <v>950</v>
+      </c>
+      <c r="G361">
+        <v>2719</v>
+      </c>
+      <c r="H361">
+        <v>144</v>
+      </c>
+      <c r="I361">
+        <v>10</v>
+      </c>
+      <c r="J361">
+        <v>269</v>
+      </c>
+      <c r="K361">
+        <v>2619</v>
+      </c>
+      <c r="L361">
+        <v>148</v>
+      </c>
+      <c r="M361" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B362" t="s">
+        <v>50</v>
+      </c>
+      <c r="C362" t="s">
+        <v>51</v>
+      </c>
+      <c r="D362" t="s">
+        <v>52</v>
+      </c>
+      <c r="E362">
+        <v>795</v>
+      </c>
+      <c r="F362">
+        <v>346</v>
+      </c>
+      <c r="G362">
+        <v>268</v>
+      </c>
+      <c r="H362">
+        <v>110</v>
+      </c>
+      <c r="I362">
+        <v>13</v>
+      </c>
+      <c r="J362">
+        <v>71</v>
+      </c>
+      <c r="K362">
+        <v>173</v>
+      </c>
+      <c r="L362">
+        <v>56</v>
+      </c>
+      <c r="M362" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B363" t="s">
+        <v>56</v>
+      </c>
+      <c r="C363" t="s">
+        <v>57</v>
+      </c>
+      <c r="D363" t="s">
+        <v>58</v>
+      </c>
+      <c r="E363">
+        <v>723</v>
+      </c>
+      <c r="F363">
+        <v>225</v>
+      </c>
+      <c r="G363">
+        <v>305</v>
+      </c>
+      <c r="H363">
+        <v>123</v>
+      </c>
+      <c r="I363">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>50</v>
+      </c>
+      <c r="K363">
+        <v>198</v>
+      </c>
+      <c r="L363">
+        <v>40</v>
+      </c>
+      <c r="M363" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="59">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M377"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15480,6 +15480,580 @@
         <v>38</v>
       </c>
     </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364">
+        <v>82</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>50</v>
+      </c>
+      <c r="H364">
+        <v>18</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>4</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>3</v>
+      </c>
+      <c r="M364" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B365" t="s">
+        <v>17</v>
+      </c>
+      <c r="C365" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" t="s">
+        <v>19</v>
+      </c>
+      <c r="E365">
+        <v>94</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>59</v>
+      </c>
+      <c r="H365">
+        <v>28</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>4</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>4</v>
+      </c>
+      <c r="M365" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B366" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" t="s">
+        <v>21</v>
+      </c>
+      <c r="D366" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366">
+        <v>537</v>
+      </c>
+      <c r="F366">
+        <v>348</v>
+      </c>
+      <c r="G366">
+        <v>77</v>
+      </c>
+      <c r="H366">
+        <v>41</v>
+      </c>
+      <c r="I366">
+        <v>5</v>
+      </c>
+      <c r="J366">
+        <v>36</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>31</v>
+      </c>
+      <c r="M366" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" t="s">
+        <v>24</v>
+      </c>
+      <c r="D367" t="s">
+        <v>25</v>
+      </c>
+      <c r="E367">
+        <v>104</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>83</v>
+      </c>
+      <c r="H367">
+        <v>42</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>3</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>2</v>
+      </c>
+      <c r="M367" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B368" t="s">
+        <v>26</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368">
+        <v>120</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>84</v>
+      </c>
+      <c r="H368">
+        <v>54</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>12</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>8</v>
+      </c>
+      <c r="M368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B369" t="s">
+        <v>53</v>
+      </c>
+      <c r="C369" t="s">
+        <v>54</v>
+      </c>
+      <c r="D369" t="s">
+        <v>55</v>
+      </c>
+      <c r="E369">
+        <v>114</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>81</v>
+      </c>
+      <c r="H369">
+        <v>50</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>4</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>2</v>
+      </c>
+      <c r="M369" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B370" t="s">
+        <v>29</v>
+      </c>
+      <c r="C370" t="s">
+        <v>30</v>
+      </c>
+      <c r="D370" t="s">
+        <v>31</v>
+      </c>
+      <c r="E370">
+        <v>1322</v>
+      </c>
+      <c r="F370">
+        <v>977</v>
+      </c>
+      <c r="G370">
+        <v>90</v>
+      </c>
+      <c r="H370">
+        <v>57</v>
+      </c>
+      <c r="I370">
+        <v>7</v>
+      </c>
+      <c r="J370">
+        <v>131</v>
+      </c>
+      <c r="K370">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <v>125</v>
+      </c>
+      <c r="M370" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B371" t="s">
+        <v>32</v>
+      </c>
+      <c r="C371" t="s">
+        <v>33</v>
+      </c>
+      <c r="D371" t="s">
+        <v>34</v>
+      </c>
+      <c r="E371">
+        <v>118</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>76</v>
+      </c>
+      <c r="H371">
+        <v>68</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>4</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B372" t="s">
+        <v>35</v>
+      </c>
+      <c r="C372" t="s">
+        <v>36</v>
+      </c>
+      <c r="D372" t="s">
+        <v>37</v>
+      </c>
+      <c r="E372">
+        <v>145</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>98</v>
+      </c>
+      <c r="H372">
+        <v>88</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>9</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>8</v>
+      </c>
+      <c r="M372" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B373" t="s">
+        <v>40</v>
+      </c>
+      <c r="C373" t="s">
+        <v>41</v>
+      </c>
+      <c r="D373" t="s">
+        <v>42</v>
+      </c>
+      <c r="E373">
+        <v>130</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>94</v>
+      </c>
+      <c r="H373">
+        <v>84</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>11</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>7</v>
+      </c>
+      <c r="M373" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B374" t="s">
+        <v>43</v>
+      </c>
+      <c r="C374" t="s">
+        <v>44</v>
+      </c>
+      <c r="D374" t="s">
+        <v>45</v>
+      </c>
+      <c r="E374">
+        <v>1460</v>
+      </c>
+      <c r="F374">
+        <v>1162</v>
+      </c>
+      <c r="G374">
+        <v>119</v>
+      </c>
+      <c r="H374">
+        <v>95</v>
+      </c>
+      <c r="I374">
+        <v>6</v>
+      </c>
+      <c r="J374">
+        <v>135</v>
+      </c>
+      <c r="K374">
+        <v>15</v>
+      </c>
+      <c r="L374">
+        <v>131</v>
+      </c>
+      <c r="M374" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B375" t="s">
+        <v>47</v>
+      </c>
+      <c r="C375" t="s">
+        <v>48</v>
+      </c>
+      <c r="D375" t="s">
+        <v>49</v>
+      </c>
+      <c r="E375">
+        <v>5028</v>
+      </c>
+      <c r="F375">
+        <v>950</v>
+      </c>
+      <c r="G375">
+        <v>2719</v>
+      </c>
+      <c r="H375">
+        <v>144</v>
+      </c>
+      <c r="I375">
+        <v>10</v>
+      </c>
+      <c r="J375">
+        <v>269</v>
+      </c>
+      <c r="K375">
+        <v>2619</v>
+      </c>
+      <c r="L375">
+        <v>148</v>
+      </c>
+      <c r="M375" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B376" t="s">
+        <v>50</v>
+      </c>
+      <c r="C376" t="s">
+        <v>51</v>
+      </c>
+      <c r="D376" t="s">
+        <v>52</v>
+      </c>
+      <c r="E376">
+        <v>796</v>
+      </c>
+      <c r="F376">
+        <v>346</v>
+      </c>
+      <c r="G376">
+        <v>268</v>
+      </c>
+      <c r="H376">
+        <v>110</v>
+      </c>
+      <c r="I376">
+        <v>13</v>
+      </c>
+      <c r="J376">
+        <v>71</v>
+      </c>
+      <c r="K376">
+        <v>173</v>
+      </c>
+      <c r="L376">
+        <v>56</v>
+      </c>
+      <c r="M376" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B377" t="s">
+        <v>56</v>
+      </c>
+      <c r="C377" t="s">
+        <v>57</v>
+      </c>
+      <c r="D377" t="s">
+        <v>58</v>
+      </c>
+      <c r="E377">
+        <v>726</v>
+      </c>
+      <c r="F377">
+        <v>225</v>
+      </c>
+      <c r="G377">
+        <v>306</v>
+      </c>
+      <c r="H377">
+        <v>123</v>
+      </c>
+      <c r="I377">
+        <v>17</v>
+      </c>
+      <c r="J377">
+        <v>50</v>
+      </c>
+      <c r="K377">
+        <v>198</v>
+      </c>
+      <c r="L377">
+        <v>40</v>
+      </c>
+      <c r="M377" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2380" windowWidth="36800" windowHeight="18780"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -228,6 +228,23 @@
 O diagonismos legei stis 10 MaIou 2019, 23:59.
 Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
 U.G. Einai anagkaio na patesete Like ste Selida mas!
+Kale epitukhia!!!!</t>
+  </si>
+  <si>
+    <t>974146599436745_1085845504933520</t>
+  </si>
+  <si>
+    <t>2019-04-19T07:40:41</t>
+  </si>
+  <si>
+    <t>DIAGONISMOS-KLEROSE-LAKhEIOPhOROS AGORA 
+H My Thesis Page sas eukharistei gia ten sterixe kai sas prospherei ena Sony PlayStation 4 Pro Slim 500GB !!!
+Gia na summetekhete sto diagonismo mas, prepei na:
+1. Ginete mele sten selida mas, My Thesis Page (r)
+2. Mediocre Level of Intelligence Quotient
+O diagonismos legei stis 15 MaIou 2019, 23:59.
+Oi niketes tou diagonismou tha anakoinothoun ste selida tou My Thesis Page.
+U.G. Osoi kanoun like ste selida mekhri to telos tes semerines emeras ekhoun diplasies/2 pithanotetes na kerdisoun !! 
 Kale epitukhia!!!!</t>
   </si>
 </sst>
@@ -586,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M377"/>
+  <dimension ref="A1:M437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="A377" sqref="A377"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16054,6 +16071,2466 @@
         <v>38</v>
       </c>
     </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378">
+        <v>82</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>50</v>
+      </c>
+      <c r="H378">
+        <v>18</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>4</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>3</v>
+      </c>
+      <c r="M378" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B379" t="s">
+        <v>17</v>
+      </c>
+      <c r="C379" t="s">
+        <v>18</v>
+      </c>
+      <c r="D379" t="s">
+        <v>19</v>
+      </c>
+      <c r="E379">
+        <v>94</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>59</v>
+      </c>
+      <c r="H379">
+        <v>28</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>4</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>4</v>
+      </c>
+      <c r="M379" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B380" t="s">
+        <v>20</v>
+      </c>
+      <c r="C380" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" t="s">
+        <v>22</v>
+      </c>
+      <c r="E380">
+        <v>537</v>
+      </c>
+      <c r="F380">
+        <v>348</v>
+      </c>
+      <c r="G380">
+        <v>77</v>
+      </c>
+      <c r="H380">
+        <v>41</v>
+      </c>
+      <c r="I380">
+        <v>5</v>
+      </c>
+      <c r="J380">
+        <v>36</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>31</v>
+      </c>
+      <c r="M380" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B381" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" t="s">
+        <v>24</v>
+      </c>
+      <c r="D381" t="s">
+        <v>25</v>
+      </c>
+      <c r="E381">
+        <v>104</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>83</v>
+      </c>
+      <c r="H381">
+        <v>42</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>3</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B382" t="s">
+        <v>26</v>
+      </c>
+      <c r="C382" t="s">
+        <v>27</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382">
+        <v>120</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>84</v>
+      </c>
+      <c r="H382">
+        <v>54</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>12</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>8</v>
+      </c>
+      <c r="M382" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B383" t="s">
+        <v>53</v>
+      </c>
+      <c r="C383" t="s">
+        <v>54</v>
+      </c>
+      <c r="D383" t="s">
+        <v>55</v>
+      </c>
+      <c r="E383">
+        <v>114</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>81</v>
+      </c>
+      <c r="H383">
+        <v>50</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>4</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>2</v>
+      </c>
+      <c r="M383" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B384" t="s">
+        <v>29</v>
+      </c>
+      <c r="C384" t="s">
+        <v>30</v>
+      </c>
+      <c r="D384" t="s">
+        <v>31</v>
+      </c>
+      <c r="E384">
+        <v>1322</v>
+      </c>
+      <c r="F384">
+        <v>977</v>
+      </c>
+      <c r="G384">
+        <v>90</v>
+      </c>
+      <c r="H384">
+        <v>57</v>
+      </c>
+      <c r="I384">
+        <v>7</v>
+      </c>
+      <c r="J384">
+        <v>131</v>
+      </c>
+      <c r="K384">
+        <v>2</v>
+      </c>
+      <c r="L384">
+        <v>125</v>
+      </c>
+      <c r="M384" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B385" t="s">
+        <v>32</v>
+      </c>
+      <c r="C385" t="s">
+        <v>33</v>
+      </c>
+      <c r="D385" t="s">
+        <v>34</v>
+      </c>
+      <c r="E385">
+        <v>118</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>76</v>
+      </c>
+      <c r="H385">
+        <v>68</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>4</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>2</v>
+      </c>
+      <c r="M385" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B386" t="s">
+        <v>35</v>
+      </c>
+      <c r="C386" t="s">
+        <v>36</v>
+      </c>
+      <c r="D386" t="s">
+        <v>37</v>
+      </c>
+      <c r="E386">
+        <v>146</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>99</v>
+      </c>
+      <c r="H386">
+        <v>89</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>9</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>8</v>
+      </c>
+      <c r="M386" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B387" t="s">
+        <v>40</v>
+      </c>
+      <c r="C387" t="s">
+        <v>41</v>
+      </c>
+      <c r="D387" t="s">
+        <v>42</v>
+      </c>
+      <c r="E387">
+        <v>133</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>97</v>
+      </c>
+      <c r="H387">
+        <v>87</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>11</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>7</v>
+      </c>
+      <c r="M387" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B388" t="s">
+        <v>43</v>
+      </c>
+      <c r="C388" t="s">
+        <v>44</v>
+      </c>
+      <c r="D388" t="s">
+        <v>45</v>
+      </c>
+      <c r="E388">
+        <v>1465</v>
+      </c>
+      <c r="F388">
+        <v>1162</v>
+      </c>
+      <c r="G388">
+        <v>123</v>
+      </c>
+      <c r="H388">
+        <v>99</v>
+      </c>
+      <c r="I388">
+        <v>6</v>
+      </c>
+      <c r="J388">
+        <v>135</v>
+      </c>
+      <c r="K388">
+        <v>15</v>
+      </c>
+      <c r="L388">
+        <v>131</v>
+      </c>
+      <c r="M388" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B389" t="s">
+        <v>47</v>
+      </c>
+      <c r="C389" t="s">
+        <v>48</v>
+      </c>
+      <c r="D389" t="s">
+        <v>49</v>
+      </c>
+      <c r="E389">
+        <v>5131</v>
+      </c>
+      <c r="F389">
+        <v>950</v>
+      </c>
+      <c r="G389">
+        <v>2835</v>
+      </c>
+      <c r="H389">
+        <v>149</v>
+      </c>
+      <c r="I389">
+        <v>10</v>
+      </c>
+      <c r="J389">
+        <v>271</v>
+      </c>
+      <c r="K389">
+        <v>2730</v>
+      </c>
+      <c r="L389">
+        <v>151</v>
+      </c>
+      <c r="M389" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B390" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390" t="s">
+        <v>51</v>
+      </c>
+      <c r="D390" t="s">
+        <v>52</v>
+      </c>
+      <c r="E390">
+        <v>805</v>
+      </c>
+      <c r="F390">
+        <v>346</v>
+      </c>
+      <c r="G390">
+        <v>269</v>
+      </c>
+      <c r="H390">
+        <v>111</v>
+      </c>
+      <c r="I390">
+        <v>13</v>
+      </c>
+      <c r="J390">
+        <v>72</v>
+      </c>
+      <c r="K390">
+        <v>173</v>
+      </c>
+      <c r="L390">
+        <v>57</v>
+      </c>
+      <c r="M390" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B391" t="s">
+        <v>56</v>
+      </c>
+      <c r="C391" t="s">
+        <v>57</v>
+      </c>
+      <c r="D391" t="s">
+        <v>58</v>
+      </c>
+      <c r="E391">
+        <v>755</v>
+      </c>
+      <c r="F391">
+        <v>225</v>
+      </c>
+      <c r="G391">
+        <v>321</v>
+      </c>
+      <c r="H391">
+        <v>130</v>
+      </c>
+      <c r="I391">
+        <v>17</v>
+      </c>
+      <c r="J391">
+        <v>52</v>
+      </c>
+      <c r="K391">
+        <v>205</v>
+      </c>
+      <c r="L391">
+        <v>42</v>
+      </c>
+      <c r="M391" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B392" t="s">
+        <v>59</v>
+      </c>
+      <c r="C392" t="s">
+        <v>60</v>
+      </c>
+      <c r="D392" t="s">
+        <v>61</v>
+      </c>
+      <c r="E392">
+        <v>2268</v>
+      </c>
+      <c r="F392">
+        <v>419</v>
+      </c>
+      <c r="G392">
+        <v>1141</v>
+      </c>
+      <c r="H392">
+        <v>180</v>
+      </c>
+      <c r="I392">
+        <v>22</v>
+      </c>
+      <c r="J392">
+        <v>140</v>
+      </c>
+      <c r="K392">
+        <v>1003</v>
+      </c>
+      <c r="L392">
+        <v>108</v>
+      </c>
+      <c r="M392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B393" t="s">
+        <v>13</v>
+      </c>
+      <c r="C393" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393">
+        <v>82</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>50</v>
+      </c>
+      <c r="H393">
+        <v>18</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>4</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>3</v>
+      </c>
+      <c r="M393" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B394" t="s">
+        <v>17</v>
+      </c>
+      <c r="C394" t="s">
+        <v>18</v>
+      </c>
+      <c r="D394" t="s">
+        <v>19</v>
+      </c>
+      <c r="E394">
+        <v>94</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>59</v>
+      </c>
+      <c r="H394">
+        <v>28</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>4</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>4</v>
+      </c>
+      <c r="M394" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B395" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" t="s">
+        <v>21</v>
+      </c>
+      <c r="D395" t="s">
+        <v>22</v>
+      </c>
+      <c r="E395">
+        <v>537</v>
+      </c>
+      <c r="F395">
+        <v>348</v>
+      </c>
+      <c r="G395">
+        <v>77</v>
+      </c>
+      <c r="H395">
+        <v>41</v>
+      </c>
+      <c r="I395">
+        <v>5</v>
+      </c>
+      <c r="J395">
+        <v>36</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>31</v>
+      </c>
+      <c r="M395" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B396" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" t="s">
+        <v>25</v>
+      </c>
+      <c r="E396">
+        <v>104</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>83</v>
+      </c>
+      <c r="H396">
+        <v>42</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>3</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>2</v>
+      </c>
+      <c r="M396" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397" t="s">
+        <v>27</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397">
+        <v>120</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>84</v>
+      </c>
+      <c r="H397">
+        <v>54</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>12</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>8</v>
+      </c>
+      <c r="M397" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B398" t="s">
+        <v>53</v>
+      </c>
+      <c r="C398" t="s">
+        <v>54</v>
+      </c>
+      <c r="D398" t="s">
+        <v>55</v>
+      </c>
+      <c r="E398">
+        <v>114</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>81</v>
+      </c>
+      <c r="H398">
+        <v>50</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>4</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>2</v>
+      </c>
+      <c r="M398" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B399" t="s">
+        <v>29</v>
+      </c>
+      <c r="C399" t="s">
+        <v>30</v>
+      </c>
+      <c r="D399" t="s">
+        <v>31</v>
+      </c>
+      <c r="E399">
+        <v>1322</v>
+      </c>
+      <c r="F399">
+        <v>977</v>
+      </c>
+      <c r="G399">
+        <v>90</v>
+      </c>
+      <c r="H399">
+        <v>57</v>
+      </c>
+      <c r="I399">
+        <v>7</v>
+      </c>
+      <c r="J399">
+        <v>131</v>
+      </c>
+      <c r="K399">
+        <v>2</v>
+      </c>
+      <c r="L399">
+        <v>125</v>
+      </c>
+      <c r="M399" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B400" t="s">
+        <v>32</v>
+      </c>
+      <c r="C400" t="s">
+        <v>33</v>
+      </c>
+      <c r="D400" t="s">
+        <v>34</v>
+      </c>
+      <c r="E400">
+        <v>118</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>76</v>
+      </c>
+      <c r="H400">
+        <v>68</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>4</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>2</v>
+      </c>
+      <c r="M400" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B401" t="s">
+        <v>35</v>
+      </c>
+      <c r="C401" t="s">
+        <v>36</v>
+      </c>
+      <c r="D401" t="s">
+        <v>37</v>
+      </c>
+      <c r="E401">
+        <v>146</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>99</v>
+      </c>
+      <c r="H401">
+        <v>89</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>9</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>8</v>
+      </c>
+      <c r="M401" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B402" t="s">
+        <v>40</v>
+      </c>
+      <c r="C402" t="s">
+        <v>41</v>
+      </c>
+      <c r="D402" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402">
+        <v>133</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>97</v>
+      </c>
+      <c r="H402">
+        <v>87</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>11</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>7</v>
+      </c>
+      <c r="M402" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B403" t="s">
+        <v>43</v>
+      </c>
+      <c r="C403" t="s">
+        <v>44</v>
+      </c>
+      <c r="D403" t="s">
+        <v>45</v>
+      </c>
+      <c r="E403">
+        <v>1465</v>
+      </c>
+      <c r="F403">
+        <v>1162</v>
+      </c>
+      <c r="G403">
+        <v>123</v>
+      </c>
+      <c r="H403">
+        <v>99</v>
+      </c>
+      <c r="I403">
+        <v>6</v>
+      </c>
+      <c r="J403">
+        <v>135</v>
+      </c>
+      <c r="K403">
+        <v>15</v>
+      </c>
+      <c r="L403">
+        <v>131</v>
+      </c>
+      <c r="M403" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B404" t="s">
+        <v>47</v>
+      </c>
+      <c r="C404" t="s">
+        <v>48</v>
+      </c>
+      <c r="D404" t="s">
+        <v>49</v>
+      </c>
+      <c r="E404">
+        <v>5131</v>
+      </c>
+      <c r="F404">
+        <v>950</v>
+      </c>
+      <c r="G404">
+        <v>2835</v>
+      </c>
+      <c r="H404">
+        <v>149</v>
+      </c>
+      <c r="I404">
+        <v>10</v>
+      </c>
+      <c r="J404">
+        <v>271</v>
+      </c>
+      <c r="K404">
+        <v>2730</v>
+      </c>
+      <c r="L404">
+        <v>151</v>
+      </c>
+      <c r="M404" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B405" t="s">
+        <v>50</v>
+      </c>
+      <c r="C405" t="s">
+        <v>51</v>
+      </c>
+      <c r="D405" t="s">
+        <v>52</v>
+      </c>
+      <c r="E405">
+        <v>805</v>
+      </c>
+      <c r="F405">
+        <v>346</v>
+      </c>
+      <c r="G405">
+        <v>269</v>
+      </c>
+      <c r="H405">
+        <v>111</v>
+      </c>
+      <c r="I405">
+        <v>13</v>
+      </c>
+      <c r="J405">
+        <v>72</v>
+      </c>
+      <c r="K405">
+        <v>173</v>
+      </c>
+      <c r="L405">
+        <v>57</v>
+      </c>
+      <c r="M405" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B406" t="s">
+        <v>56</v>
+      </c>
+      <c r="C406" t="s">
+        <v>57</v>
+      </c>
+      <c r="D406" t="s">
+        <v>58</v>
+      </c>
+      <c r="E406">
+        <v>755</v>
+      </c>
+      <c r="F406">
+        <v>225</v>
+      </c>
+      <c r="G406">
+        <v>321</v>
+      </c>
+      <c r="H406">
+        <v>130</v>
+      </c>
+      <c r="I406">
+        <v>17</v>
+      </c>
+      <c r="J406">
+        <v>52</v>
+      </c>
+      <c r="K406">
+        <v>205</v>
+      </c>
+      <c r="L406">
+        <v>42</v>
+      </c>
+      <c r="M406" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B407" t="s">
+        <v>59</v>
+      </c>
+      <c r="C407" t="s">
+        <v>60</v>
+      </c>
+      <c r="D407" t="s">
+        <v>61</v>
+      </c>
+      <c r="E407">
+        <v>2268</v>
+      </c>
+      <c r="F407">
+        <v>419</v>
+      </c>
+      <c r="G407">
+        <v>1141</v>
+      </c>
+      <c r="H407">
+        <v>180</v>
+      </c>
+      <c r="I407">
+        <v>22</v>
+      </c>
+      <c r="J407">
+        <v>140</v>
+      </c>
+      <c r="K407">
+        <v>1003</v>
+      </c>
+      <c r="L407">
+        <v>108</v>
+      </c>
+      <c r="M407" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B408" t="s">
+        <v>13</v>
+      </c>
+      <c r="C408" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408" t="s">
+        <v>15</v>
+      </c>
+      <c r="E408">
+        <v>82</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>50</v>
+      </c>
+      <c r="H408">
+        <v>18</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>4</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>3</v>
+      </c>
+      <c r="M408" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B409" t="s">
+        <v>17</v>
+      </c>
+      <c r="C409" t="s">
+        <v>18</v>
+      </c>
+      <c r="D409" t="s">
+        <v>19</v>
+      </c>
+      <c r="E409">
+        <v>95</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>60</v>
+      </c>
+      <c r="H409">
+        <v>28</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>4</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>4</v>
+      </c>
+      <c r="M409" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B410" t="s">
+        <v>20</v>
+      </c>
+      <c r="C410" t="s">
+        <v>21</v>
+      </c>
+      <c r="D410" t="s">
+        <v>22</v>
+      </c>
+      <c r="E410">
+        <v>539</v>
+      </c>
+      <c r="F410">
+        <v>348</v>
+      </c>
+      <c r="G410">
+        <v>78</v>
+      </c>
+      <c r="H410">
+        <v>41</v>
+      </c>
+      <c r="I410">
+        <v>5</v>
+      </c>
+      <c r="J410">
+        <v>36</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>31</v>
+      </c>
+      <c r="M410" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B411" t="s">
+        <v>23</v>
+      </c>
+      <c r="C411" t="s">
+        <v>24</v>
+      </c>
+      <c r="D411" t="s">
+        <v>25</v>
+      </c>
+      <c r="E411">
+        <v>106</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>84</v>
+      </c>
+      <c r="H411">
+        <v>42</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>3</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>2</v>
+      </c>
+      <c r="M411" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B412" t="s">
+        <v>26</v>
+      </c>
+      <c r="C412" t="s">
+        <v>27</v>
+      </c>
+      <c r="D412" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412">
+        <v>122</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>85</v>
+      </c>
+      <c r="H412">
+        <v>54</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>12</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>8</v>
+      </c>
+      <c r="M412" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B413" t="s">
+        <v>53</v>
+      </c>
+      <c r="C413" t="s">
+        <v>54</v>
+      </c>
+      <c r="D413" t="s">
+        <v>55</v>
+      </c>
+      <c r="E413">
+        <v>116</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>82</v>
+      </c>
+      <c r="H413">
+        <v>50</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>4</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>2</v>
+      </c>
+      <c r="M413" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B414" t="s">
+        <v>29</v>
+      </c>
+      <c r="C414" t="s">
+        <v>30</v>
+      </c>
+      <c r="D414" t="s">
+        <v>31</v>
+      </c>
+      <c r="E414">
+        <v>1324</v>
+      </c>
+      <c r="F414">
+        <v>977</v>
+      </c>
+      <c r="G414">
+        <v>91</v>
+      </c>
+      <c r="H414">
+        <v>57</v>
+      </c>
+      <c r="I414">
+        <v>7</v>
+      </c>
+      <c r="J414">
+        <v>131</v>
+      </c>
+      <c r="K414">
+        <v>2</v>
+      </c>
+      <c r="L414">
+        <v>125</v>
+      </c>
+      <c r="M414" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B415" t="s">
+        <v>32</v>
+      </c>
+      <c r="C415" t="s">
+        <v>33</v>
+      </c>
+      <c r="D415" t="s">
+        <v>34</v>
+      </c>
+      <c r="E415">
+        <v>120</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>76</v>
+      </c>
+      <c r="H415">
+        <v>68</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>4</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>2</v>
+      </c>
+      <c r="M415" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B416" t="s">
+        <v>35</v>
+      </c>
+      <c r="C416" t="s">
+        <v>36</v>
+      </c>
+      <c r="D416" t="s">
+        <v>37</v>
+      </c>
+      <c r="E416">
+        <v>147</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>99</v>
+      </c>
+      <c r="H416">
+        <v>89</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>9</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>8</v>
+      </c>
+      <c r="M416" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B417" t="s">
+        <v>40</v>
+      </c>
+      <c r="C417" t="s">
+        <v>41</v>
+      </c>
+      <c r="D417" t="s">
+        <v>42</v>
+      </c>
+      <c r="E417">
+        <v>134</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>97</v>
+      </c>
+      <c r="H417">
+        <v>87</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>11</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>7</v>
+      </c>
+      <c r="M417" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B418" t="s">
+        <v>43</v>
+      </c>
+      <c r="C418" t="s">
+        <v>44</v>
+      </c>
+      <c r="D418" t="s">
+        <v>45</v>
+      </c>
+      <c r="E418">
+        <v>1467</v>
+      </c>
+      <c r="F418">
+        <v>1162</v>
+      </c>
+      <c r="G418">
+        <v>123</v>
+      </c>
+      <c r="H418">
+        <v>99</v>
+      </c>
+      <c r="I418">
+        <v>6</v>
+      </c>
+      <c r="J418">
+        <v>135</v>
+      </c>
+      <c r="K418">
+        <v>15</v>
+      </c>
+      <c r="L418">
+        <v>131</v>
+      </c>
+      <c r="M418" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B419" t="s">
+        <v>47</v>
+      </c>
+      <c r="C419" t="s">
+        <v>48</v>
+      </c>
+      <c r="D419" t="s">
+        <v>49</v>
+      </c>
+      <c r="E419">
+        <v>5388</v>
+      </c>
+      <c r="F419">
+        <v>950</v>
+      </c>
+      <c r="G419">
+        <v>3001</v>
+      </c>
+      <c r="H419">
+        <v>151</v>
+      </c>
+      <c r="I419">
+        <v>10</v>
+      </c>
+      <c r="J419">
+        <v>278</v>
+      </c>
+      <c r="K419">
+        <v>2888</v>
+      </c>
+      <c r="L419">
+        <v>155</v>
+      </c>
+      <c r="M419" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B420" t="s">
+        <v>50</v>
+      </c>
+      <c r="C420" t="s">
+        <v>51</v>
+      </c>
+      <c r="D420" t="s">
+        <v>52</v>
+      </c>
+      <c r="E420">
+        <v>810</v>
+      </c>
+      <c r="F420">
+        <v>346</v>
+      </c>
+      <c r="G420">
+        <v>270</v>
+      </c>
+      <c r="H420">
+        <v>111</v>
+      </c>
+      <c r="I420">
+        <v>13</v>
+      </c>
+      <c r="J420">
+        <v>73</v>
+      </c>
+      <c r="K420">
+        <v>173</v>
+      </c>
+      <c r="L420">
+        <v>58</v>
+      </c>
+      <c r="M420" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B421" t="s">
+        <v>56</v>
+      </c>
+      <c r="C421" t="s">
+        <v>57</v>
+      </c>
+      <c r="D421" t="s">
+        <v>58</v>
+      </c>
+      <c r="E421">
+        <v>782</v>
+      </c>
+      <c r="F421">
+        <v>225</v>
+      </c>
+      <c r="G421">
+        <v>341</v>
+      </c>
+      <c r="H421">
+        <v>133</v>
+      </c>
+      <c r="I421">
+        <v>17</v>
+      </c>
+      <c r="J421">
+        <v>53</v>
+      </c>
+      <c r="K421">
+        <v>220</v>
+      </c>
+      <c r="L421">
+        <v>43</v>
+      </c>
+      <c r="M421" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B422" t="s">
+        <v>59</v>
+      </c>
+      <c r="C422" t="s">
+        <v>60</v>
+      </c>
+      <c r="D422" t="s">
+        <v>61</v>
+      </c>
+      <c r="E422">
+        <v>3210</v>
+      </c>
+      <c r="F422">
+        <v>604</v>
+      </c>
+      <c r="G422">
+        <v>1610</v>
+      </c>
+      <c r="H422">
+        <v>197</v>
+      </c>
+      <c r="I422">
+        <v>38</v>
+      </c>
+      <c r="J422">
+        <v>171</v>
+      </c>
+      <c r="K422">
+        <v>1474</v>
+      </c>
+      <c r="L422">
+        <v>142</v>
+      </c>
+      <c r="M422" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B423" t="s">
+        <v>13</v>
+      </c>
+      <c r="C423" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" t="s">
+        <v>15</v>
+      </c>
+      <c r="E423">
+        <v>82</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>50</v>
+      </c>
+      <c r="H423">
+        <v>18</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>4</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>3</v>
+      </c>
+      <c r="M423" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B424" t="s">
+        <v>17</v>
+      </c>
+      <c r="C424" t="s">
+        <v>18</v>
+      </c>
+      <c r="D424" t="s">
+        <v>19</v>
+      </c>
+      <c r="E424">
+        <v>95</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>60</v>
+      </c>
+      <c r="H424">
+        <v>28</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>4</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>4</v>
+      </c>
+      <c r="M424" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B425" t="s">
+        <v>20</v>
+      </c>
+      <c r="C425" t="s">
+        <v>21</v>
+      </c>
+      <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425">
+        <v>539</v>
+      </c>
+      <c r="F425">
+        <v>348</v>
+      </c>
+      <c r="G425">
+        <v>78</v>
+      </c>
+      <c r="H425">
+        <v>41</v>
+      </c>
+      <c r="I425">
+        <v>5</v>
+      </c>
+      <c r="J425">
+        <v>36</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>31</v>
+      </c>
+      <c r="M425" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426" t="s">
+        <v>24</v>
+      </c>
+      <c r="D426" t="s">
+        <v>25</v>
+      </c>
+      <c r="E426">
+        <v>106</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>84</v>
+      </c>
+      <c r="H426">
+        <v>42</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>3</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>2</v>
+      </c>
+      <c r="M426" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B427" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427" t="s">
+        <v>27</v>
+      </c>
+      <c r="D427" t="s">
+        <v>28</v>
+      </c>
+      <c r="E427">
+        <v>122</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>85</v>
+      </c>
+      <c r="H427">
+        <v>54</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>12</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>8</v>
+      </c>
+      <c r="M427" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B428" t="s">
+        <v>53</v>
+      </c>
+      <c r="C428" t="s">
+        <v>54</v>
+      </c>
+      <c r="D428" t="s">
+        <v>55</v>
+      </c>
+      <c r="E428">
+        <v>116</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>82</v>
+      </c>
+      <c r="H428">
+        <v>50</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>4</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
+      </c>
+      <c r="M428" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B429" t="s">
+        <v>29</v>
+      </c>
+      <c r="C429" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" t="s">
+        <v>31</v>
+      </c>
+      <c r="E429">
+        <v>1324</v>
+      </c>
+      <c r="F429">
+        <v>977</v>
+      </c>
+      <c r="G429">
+        <v>91</v>
+      </c>
+      <c r="H429">
+        <v>57</v>
+      </c>
+      <c r="I429">
+        <v>7</v>
+      </c>
+      <c r="J429">
+        <v>131</v>
+      </c>
+      <c r="K429">
+        <v>2</v>
+      </c>
+      <c r="L429">
+        <v>125</v>
+      </c>
+      <c r="M429" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B430" t="s">
+        <v>32</v>
+      </c>
+      <c r="C430" t="s">
+        <v>33</v>
+      </c>
+      <c r="D430" t="s">
+        <v>34</v>
+      </c>
+      <c r="E430">
+        <v>120</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>76</v>
+      </c>
+      <c r="H430">
+        <v>68</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>4</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>2</v>
+      </c>
+      <c r="M430" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B431" t="s">
+        <v>35</v>
+      </c>
+      <c r="C431" t="s">
+        <v>36</v>
+      </c>
+      <c r="D431" t="s">
+        <v>37</v>
+      </c>
+      <c r="E431">
+        <v>147</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>99</v>
+      </c>
+      <c r="H431">
+        <v>89</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>10</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>9</v>
+      </c>
+      <c r="M431" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B432" t="s">
+        <v>40</v>
+      </c>
+      <c r="C432" t="s">
+        <v>41</v>
+      </c>
+      <c r="D432" t="s">
+        <v>42</v>
+      </c>
+      <c r="E432">
+        <v>134</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>97</v>
+      </c>
+      <c r="H432">
+        <v>87</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>12</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>8</v>
+      </c>
+      <c r="M432" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B433" t="s">
+        <v>43</v>
+      </c>
+      <c r="C433" t="s">
+        <v>44</v>
+      </c>
+      <c r="D433" t="s">
+        <v>45</v>
+      </c>
+      <c r="E433">
+        <v>1467</v>
+      </c>
+      <c r="F433">
+        <v>1162</v>
+      </c>
+      <c r="G433">
+        <v>123</v>
+      </c>
+      <c r="H433">
+        <v>99</v>
+      </c>
+      <c r="I433">
+        <v>6</v>
+      </c>
+      <c r="J433">
+        <v>135</v>
+      </c>
+      <c r="K433">
+        <v>15</v>
+      </c>
+      <c r="L433">
+        <v>131</v>
+      </c>
+      <c r="M433" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B434" t="s">
+        <v>47</v>
+      </c>
+      <c r="C434" t="s">
+        <v>48</v>
+      </c>
+      <c r="D434" t="s">
+        <v>49</v>
+      </c>
+      <c r="E434">
+        <v>5411</v>
+      </c>
+      <c r="F434">
+        <v>950</v>
+      </c>
+      <c r="G434">
+        <v>3014</v>
+      </c>
+      <c r="H434">
+        <v>151</v>
+      </c>
+      <c r="I434">
+        <v>10</v>
+      </c>
+      <c r="J434">
+        <v>279</v>
+      </c>
+      <c r="K434">
+        <v>2896</v>
+      </c>
+      <c r="L434">
+        <v>156</v>
+      </c>
+      <c r="M434" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B435" t="s">
+        <v>50</v>
+      </c>
+      <c r="C435" t="s">
+        <v>51</v>
+      </c>
+      <c r="D435" t="s">
+        <v>52</v>
+      </c>
+      <c r="E435">
+        <v>811</v>
+      </c>
+      <c r="F435">
+        <v>346</v>
+      </c>
+      <c r="G435">
+        <v>270</v>
+      </c>
+      <c r="H435">
+        <v>111</v>
+      </c>
+      <c r="I435">
+        <v>13</v>
+      </c>
+      <c r="J435">
+        <v>74</v>
+      </c>
+      <c r="K435">
+        <v>173</v>
+      </c>
+      <c r="L435">
+        <v>59</v>
+      </c>
+      <c r="M435" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B436" t="s">
+        <v>56</v>
+      </c>
+      <c r="C436" t="s">
+        <v>57</v>
+      </c>
+      <c r="D436" t="s">
+        <v>58</v>
+      </c>
+      <c r="E436">
+        <v>785</v>
+      </c>
+      <c r="F436">
+        <v>225</v>
+      </c>
+      <c r="G436">
+        <v>343</v>
+      </c>
+      <c r="H436">
+        <v>134</v>
+      </c>
+      <c r="I436">
+        <v>17</v>
+      </c>
+      <c r="J436">
+        <v>54</v>
+      </c>
+      <c r="K436">
+        <v>222</v>
+      </c>
+      <c r="L436">
+        <v>44</v>
+      </c>
+      <c r="M436" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B437" t="s">
+        <v>59</v>
+      </c>
+      <c r="C437" t="s">
+        <v>60</v>
+      </c>
+      <c r="D437" t="s">
+        <v>61</v>
+      </c>
+      <c r="E437">
+        <v>3569</v>
+      </c>
+      <c r="F437">
+        <v>638</v>
+      </c>
+      <c r="G437">
+        <v>1823</v>
+      </c>
+      <c r="H437">
+        <v>204</v>
+      </c>
+      <c r="I437">
+        <v>45</v>
+      </c>
+      <c r="J437">
+        <v>188</v>
+      </c>
+      <c r="K437">
+        <v>1688</v>
+      </c>
+      <c r="L437">
+        <v>151</v>
+      </c>
+      <c r="M437" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="F441" sqref="F441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17274,31 +17274,31 @@
         <v>61</v>
       </c>
       <c r="E407">
-        <v>2268</v>
+        <v>2761</v>
       </c>
       <c r="F407">
-        <v>419</v>
+        <v>568</v>
       </c>
       <c r="G407">
-        <v>1141</v>
+        <v>1441</v>
       </c>
       <c r="H407">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I407">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J407">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="K407">
-        <v>1003</v>
+        <v>1346</v>
       </c>
       <c r="L407">
         <v>108</v>
       </c>
       <c r="M407" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M437"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="F441" sqref="F441"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18531,6 +18531,621 @@
         <v>38</v>
       </c>
     </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438">
+        <v>82</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>50</v>
+      </c>
+      <c r="H438">
+        <v>18</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>4</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>3</v>
+      </c>
+      <c r="M438" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B439" t="s">
+        <v>17</v>
+      </c>
+      <c r="C439" t="s">
+        <v>18</v>
+      </c>
+      <c r="D439" t="s">
+        <v>19</v>
+      </c>
+      <c r="E439">
+        <v>95</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>60</v>
+      </c>
+      <c r="H439">
+        <v>28</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>4</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>4</v>
+      </c>
+      <c r="M439" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B440" t="s">
+        <v>20</v>
+      </c>
+      <c r="C440" t="s">
+        <v>21</v>
+      </c>
+      <c r="D440" t="s">
+        <v>22</v>
+      </c>
+      <c r="E440">
+        <v>539</v>
+      </c>
+      <c r="F440">
+        <v>348</v>
+      </c>
+      <c r="G440">
+        <v>78</v>
+      </c>
+      <c r="H440">
+        <v>41</v>
+      </c>
+      <c r="I440">
+        <v>5</v>
+      </c>
+      <c r="J440">
+        <v>36</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>31</v>
+      </c>
+      <c r="M440" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B441" t="s">
+        <v>23</v>
+      </c>
+      <c r="C441" t="s">
+        <v>24</v>
+      </c>
+      <c r="D441" t="s">
+        <v>25</v>
+      </c>
+      <c r="E441">
+        <v>106</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>84</v>
+      </c>
+      <c r="H441">
+        <v>42</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>3</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>2</v>
+      </c>
+      <c r="M441" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B442" t="s">
+        <v>26</v>
+      </c>
+      <c r="C442" t="s">
+        <v>27</v>
+      </c>
+      <c r="D442" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442">
+        <v>122</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>85</v>
+      </c>
+      <c r="H442">
+        <v>54</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>12</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>8</v>
+      </c>
+      <c r="M442" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B443" t="s">
+        <v>53</v>
+      </c>
+      <c r="C443" t="s">
+        <v>54</v>
+      </c>
+      <c r="D443" t="s">
+        <v>55</v>
+      </c>
+      <c r="E443">
+        <v>116</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>82</v>
+      </c>
+      <c r="H443">
+        <v>50</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>4</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>2</v>
+      </c>
+      <c r="M443" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B444" t="s">
+        <v>29</v>
+      </c>
+      <c r="C444" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" t="s">
+        <v>31</v>
+      </c>
+      <c r="E444">
+        <v>1324</v>
+      </c>
+      <c r="F444">
+        <v>977</v>
+      </c>
+      <c r="G444">
+        <v>91</v>
+      </c>
+      <c r="H444">
+        <v>57</v>
+      </c>
+      <c r="I444">
+        <v>7</v>
+      </c>
+      <c r="J444">
+        <v>131</v>
+      </c>
+      <c r="K444">
+        <v>2</v>
+      </c>
+      <c r="L444">
+        <v>125</v>
+      </c>
+      <c r="M444" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B445" t="s">
+        <v>32</v>
+      </c>
+      <c r="C445" t="s">
+        <v>33</v>
+      </c>
+      <c r="D445" t="s">
+        <v>34</v>
+      </c>
+      <c r="E445">
+        <v>120</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>76</v>
+      </c>
+      <c r="H445">
+        <v>68</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>4</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>2</v>
+      </c>
+      <c r="M445" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B446" t="s">
+        <v>35</v>
+      </c>
+      <c r="C446" t="s">
+        <v>36</v>
+      </c>
+      <c r="D446" t="s">
+        <v>37</v>
+      </c>
+      <c r="E446">
+        <v>147</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>99</v>
+      </c>
+      <c r="H446">
+        <v>89</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>10</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>9</v>
+      </c>
+      <c r="M446" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B447" t="s">
+        <v>40</v>
+      </c>
+      <c r="C447" t="s">
+        <v>41</v>
+      </c>
+      <c r="D447" t="s">
+        <v>42</v>
+      </c>
+      <c r="E447">
+        <v>134</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>97</v>
+      </c>
+      <c r="H447">
+        <v>87</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>12</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>8</v>
+      </c>
+      <c r="M447" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B448" t="s">
+        <v>43</v>
+      </c>
+      <c r="C448" t="s">
+        <v>44</v>
+      </c>
+      <c r="D448" t="s">
+        <v>45</v>
+      </c>
+      <c r="E448">
+        <v>1467</v>
+      </c>
+      <c r="F448">
+        <v>1162</v>
+      </c>
+      <c r="G448">
+        <v>123</v>
+      </c>
+      <c r="H448">
+        <v>99</v>
+      </c>
+      <c r="I448">
+        <v>6</v>
+      </c>
+      <c r="J448">
+        <v>135</v>
+      </c>
+      <c r="K448">
+        <v>15</v>
+      </c>
+      <c r="L448">
+        <v>131</v>
+      </c>
+      <c r="M448" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B449" t="s">
+        <v>47</v>
+      </c>
+      <c r="C449" t="s">
+        <v>48</v>
+      </c>
+      <c r="D449" t="s">
+        <v>49</v>
+      </c>
+      <c r="E449">
+        <v>5419</v>
+      </c>
+      <c r="F449">
+        <v>950</v>
+      </c>
+      <c r="G449">
+        <v>3014</v>
+      </c>
+      <c r="H449">
+        <v>151</v>
+      </c>
+      <c r="I449">
+        <v>10</v>
+      </c>
+      <c r="J449">
+        <v>279</v>
+      </c>
+      <c r="K449">
+        <v>2896</v>
+      </c>
+      <c r="L449">
+        <v>156</v>
+      </c>
+      <c r="M449" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B450" t="s">
+        <v>50</v>
+      </c>
+      <c r="C450" t="s">
+        <v>51</v>
+      </c>
+      <c r="D450" t="s">
+        <v>52</v>
+      </c>
+      <c r="E450">
+        <v>812</v>
+      </c>
+      <c r="F450">
+        <v>346</v>
+      </c>
+      <c r="G450">
+        <v>271</v>
+      </c>
+      <c r="H450">
+        <v>111</v>
+      </c>
+      <c r="I450">
+        <v>13</v>
+      </c>
+      <c r="J450">
+        <v>74</v>
+      </c>
+      <c r="K450">
+        <v>173</v>
+      </c>
+      <c r="L450">
+        <v>59</v>
+      </c>
+      <c r="M450" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B451" t="s">
+        <v>56</v>
+      </c>
+      <c r="C451" t="s">
+        <v>57</v>
+      </c>
+      <c r="D451" t="s">
+        <v>58</v>
+      </c>
+      <c r="E451">
+        <v>790</v>
+      </c>
+      <c r="F451">
+        <v>225</v>
+      </c>
+      <c r="G451">
+        <v>346</v>
+      </c>
+      <c r="H451">
+        <v>135</v>
+      </c>
+      <c r="I451">
+        <v>17</v>
+      </c>
+      <c r="J451">
+        <v>55</v>
+      </c>
+      <c r="K451">
+        <v>223</v>
+      </c>
+      <c r="L451">
+        <v>45</v>
+      </c>
+      <c r="M451" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B452" t="s">
+        <v>59</v>
+      </c>
+      <c r="C452" t="s">
+        <v>60</v>
+      </c>
+      <c r="D452" t="s">
+        <v>61</v>
+      </c>
+      <c r="E452">
+        <v>4405</v>
+      </c>
+      <c r="F452">
+        <v>806</v>
+      </c>
+      <c r="G452">
+        <v>2202</v>
+      </c>
+      <c r="H452">
+        <v>222</v>
+      </c>
+      <c r="I452">
+        <v>84</v>
+      </c>
+      <c r="J452">
+        <v>225</v>
+      </c>
+      <c r="K452">
+        <v>2063</v>
+      </c>
+      <c r="L452">
+        <v>179</v>
+      </c>
+      <c r="M452" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M452"/>
+  <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19146,6 +19146,621 @@
         <v>38</v>
       </c>
     </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B453" t="s">
+        <v>13</v>
+      </c>
+      <c r="C453" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453">
+        <v>82</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>50</v>
+      </c>
+      <c r="H453">
+        <v>18</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>4</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453">
+        <v>3</v>
+      </c>
+      <c r="M453" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B454" t="s">
+        <v>17</v>
+      </c>
+      <c r="C454" t="s">
+        <v>18</v>
+      </c>
+      <c r="D454" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454">
+        <v>95</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>60</v>
+      </c>
+      <c r="H454">
+        <v>28</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>4</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>4</v>
+      </c>
+      <c r="M454" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B455" t="s">
+        <v>20</v>
+      </c>
+      <c r="C455" t="s">
+        <v>21</v>
+      </c>
+      <c r="D455" t="s">
+        <v>22</v>
+      </c>
+      <c r="E455">
+        <v>539</v>
+      </c>
+      <c r="F455">
+        <v>348</v>
+      </c>
+      <c r="G455">
+        <v>78</v>
+      </c>
+      <c r="H455">
+        <v>41</v>
+      </c>
+      <c r="I455">
+        <v>5</v>
+      </c>
+      <c r="J455">
+        <v>36</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="L455">
+        <v>31</v>
+      </c>
+      <c r="M455" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" t="s">
+        <v>24</v>
+      </c>
+      <c r="D456" t="s">
+        <v>25</v>
+      </c>
+      <c r="E456">
+        <v>106</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>84</v>
+      </c>
+      <c r="H456">
+        <v>42</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>3</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>2</v>
+      </c>
+      <c r="M456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B457" t="s">
+        <v>26</v>
+      </c>
+      <c r="C457" t="s">
+        <v>27</v>
+      </c>
+      <c r="D457" t="s">
+        <v>28</v>
+      </c>
+      <c r="E457">
+        <v>122</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>85</v>
+      </c>
+      <c r="H457">
+        <v>54</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>12</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>8</v>
+      </c>
+      <c r="M457" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B458" t="s">
+        <v>53</v>
+      </c>
+      <c r="C458" t="s">
+        <v>54</v>
+      </c>
+      <c r="D458" t="s">
+        <v>55</v>
+      </c>
+      <c r="E458">
+        <v>116</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>82</v>
+      </c>
+      <c r="H458">
+        <v>50</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>4</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>2</v>
+      </c>
+      <c r="M458" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B459" t="s">
+        <v>29</v>
+      </c>
+      <c r="C459" t="s">
+        <v>30</v>
+      </c>
+      <c r="D459" t="s">
+        <v>31</v>
+      </c>
+      <c r="E459">
+        <v>1324</v>
+      </c>
+      <c r="F459">
+        <v>977</v>
+      </c>
+      <c r="G459">
+        <v>91</v>
+      </c>
+      <c r="H459">
+        <v>57</v>
+      </c>
+      <c r="I459">
+        <v>7</v>
+      </c>
+      <c r="J459">
+        <v>131</v>
+      </c>
+      <c r="K459">
+        <v>2</v>
+      </c>
+      <c r="L459">
+        <v>125</v>
+      </c>
+      <c r="M459" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B460" t="s">
+        <v>32</v>
+      </c>
+      <c r="C460" t="s">
+        <v>33</v>
+      </c>
+      <c r="D460" t="s">
+        <v>34</v>
+      </c>
+      <c r="E460">
+        <v>120</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>76</v>
+      </c>
+      <c r="H460">
+        <v>68</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>4</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>2</v>
+      </c>
+      <c r="M460" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B461" t="s">
+        <v>35</v>
+      </c>
+      <c r="C461" t="s">
+        <v>36</v>
+      </c>
+      <c r="D461" t="s">
+        <v>37</v>
+      </c>
+      <c r="E461">
+        <v>147</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>99</v>
+      </c>
+      <c r="H461">
+        <v>89</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>10</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>9</v>
+      </c>
+      <c r="M461" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B462" t="s">
+        <v>40</v>
+      </c>
+      <c r="C462" t="s">
+        <v>41</v>
+      </c>
+      <c r="D462" t="s">
+        <v>42</v>
+      </c>
+      <c r="E462">
+        <v>134</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>97</v>
+      </c>
+      <c r="H462">
+        <v>87</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>12</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>8</v>
+      </c>
+      <c r="M462" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B463" t="s">
+        <v>43</v>
+      </c>
+      <c r="C463" t="s">
+        <v>44</v>
+      </c>
+      <c r="D463" t="s">
+        <v>45</v>
+      </c>
+      <c r="E463">
+        <v>1467</v>
+      </c>
+      <c r="F463">
+        <v>1162</v>
+      </c>
+      <c r="G463">
+        <v>123</v>
+      </c>
+      <c r="H463">
+        <v>99</v>
+      </c>
+      <c r="I463">
+        <v>6</v>
+      </c>
+      <c r="J463">
+        <v>135</v>
+      </c>
+      <c r="K463">
+        <v>15</v>
+      </c>
+      <c r="L463">
+        <v>131</v>
+      </c>
+      <c r="M463" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B464" t="s">
+        <v>47</v>
+      </c>
+      <c r="C464" t="s">
+        <v>48</v>
+      </c>
+      <c r="D464" t="s">
+        <v>49</v>
+      </c>
+      <c r="E464">
+        <v>5430</v>
+      </c>
+      <c r="F464">
+        <v>950</v>
+      </c>
+      <c r="G464">
+        <v>3014</v>
+      </c>
+      <c r="H464">
+        <v>153</v>
+      </c>
+      <c r="I464">
+        <v>10</v>
+      </c>
+      <c r="J464">
+        <v>279</v>
+      </c>
+      <c r="K464">
+        <v>2896</v>
+      </c>
+      <c r="L464">
+        <v>157</v>
+      </c>
+      <c r="M464" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B465" t="s">
+        <v>50</v>
+      </c>
+      <c r="C465" t="s">
+        <v>51</v>
+      </c>
+      <c r="D465" t="s">
+        <v>52</v>
+      </c>
+      <c r="E465">
+        <v>812</v>
+      </c>
+      <c r="F465">
+        <v>346</v>
+      </c>
+      <c r="G465">
+        <v>271</v>
+      </c>
+      <c r="H465">
+        <v>111</v>
+      </c>
+      <c r="I465">
+        <v>13</v>
+      </c>
+      <c r="J465">
+        <v>74</v>
+      </c>
+      <c r="K465">
+        <v>173</v>
+      </c>
+      <c r="L465">
+        <v>59</v>
+      </c>
+      <c r="M465" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B466" t="s">
+        <v>56</v>
+      </c>
+      <c r="C466" t="s">
+        <v>57</v>
+      </c>
+      <c r="D466" t="s">
+        <v>58</v>
+      </c>
+      <c r="E466">
+        <v>806</v>
+      </c>
+      <c r="F466">
+        <v>225</v>
+      </c>
+      <c r="G466">
+        <v>355</v>
+      </c>
+      <c r="H466">
+        <v>135</v>
+      </c>
+      <c r="I466">
+        <v>17</v>
+      </c>
+      <c r="J466">
+        <v>56</v>
+      </c>
+      <c r="K466">
+        <v>234</v>
+      </c>
+      <c r="L466">
+        <v>46</v>
+      </c>
+      <c r="M466" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B467" t="s">
+        <v>59</v>
+      </c>
+      <c r="C467" t="s">
+        <v>60</v>
+      </c>
+      <c r="D467" t="s">
+        <v>61</v>
+      </c>
+      <c r="E467">
+        <v>5180</v>
+      </c>
+      <c r="F467">
+        <v>1078</v>
+      </c>
+      <c r="G467">
+        <v>2431</v>
+      </c>
+      <c r="H467">
+        <v>230</v>
+      </c>
+      <c r="I467">
+        <v>107</v>
+      </c>
+      <c r="J467">
+        <v>253</v>
+      </c>
+      <c r="K467">
+        <v>2288</v>
+      </c>
+      <c r="L467">
+        <v>197</v>
+      </c>
+      <c r="M467" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M467"/>
+  <dimension ref="A1:M527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="A527" sqref="A527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19761,6 +19761,2466 @@
         <v>38</v>
       </c>
     </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B468" t="s">
+        <v>13</v>
+      </c>
+      <c r="C468" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468">
+        <v>82</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>50</v>
+      </c>
+      <c r="H468">
+        <v>18</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>4</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>3</v>
+      </c>
+      <c r="M468" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B469" t="s">
+        <v>17</v>
+      </c>
+      <c r="C469" t="s">
+        <v>18</v>
+      </c>
+      <c r="D469" t="s">
+        <v>19</v>
+      </c>
+      <c r="E469">
+        <v>95</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>60</v>
+      </c>
+      <c r="H469">
+        <v>28</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>4</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>4</v>
+      </c>
+      <c r="M469" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B470" t="s">
+        <v>20</v>
+      </c>
+      <c r="C470" t="s">
+        <v>21</v>
+      </c>
+      <c r="D470" t="s">
+        <v>22</v>
+      </c>
+      <c r="E470">
+        <v>539</v>
+      </c>
+      <c r="F470">
+        <v>348</v>
+      </c>
+      <c r="G470">
+        <v>78</v>
+      </c>
+      <c r="H470">
+        <v>41</v>
+      </c>
+      <c r="I470">
+        <v>5</v>
+      </c>
+      <c r="J470">
+        <v>36</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>31</v>
+      </c>
+      <c r="M470" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B471" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" t="s">
+        <v>24</v>
+      </c>
+      <c r="D471" t="s">
+        <v>25</v>
+      </c>
+      <c r="E471">
+        <v>106</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>84</v>
+      </c>
+      <c r="H471">
+        <v>42</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>3</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>2</v>
+      </c>
+      <c r="M471" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B472" t="s">
+        <v>26</v>
+      </c>
+      <c r="C472" t="s">
+        <v>27</v>
+      </c>
+      <c r="D472" t="s">
+        <v>28</v>
+      </c>
+      <c r="E472">
+        <v>122</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>85</v>
+      </c>
+      <c r="H472">
+        <v>54</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>12</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>8</v>
+      </c>
+      <c r="M472" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B473" t="s">
+        <v>53</v>
+      </c>
+      <c r="C473" t="s">
+        <v>54</v>
+      </c>
+      <c r="D473" t="s">
+        <v>55</v>
+      </c>
+      <c r="E473">
+        <v>116</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>82</v>
+      </c>
+      <c r="H473">
+        <v>50</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>4</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>2</v>
+      </c>
+      <c r="M473" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B474" t="s">
+        <v>29</v>
+      </c>
+      <c r="C474" t="s">
+        <v>30</v>
+      </c>
+      <c r="D474" t="s">
+        <v>31</v>
+      </c>
+      <c r="E474">
+        <v>1324</v>
+      </c>
+      <c r="F474">
+        <v>977</v>
+      </c>
+      <c r="G474">
+        <v>91</v>
+      </c>
+      <c r="H474">
+        <v>57</v>
+      </c>
+      <c r="I474">
+        <v>7</v>
+      </c>
+      <c r="J474">
+        <v>131</v>
+      </c>
+      <c r="K474">
+        <v>2</v>
+      </c>
+      <c r="L474">
+        <v>125</v>
+      </c>
+      <c r="M474" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B475" t="s">
+        <v>32</v>
+      </c>
+      <c r="C475" t="s">
+        <v>33</v>
+      </c>
+      <c r="D475" t="s">
+        <v>34</v>
+      </c>
+      <c r="E475">
+        <v>120</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>76</v>
+      </c>
+      <c r="H475">
+        <v>68</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>4</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>2</v>
+      </c>
+      <c r="M475" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B476" t="s">
+        <v>35</v>
+      </c>
+      <c r="C476" t="s">
+        <v>36</v>
+      </c>
+      <c r="D476" t="s">
+        <v>37</v>
+      </c>
+      <c r="E476">
+        <v>147</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>99</v>
+      </c>
+      <c r="H476">
+        <v>89</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>10</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>9</v>
+      </c>
+      <c r="M476" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B477" t="s">
+        <v>40</v>
+      </c>
+      <c r="C477" t="s">
+        <v>41</v>
+      </c>
+      <c r="D477" t="s">
+        <v>42</v>
+      </c>
+      <c r="E477">
+        <v>134</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>97</v>
+      </c>
+      <c r="H477">
+        <v>87</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>12</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>8</v>
+      </c>
+      <c r="M477" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B478" t="s">
+        <v>43</v>
+      </c>
+      <c r="C478" t="s">
+        <v>44</v>
+      </c>
+      <c r="D478" t="s">
+        <v>45</v>
+      </c>
+      <c r="E478">
+        <v>1468</v>
+      </c>
+      <c r="F478">
+        <v>1162</v>
+      </c>
+      <c r="G478">
+        <v>123</v>
+      </c>
+      <c r="H478">
+        <v>99</v>
+      </c>
+      <c r="I478">
+        <v>6</v>
+      </c>
+      <c r="J478">
+        <v>136</v>
+      </c>
+      <c r="K478">
+        <v>15</v>
+      </c>
+      <c r="L478">
+        <v>132</v>
+      </c>
+      <c r="M478" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B479" t="s">
+        <v>47</v>
+      </c>
+      <c r="C479" t="s">
+        <v>48</v>
+      </c>
+      <c r="D479" t="s">
+        <v>49</v>
+      </c>
+      <c r="E479">
+        <v>6012</v>
+      </c>
+      <c r="F479">
+        <v>950</v>
+      </c>
+      <c r="G479">
+        <v>3412</v>
+      </c>
+      <c r="H479">
+        <v>160</v>
+      </c>
+      <c r="I479">
+        <v>10</v>
+      </c>
+      <c r="J479">
+        <v>296</v>
+      </c>
+      <c r="K479">
+        <v>3043</v>
+      </c>
+      <c r="L479">
+        <v>167</v>
+      </c>
+      <c r="M479" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B480" t="s">
+        <v>50</v>
+      </c>
+      <c r="C480" t="s">
+        <v>51</v>
+      </c>
+      <c r="D480" t="s">
+        <v>52</v>
+      </c>
+      <c r="E480">
+        <v>823</v>
+      </c>
+      <c r="F480">
+        <v>346</v>
+      </c>
+      <c r="G480">
+        <v>287</v>
+      </c>
+      <c r="H480">
+        <v>112</v>
+      </c>
+      <c r="I480">
+        <v>13</v>
+      </c>
+      <c r="J480">
+        <v>77</v>
+      </c>
+      <c r="K480">
+        <v>187</v>
+      </c>
+      <c r="L480">
+        <v>61</v>
+      </c>
+      <c r="M480" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B481" t="s">
+        <v>56</v>
+      </c>
+      <c r="C481" t="s">
+        <v>57</v>
+      </c>
+      <c r="D481" t="s">
+        <v>58</v>
+      </c>
+      <c r="E481">
+        <v>814</v>
+      </c>
+      <c r="F481">
+        <v>225</v>
+      </c>
+      <c r="G481">
+        <v>367</v>
+      </c>
+      <c r="H481">
+        <v>136</v>
+      </c>
+      <c r="I481">
+        <v>17</v>
+      </c>
+      <c r="J481">
+        <v>56</v>
+      </c>
+      <c r="K481">
+        <v>243</v>
+      </c>
+      <c r="L481">
+        <v>46</v>
+      </c>
+      <c r="M481" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B482" t="s">
+        <v>59</v>
+      </c>
+      <c r="C482" t="s">
+        <v>60</v>
+      </c>
+      <c r="D482" t="s">
+        <v>61</v>
+      </c>
+      <c r="E482">
+        <v>5346</v>
+      </c>
+      <c r="F482">
+        <v>1078</v>
+      </c>
+      <c r="G482">
+        <v>2643</v>
+      </c>
+      <c r="H482">
+        <v>235</v>
+      </c>
+      <c r="I482">
+        <v>107</v>
+      </c>
+      <c r="J482">
+        <v>264</v>
+      </c>
+      <c r="K482">
+        <v>2436</v>
+      </c>
+      <c r="L482">
+        <v>200</v>
+      </c>
+      <c r="M482" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B483" t="s">
+        <v>13</v>
+      </c>
+      <c r="C483" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483">
+        <v>82</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>50</v>
+      </c>
+      <c r="H483">
+        <v>18</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>4</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>3</v>
+      </c>
+      <c r="M483" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B484" t="s">
+        <v>17</v>
+      </c>
+      <c r="C484" t="s">
+        <v>18</v>
+      </c>
+      <c r="D484" t="s">
+        <v>19</v>
+      </c>
+      <c r="E484">
+        <v>95</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>60</v>
+      </c>
+      <c r="H484">
+        <v>28</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>4</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+      <c r="L484">
+        <v>4</v>
+      </c>
+      <c r="M484" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B485" t="s">
+        <v>20</v>
+      </c>
+      <c r="C485" t="s">
+        <v>21</v>
+      </c>
+      <c r="D485" t="s">
+        <v>22</v>
+      </c>
+      <c r="E485">
+        <v>539</v>
+      </c>
+      <c r="F485">
+        <v>348</v>
+      </c>
+      <c r="G485">
+        <v>78</v>
+      </c>
+      <c r="H485">
+        <v>41</v>
+      </c>
+      <c r="I485">
+        <v>5</v>
+      </c>
+      <c r="J485">
+        <v>36</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>31</v>
+      </c>
+      <c r="M485" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B486" t="s">
+        <v>23</v>
+      </c>
+      <c r="C486" t="s">
+        <v>24</v>
+      </c>
+      <c r="D486" t="s">
+        <v>25</v>
+      </c>
+      <c r="E486">
+        <v>106</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>84</v>
+      </c>
+      <c r="H486">
+        <v>42</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>3</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>2</v>
+      </c>
+      <c r="M486" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B487" t="s">
+        <v>26</v>
+      </c>
+      <c r="C487" t="s">
+        <v>27</v>
+      </c>
+      <c r="D487" t="s">
+        <v>28</v>
+      </c>
+      <c r="E487">
+        <v>122</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>85</v>
+      </c>
+      <c r="H487">
+        <v>54</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>12</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>8</v>
+      </c>
+      <c r="M487" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B488" t="s">
+        <v>53</v>
+      </c>
+      <c r="C488" t="s">
+        <v>54</v>
+      </c>
+      <c r="D488" t="s">
+        <v>55</v>
+      </c>
+      <c r="E488">
+        <v>116</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>82</v>
+      </c>
+      <c r="H488">
+        <v>50</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>4</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>2</v>
+      </c>
+      <c r="M488" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B489" t="s">
+        <v>29</v>
+      </c>
+      <c r="C489" t="s">
+        <v>30</v>
+      </c>
+      <c r="D489" t="s">
+        <v>31</v>
+      </c>
+      <c r="E489">
+        <v>1324</v>
+      </c>
+      <c r="F489">
+        <v>977</v>
+      </c>
+      <c r="G489">
+        <v>91</v>
+      </c>
+      <c r="H489">
+        <v>57</v>
+      </c>
+      <c r="I489">
+        <v>7</v>
+      </c>
+      <c r="J489">
+        <v>131</v>
+      </c>
+      <c r="K489">
+        <v>2</v>
+      </c>
+      <c r="L489">
+        <v>125</v>
+      </c>
+      <c r="M489" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B490" t="s">
+        <v>32</v>
+      </c>
+      <c r="C490" t="s">
+        <v>33</v>
+      </c>
+      <c r="D490" t="s">
+        <v>34</v>
+      </c>
+      <c r="E490">
+        <v>120</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>76</v>
+      </c>
+      <c r="H490">
+        <v>68</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>4</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>2</v>
+      </c>
+      <c r="M490" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B491" t="s">
+        <v>35</v>
+      </c>
+      <c r="C491" t="s">
+        <v>36</v>
+      </c>
+      <c r="D491" t="s">
+        <v>37</v>
+      </c>
+      <c r="E491">
+        <v>147</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>99</v>
+      </c>
+      <c r="H491">
+        <v>89</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>10</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>9</v>
+      </c>
+      <c r="M491" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B492" t="s">
+        <v>40</v>
+      </c>
+      <c r="C492" t="s">
+        <v>41</v>
+      </c>
+      <c r="D492" t="s">
+        <v>42</v>
+      </c>
+      <c r="E492">
+        <v>134</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>97</v>
+      </c>
+      <c r="H492">
+        <v>87</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>12</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>8</v>
+      </c>
+      <c r="M492" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B493" t="s">
+        <v>43</v>
+      </c>
+      <c r="C493" t="s">
+        <v>44</v>
+      </c>
+      <c r="D493" t="s">
+        <v>45</v>
+      </c>
+      <c r="E493">
+        <v>1468</v>
+      </c>
+      <c r="F493">
+        <v>1162</v>
+      </c>
+      <c r="G493">
+        <v>123</v>
+      </c>
+      <c r="H493">
+        <v>99</v>
+      </c>
+      <c r="I493">
+        <v>6</v>
+      </c>
+      <c r="J493">
+        <v>136</v>
+      </c>
+      <c r="K493">
+        <v>15</v>
+      </c>
+      <c r="L493">
+        <v>132</v>
+      </c>
+      <c r="M493" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B494" t="s">
+        <v>47</v>
+      </c>
+      <c r="C494" t="s">
+        <v>48</v>
+      </c>
+      <c r="D494" t="s">
+        <v>49</v>
+      </c>
+      <c r="E494">
+        <v>6377</v>
+      </c>
+      <c r="F494">
+        <v>950</v>
+      </c>
+      <c r="G494">
+        <v>3666</v>
+      </c>
+      <c r="H494">
+        <v>170</v>
+      </c>
+      <c r="I494">
+        <v>10</v>
+      </c>
+      <c r="J494">
+        <v>317</v>
+      </c>
+      <c r="K494">
+        <v>3543</v>
+      </c>
+      <c r="L494">
+        <v>183</v>
+      </c>
+      <c r="M494" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B495" t="s">
+        <v>50</v>
+      </c>
+      <c r="C495" t="s">
+        <v>51</v>
+      </c>
+      <c r="D495" t="s">
+        <v>52</v>
+      </c>
+      <c r="E495">
+        <v>848</v>
+      </c>
+      <c r="F495">
+        <v>346</v>
+      </c>
+      <c r="G495">
+        <v>292</v>
+      </c>
+      <c r="H495">
+        <v>112</v>
+      </c>
+      <c r="I495">
+        <v>13</v>
+      </c>
+      <c r="J495">
+        <v>77</v>
+      </c>
+      <c r="K495">
+        <v>194</v>
+      </c>
+      <c r="L495">
+        <v>62</v>
+      </c>
+      <c r="M495" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B496" t="s">
+        <v>56</v>
+      </c>
+      <c r="C496" t="s">
+        <v>57</v>
+      </c>
+      <c r="D496" t="s">
+        <v>58</v>
+      </c>
+      <c r="E496">
+        <v>829</v>
+      </c>
+      <c r="F496">
+        <v>225</v>
+      </c>
+      <c r="G496">
+        <v>373</v>
+      </c>
+      <c r="H496">
+        <v>136</v>
+      </c>
+      <c r="I496">
+        <v>17</v>
+      </c>
+      <c r="J496">
+        <v>56</v>
+      </c>
+      <c r="K496">
+        <v>251</v>
+      </c>
+      <c r="L496">
+        <v>46</v>
+      </c>
+      <c r="M496" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B497" t="s">
+        <v>59</v>
+      </c>
+      <c r="C497" t="s">
+        <v>60</v>
+      </c>
+      <c r="D497" t="s">
+        <v>61</v>
+      </c>
+      <c r="E497">
+        <v>5771</v>
+      </c>
+      <c r="F497">
+        <v>1078</v>
+      </c>
+      <c r="G497">
+        <v>2807</v>
+      </c>
+      <c r="H497">
+        <v>239</v>
+      </c>
+      <c r="I497">
+        <v>107</v>
+      </c>
+      <c r="J497">
+        <v>272</v>
+      </c>
+      <c r="K497">
+        <v>2674</v>
+      </c>
+      <c r="L497">
+        <v>203</v>
+      </c>
+      <c r="M497" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B498" t="s">
+        <v>13</v>
+      </c>
+      <c r="C498" t="s">
+        <v>14</v>
+      </c>
+      <c r="D498" t="s">
+        <v>15</v>
+      </c>
+      <c r="E498">
+        <v>82</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>50</v>
+      </c>
+      <c r="H498">
+        <v>18</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>4</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>3</v>
+      </c>
+      <c r="M498" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B499" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499" t="s">
+        <v>18</v>
+      </c>
+      <c r="D499" t="s">
+        <v>19</v>
+      </c>
+      <c r="E499">
+        <v>95</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>60</v>
+      </c>
+      <c r="H499">
+        <v>28</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>4</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>4</v>
+      </c>
+      <c r="M499" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B500" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500" t="s">
+        <v>21</v>
+      </c>
+      <c r="D500" t="s">
+        <v>22</v>
+      </c>
+      <c r="E500">
+        <v>539</v>
+      </c>
+      <c r="F500">
+        <v>348</v>
+      </c>
+      <c r="G500">
+        <v>78</v>
+      </c>
+      <c r="H500">
+        <v>41</v>
+      </c>
+      <c r="I500">
+        <v>5</v>
+      </c>
+      <c r="J500">
+        <v>36</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>31</v>
+      </c>
+      <c r="M500" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B501" t="s">
+        <v>23</v>
+      </c>
+      <c r="C501" t="s">
+        <v>24</v>
+      </c>
+      <c r="D501" t="s">
+        <v>25</v>
+      </c>
+      <c r="E501">
+        <v>106</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>84</v>
+      </c>
+      <c r="H501">
+        <v>42</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>3</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>2</v>
+      </c>
+      <c r="M501" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B502" t="s">
+        <v>26</v>
+      </c>
+      <c r="C502" t="s">
+        <v>27</v>
+      </c>
+      <c r="D502" t="s">
+        <v>28</v>
+      </c>
+      <c r="E502">
+        <v>122</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>85</v>
+      </c>
+      <c r="H502">
+        <v>54</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>12</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>8</v>
+      </c>
+      <c r="M502" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B503" t="s">
+        <v>53</v>
+      </c>
+      <c r="C503" t="s">
+        <v>54</v>
+      </c>
+      <c r="D503" t="s">
+        <v>55</v>
+      </c>
+      <c r="E503">
+        <v>116</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>82</v>
+      </c>
+      <c r="H503">
+        <v>50</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>4</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>2</v>
+      </c>
+      <c r="M503" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B504" t="s">
+        <v>29</v>
+      </c>
+      <c r="C504" t="s">
+        <v>30</v>
+      </c>
+      <c r="D504" t="s">
+        <v>31</v>
+      </c>
+      <c r="E504">
+        <v>1324</v>
+      </c>
+      <c r="F504">
+        <v>977</v>
+      </c>
+      <c r="G504">
+        <v>91</v>
+      </c>
+      <c r="H504">
+        <v>57</v>
+      </c>
+      <c r="I504">
+        <v>7</v>
+      </c>
+      <c r="J504">
+        <v>131</v>
+      </c>
+      <c r="K504">
+        <v>2</v>
+      </c>
+      <c r="L504">
+        <v>125</v>
+      </c>
+      <c r="M504" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B505" t="s">
+        <v>32</v>
+      </c>
+      <c r="C505" t="s">
+        <v>33</v>
+      </c>
+      <c r="D505" t="s">
+        <v>34</v>
+      </c>
+      <c r="E505">
+        <v>120</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>76</v>
+      </c>
+      <c r="H505">
+        <v>68</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>4</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>2</v>
+      </c>
+      <c r="M505" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B506" t="s">
+        <v>35</v>
+      </c>
+      <c r="C506" t="s">
+        <v>36</v>
+      </c>
+      <c r="D506" t="s">
+        <v>37</v>
+      </c>
+      <c r="E506">
+        <v>147</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>99</v>
+      </c>
+      <c r="H506">
+        <v>89</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>10</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>9</v>
+      </c>
+      <c r="M506" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B507" t="s">
+        <v>40</v>
+      </c>
+      <c r="C507" t="s">
+        <v>41</v>
+      </c>
+      <c r="D507" t="s">
+        <v>42</v>
+      </c>
+      <c r="E507">
+        <v>134</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>97</v>
+      </c>
+      <c r="H507">
+        <v>87</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>12</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>8</v>
+      </c>
+      <c r="M507" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B508" t="s">
+        <v>43</v>
+      </c>
+      <c r="C508" t="s">
+        <v>44</v>
+      </c>
+      <c r="D508" t="s">
+        <v>45</v>
+      </c>
+      <c r="E508">
+        <v>1468</v>
+      </c>
+      <c r="F508">
+        <v>1162</v>
+      </c>
+      <c r="G508">
+        <v>123</v>
+      </c>
+      <c r="H508">
+        <v>99</v>
+      </c>
+      <c r="I508">
+        <v>6</v>
+      </c>
+      <c r="J508">
+        <v>136</v>
+      </c>
+      <c r="K508">
+        <v>15</v>
+      </c>
+      <c r="L508">
+        <v>132</v>
+      </c>
+      <c r="M508" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B509" t="s">
+        <v>47</v>
+      </c>
+      <c r="C509" t="s">
+        <v>48</v>
+      </c>
+      <c r="D509" t="s">
+        <v>49</v>
+      </c>
+      <c r="E509">
+        <v>6509</v>
+      </c>
+      <c r="F509">
+        <v>950</v>
+      </c>
+      <c r="G509">
+        <v>3732</v>
+      </c>
+      <c r="H509">
+        <v>172</v>
+      </c>
+      <c r="I509">
+        <v>10</v>
+      </c>
+      <c r="J509">
+        <v>320</v>
+      </c>
+      <c r="K509">
+        <v>3618</v>
+      </c>
+      <c r="L509">
+        <v>184</v>
+      </c>
+      <c r="M509" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B510" t="s">
+        <v>50</v>
+      </c>
+      <c r="C510" t="s">
+        <v>51</v>
+      </c>
+      <c r="D510" t="s">
+        <v>52</v>
+      </c>
+      <c r="E510">
+        <v>865</v>
+      </c>
+      <c r="F510">
+        <v>346</v>
+      </c>
+      <c r="G510">
+        <v>303</v>
+      </c>
+      <c r="H510">
+        <v>112</v>
+      </c>
+      <c r="I510">
+        <v>13</v>
+      </c>
+      <c r="J510">
+        <v>77</v>
+      </c>
+      <c r="K510">
+        <v>207</v>
+      </c>
+      <c r="L510">
+        <v>62</v>
+      </c>
+      <c r="M510" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B511" t="s">
+        <v>56</v>
+      </c>
+      <c r="C511" t="s">
+        <v>57</v>
+      </c>
+      <c r="D511" t="s">
+        <v>58</v>
+      </c>
+      <c r="E511">
+        <v>836</v>
+      </c>
+      <c r="F511">
+        <v>225</v>
+      </c>
+      <c r="G511">
+        <v>374</v>
+      </c>
+      <c r="H511">
+        <v>136</v>
+      </c>
+      <c r="I511">
+        <v>17</v>
+      </c>
+      <c r="J511">
+        <v>56</v>
+      </c>
+      <c r="K511">
+        <v>252</v>
+      </c>
+      <c r="L511">
+        <v>46</v>
+      </c>
+      <c r="M511" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B512" t="s">
+        <v>59</v>
+      </c>
+      <c r="C512" t="s">
+        <v>60</v>
+      </c>
+      <c r="D512" t="s">
+        <v>61</v>
+      </c>
+      <c r="E512">
+        <v>5899</v>
+      </c>
+      <c r="F512">
+        <v>1078</v>
+      </c>
+      <c r="G512">
+        <v>2880</v>
+      </c>
+      <c r="H512">
+        <v>241</v>
+      </c>
+      <c r="I512">
+        <v>107</v>
+      </c>
+      <c r="J512">
+        <v>277</v>
+      </c>
+      <c r="K512">
+        <v>2745</v>
+      </c>
+      <c r="L512">
+        <v>208</v>
+      </c>
+      <c r="M512" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B513" t="s">
+        <v>13</v>
+      </c>
+      <c r="C513" t="s">
+        <v>14</v>
+      </c>
+      <c r="D513" t="s">
+        <v>15</v>
+      </c>
+      <c r="E513">
+        <v>82</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>50</v>
+      </c>
+      <c r="H513">
+        <v>18</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>4</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>3</v>
+      </c>
+      <c r="M513" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C514" t="s">
+        <v>18</v>
+      </c>
+      <c r="D514" t="s">
+        <v>19</v>
+      </c>
+      <c r="E514">
+        <v>95</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <v>60</v>
+      </c>
+      <c r="H514">
+        <v>28</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>4</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>4</v>
+      </c>
+      <c r="M514" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B515" t="s">
+        <v>20</v>
+      </c>
+      <c r="C515" t="s">
+        <v>21</v>
+      </c>
+      <c r="D515" t="s">
+        <v>22</v>
+      </c>
+      <c r="E515">
+        <v>539</v>
+      </c>
+      <c r="F515">
+        <v>348</v>
+      </c>
+      <c r="G515">
+        <v>78</v>
+      </c>
+      <c r="H515">
+        <v>41</v>
+      </c>
+      <c r="I515">
+        <v>5</v>
+      </c>
+      <c r="J515">
+        <v>36</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+      <c r="L515">
+        <v>31</v>
+      </c>
+      <c r="M515" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B516" t="s">
+        <v>23</v>
+      </c>
+      <c r="C516" t="s">
+        <v>24</v>
+      </c>
+      <c r="D516" t="s">
+        <v>25</v>
+      </c>
+      <c r="E516">
+        <v>106</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>84</v>
+      </c>
+      <c r="H516">
+        <v>42</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>3</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>2</v>
+      </c>
+      <c r="M516" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B517" t="s">
+        <v>26</v>
+      </c>
+      <c r="C517" t="s">
+        <v>27</v>
+      </c>
+      <c r="D517" t="s">
+        <v>28</v>
+      </c>
+      <c r="E517">
+        <v>122</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>85</v>
+      </c>
+      <c r="H517">
+        <v>54</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>12</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>8</v>
+      </c>
+      <c r="M517" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B518" t="s">
+        <v>53</v>
+      </c>
+      <c r="C518" t="s">
+        <v>54</v>
+      </c>
+      <c r="D518" t="s">
+        <v>55</v>
+      </c>
+      <c r="E518">
+        <v>116</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>82</v>
+      </c>
+      <c r="H518">
+        <v>50</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>4</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>2</v>
+      </c>
+      <c r="M518" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B519" t="s">
+        <v>29</v>
+      </c>
+      <c r="C519" t="s">
+        <v>30</v>
+      </c>
+      <c r="D519" t="s">
+        <v>31</v>
+      </c>
+      <c r="E519">
+        <v>1324</v>
+      </c>
+      <c r="F519">
+        <v>977</v>
+      </c>
+      <c r="G519">
+        <v>91</v>
+      </c>
+      <c r="H519">
+        <v>57</v>
+      </c>
+      <c r="I519">
+        <v>7</v>
+      </c>
+      <c r="J519">
+        <v>131</v>
+      </c>
+      <c r="K519">
+        <v>2</v>
+      </c>
+      <c r="L519">
+        <v>125</v>
+      </c>
+      <c r="M519" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B520" t="s">
+        <v>32</v>
+      </c>
+      <c r="C520" t="s">
+        <v>33</v>
+      </c>
+      <c r="D520" t="s">
+        <v>34</v>
+      </c>
+      <c r="E520">
+        <v>120</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>76</v>
+      </c>
+      <c r="H520">
+        <v>68</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>4</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>2</v>
+      </c>
+      <c r="M520" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B521" t="s">
+        <v>35</v>
+      </c>
+      <c r="C521" t="s">
+        <v>36</v>
+      </c>
+      <c r="D521" t="s">
+        <v>37</v>
+      </c>
+      <c r="E521">
+        <v>147</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>99</v>
+      </c>
+      <c r="H521">
+        <v>89</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>10</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+      <c r="L521">
+        <v>9</v>
+      </c>
+      <c r="M521" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B522" t="s">
+        <v>40</v>
+      </c>
+      <c r="C522" t="s">
+        <v>41</v>
+      </c>
+      <c r="D522" t="s">
+        <v>42</v>
+      </c>
+      <c r="E522">
+        <v>134</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>97</v>
+      </c>
+      <c r="H522">
+        <v>87</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>12</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>8</v>
+      </c>
+      <c r="M522" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B523" t="s">
+        <v>43</v>
+      </c>
+      <c r="C523" t="s">
+        <v>44</v>
+      </c>
+      <c r="D523" t="s">
+        <v>45</v>
+      </c>
+      <c r="E523">
+        <v>1468</v>
+      </c>
+      <c r="F523">
+        <v>1162</v>
+      </c>
+      <c r="G523">
+        <v>123</v>
+      </c>
+      <c r="H523">
+        <v>99</v>
+      </c>
+      <c r="I523">
+        <v>6</v>
+      </c>
+      <c r="J523">
+        <v>136</v>
+      </c>
+      <c r="K523">
+        <v>15</v>
+      </c>
+      <c r="L523">
+        <v>132</v>
+      </c>
+      <c r="M523" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B524" t="s">
+        <v>47</v>
+      </c>
+      <c r="C524" t="s">
+        <v>48</v>
+      </c>
+      <c r="D524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E524">
+        <v>6533</v>
+      </c>
+      <c r="F524">
+        <v>950</v>
+      </c>
+      <c r="G524">
+        <v>3739</v>
+      </c>
+      <c r="H524">
+        <v>173</v>
+      </c>
+      <c r="I524">
+        <v>10</v>
+      </c>
+      <c r="J524">
+        <v>322</v>
+      </c>
+      <c r="K524">
+        <v>3624</v>
+      </c>
+      <c r="L524">
+        <v>186</v>
+      </c>
+      <c r="M524" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B525" t="s">
+        <v>50</v>
+      </c>
+      <c r="C525" t="s">
+        <v>51</v>
+      </c>
+      <c r="D525" t="s">
+        <v>52</v>
+      </c>
+      <c r="E525">
+        <v>865</v>
+      </c>
+      <c r="F525">
+        <v>346</v>
+      </c>
+      <c r="G525">
+        <v>303</v>
+      </c>
+      <c r="H525">
+        <v>112</v>
+      </c>
+      <c r="I525">
+        <v>13</v>
+      </c>
+      <c r="J525">
+        <v>77</v>
+      </c>
+      <c r="K525">
+        <v>207</v>
+      </c>
+      <c r="L525">
+        <v>62</v>
+      </c>
+      <c r="M525" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B526" t="s">
+        <v>56</v>
+      </c>
+      <c r="C526" t="s">
+        <v>57</v>
+      </c>
+      <c r="D526" t="s">
+        <v>58</v>
+      </c>
+      <c r="E526">
+        <v>838</v>
+      </c>
+      <c r="F526">
+        <v>225</v>
+      </c>
+      <c r="G526">
+        <v>374</v>
+      </c>
+      <c r="H526">
+        <v>136</v>
+      </c>
+      <c r="I526">
+        <v>17</v>
+      </c>
+      <c r="J526">
+        <v>56</v>
+      </c>
+      <c r="K526">
+        <v>252</v>
+      </c>
+      <c r="L526">
+        <v>46</v>
+      </c>
+      <c r="M526" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B527" t="s">
+        <v>59</v>
+      </c>
+      <c r="C527" t="s">
+        <v>60</v>
+      </c>
+      <c r="D527" t="s">
+        <v>61</v>
+      </c>
+      <c r="E527">
+        <v>5936</v>
+      </c>
+      <c r="F527">
+        <v>1078</v>
+      </c>
+      <c r="G527">
+        <v>2912</v>
+      </c>
+      <c r="H527">
+        <v>243</v>
+      </c>
+      <c r="I527">
+        <v>107</v>
+      </c>
+      <c r="J527">
+        <v>278</v>
+      </c>
+      <c r="K527">
+        <v>2780</v>
+      </c>
+      <c r="L527">
+        <v>208</v>
+      </c>
+      <c r="M527" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="A527" sqref="A527"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22221,6 +22221,1236 @@
         <v>38</v>
       </c>
     </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B528" t="s">
+        <v>13</v>
+      </c>
+      <c r="C528" t="s">
+        <v>14</v>
+      </c>
+      <c r="D528" t="s">
+        <v>15</v>
+      </c>
+      <c r="E528">
+        <v>84</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>52</v>
+      </c>
+      <c r="H528">
+        <v>20</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>4</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+      <c r="L528">
+        <v>3</v>
+      </c>
+      <c r="M528" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B529" t="s">
+        <v>17</v>
+      </c>
+      <c r="C529" t="s">
+        <v>18</v>
+      </c>
+      <c r="D529" t="s">
+        <v>19</v>
+      </c>
+      <c r="E529">
+        <v>97</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <v>62</v>
+      </c>
+      <c r="H529">
+        <v>30</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>4</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+      <c r="L529">
+        <v>4</v>
+      </c>
+      <c r="M529" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C530" t="s">
+        <v>21</v>
+      </c>
+      <c r="D530" t="s">
+        <v>22</v>
+      </c>
+      <c r="E530">
+        <v>541</v>
+      </c>
+      <c r="F530">
+        <v>348</v>
+      </c>
+      <c r="G530">
+        <v>81</v>
+      </c>
+      <c r="H530">
+        <v>43</v>
+      </c>
+      <c r="I530">
+        <v>5</v>
+      </c>
+      <c r="J530">
+        <v>36</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+      <c r="L530">
+        <v>31</v>
+      </c>
+      <c r="M530" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B531" t="s">
+        <v>23</v>
+      </c>
+      <c r="C531" t="s">
+        <v>24</v>
+      </c>
+      <c r="D531" t="s">
+        <v>25</v>
+      </c>
+      <c r="E531">
+        <v>108</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>86</v>
+      </c>
+      <c r="H531">
+        <v>44</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>3</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>2</v>
+      </c>
+      <c r="M531" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B532" t="s">
+        <v>26</v>
+      </c>
+      <c r="C532" t="s">
+        <v>27</v>
+      </c>
+      <c r="D532" t="s">
+        <v>28</v>
+      </c>
+      <c r="E532">
+        <v>124</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>87</v>
+      </c>
+      <c r="H532">
+        <v>56</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>12</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+      <c r="L532">
+        <v>8</v>
+      </c>
+      <c r="M532" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B533" t="s">
+        <v>53</v>
+      </c>
+      <c r="C533" t="s">
+        <v>54</v>
+      </c>
+      <c r="D533" t="s">
+        <v>55</v>
+      </c>
+      <c r="E533">
+        <v>118</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533">
+        <v>84</v>
+      </c>
+      <c r="H533">
+        <v>52</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>4</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+      <c r="L533">
+        <v>2</v>
+      </c>
+      <c r="M533" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B534" t="s">
+        <v>29</v>
+      </c>
+      <c r="C534" t="s">
+        <v>30</v>
+      </c>
+      <c r="D534" t="s">
+        <v>31</v>
+      </c>
+      <c r="E534">
+        <v>1327</v>
+      </c>
+      <c r="F534">
+        <v>977</v>
+      </c>
+      <c r="G534">
+        <v>94</v>
+      </c>
+      <c r="H534">
+        <v>60</v>
+      </c>
+      <c r="I534">
+        <v>7</v>
+      </c>
+      <c r="J534">
+        <v>131</v>
+      </c>
+      <c r="K534">
+        <v>2</v>
+      </c>
+      <c r="L534">
+        <v>125</v>
+      </c>
+      <c r="M534" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B535" t="s">
+        <v>32</v>
+      </c>
+      <c r="C535" t="s">
+        <v>33</v>
+      </c>
+      <c r="D535" t="s">
+        <v>34</v>
+      </c>
+      <c r="E535">
+        <v>123</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>80</v>
+      </c>
+      <c r="H535">
+        <v>71</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>4</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
+      <c r="L535">
+        <v>2</v>
+      </c>
+      <c r="M535" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B536" t="s">
+        <v>35</v>
+      </c>
+      <c r="C536" t="s">
+        <v>36</v>
+      </c>
+      <c r="D536" t="s">
+        <v>37</v>
+      </c>
+      <c r="E536">
+        <v>152</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <v>104</v>
+      </c>
+      <c r="H536">
+        <v>93</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>10</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
+      <c r="L536">
+        <v>9</v>
+      </c>
+      <c r="M536" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B537" t="s">
+        <v>40</v>
+      </c>
+      <c r="C537" t="s">
+        <v>41</v>
+      </c>
+      <c r="D537" t="s">
+        <v>42</v>
+      </c>
+      <c r="E537">
+        <v>141</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537">
+        <v>101</v>
+      </c>
+      <c r="H537">
+        <v>91</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>12</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+      <c r="L537">
+        <v>8</v>
+      </c>
+      <c r="M537" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B538" t="s">
+        <v>43</v>
+      </c>
+      <c r="C538" t="s">
+        <v>44</v>
+      </c>
+      <c r="D538" t="s">
+        <v>45</v>
+      </c>
+      <c r="E538">
+        <v>1476</v>
+      </c>
+      <c r="F538">
+        <v>1162</v>
+      </c>
+      <c r="G538">
+        <v>127</v>
+      </c>
+      <c r="H538">
+        <v>104</v>
+      </c>
+      <c r="I538">
+        <v>6</v>
+      </c>
+      <c r="J538">
+        <v>136</v>
+      </c>
+      <c r="K538">
+        <v>15</v>
+      </c>
+      <c r="L538">
+        <v>132</v>
+      </c>
+      <c r="M538" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B539" t="s">
+        <v>47</v>
+      </c>
+      <c r="C539" t="s">
+        <v>48</v>
+      </c>
+      <c r="D539" t="s">
+        <v>49</v>
+      </c>
+      <c r="E539">
+        <v>7028</v>
+      </c>
+      <c r="F539">
+        <v>950</v>
+      </c>
+      <c r="G539">
+        <v>3975</v>
+      </c>
+      <c r="H539">
+        <v>194</v>
+      </c>
+      <c r="I539">
+        <v>10</v>
+      </c>
+      <c r="J539">
+        <v>341</v>
+      </c>
+      <c r="K539">
+        <v>3860</v>
+      </c>
+      <c r="L539">
+        <v>198</v>
+      </c>
+      <c r="M539" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B540" t="s">
+        <v>50</v>
+      </c>
+      <c r="C540" t="s">
+        <v>51</v>
+      </c>
+      <c r="D540" t="s">
+        <v>52</v>
+      </c>
+      <c r="E540">
+        <v>872</v>
+      </c>
+      <c r="F540">
+        <v>346</v>
+      </c>
+      <c r="G540">
+        <v>308</v>
+      </c>
+      <c r="H540">
+        <v>116</v>
+      </c>
+      <c r="I540">
+        <v>13</v>
+      </c>
+      <c r="J540">
+        <v>77</v>
+      </c>
+      <c r="K540">
+        <v>207</v>
+      </c>
+      <c r="L540">
+        <v>62</v>
+      </c>
+      <c r="M540" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B541" t="s">
+        <v>56</v>
+      </c>
+      <c r="C541" t="s">
+        <v>57</v>
+      </c>
+      <c r="D541" t="s">
+        <v>58</v>
+      </c>
+      <c r="E541">
+        <v>848</v>
+      </c>
+      <c r="F541">
+        <v>225</v>
+      </c>
+      <c r="G541">
+        <v>379</v>
+      </c>
+      <c r="H541">
+        <v>140</v>
+      </c>
+      <c r="I541">
+        <v>17</v>
+      </c>
+      <c r="J541">
+        <v>56</v>
+      </c>
+      <c r="K541">
+        <v>252</v>
+      </c>
+      <c r="L541">
+        <v>46</v>
+      </c>
+      <c r="M541" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B542" t="s">
+        <v>59</v>
+      </c>
+      <c r="C542" t="s">
+        <v>60</v>
+      </c>
+      <c r="D542" t="s">
+        <v>61</v>
+      </c>
+      <c r="E542">
+        <v>6022</v>
+      </c>
+      <c r="F542">
+        <v>1078</v>
+      </c>
+      <c r="G542">
+        <v>2950</v>
+      </c>
+      <c r="H542">
+        <v>247</v>
+      </c>
+      <c r="I542">
+        <v>107</v>
+      </c>
+      <c r="J542">
+        <v>285</v>
+      </c>
+      <c r="K542">
+        <v>2811</v>
+      </c>
+      <c r="L542">
+        <v>217</v>
+      </c>
+      <c r="M542" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B543" t="s">
+        <v>13</v>
+      </c>
+      <c r="C543" t="s">
+        <v>14</v>
+      </c>
+      <c r="D543" t="s">
+        <v>15</v>
+      </c>
+      <c r="E543">
+        <v>84</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>52</v>
+      </c>
+      <c r="H543">
+        <v>20</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>4</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
+      <c r="L543">
+        <v>3</v>
+      </c>
+      <c r="M543" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B544" t="s">
+        <v>17</v>
+      </c>
+      <c r="C544" t="s">
+        <v>18</v>
+      </c>
+      <c r="D544" t="s">
+        <v>19</v>
+      </c>
+      <c r="E544">
+        <v>97</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>62</v>
+      </c>
+      <c r="H544">
+        <v>30</v>
+      </c>
+      <c r="I544">
+        <v>0</v>
+      </c>
+      <c r="J544">
+        <v>4</v>
+      </c>
+      <c r="K544">
+        <v>0</v>
+      </c>
+      <c r="L544">
+        <v>4</v>
+      </c>
+      <c r="M544" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B545" t="s">
+        <v>20</v>
+      </c>
+      <c r="C545" t="s">
+        <v>21</v>
+      </c>
+      <c r="D545" t="s">
+        <v>22</v>
+      </c>
+      <c r="E545">
+        <v>541</v>
+      </c>
+      <c r="F545">
+        <v>348</v>
+      </c>
+      <c r="G545">
+        <v>81</v>
+      </c>
+      <c r="H545">
+        <v>43</v>
+      </c>
+      <c r="I545">
+        <v>5</v>
+      </c>
+      <c r="J545">
+        <v>36</v>
+      </c>
+      <c r="K545">
+        <v>0</v>
+      </c>
+      <c r="L545">
+        <v>31</v>
+      </c>
+      <c r="M545" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B546" t="s">
+        <v>23</v>
+      </c>
+      <c r="C546" t="s">
+        <v>24</v>
+      </c>
+      <c r="D546" t="s">
+        <v>25</v>
+      </c>
+      <c r="E546">
+        <v>108</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>86</v>
+      </c>
+      <c r="H546">
+        <v>44</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="J546">
+        <v>3</v>
+      </c>
+      <c r="K546">
+        <v>0</v>
+      </c>
+      <c r="L546">
+        <v>2</v>
+      </c>
+      <c r="M546" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B547" t="s">
+        <v>26</v>
+      </c>
+      <c r="C547" t="s">
+        <v>27</v>
+      </c>
+      <c r="D547" t="s">
+        <v>28</v>
+      </c>
+      <c r="E547">
+        <v>124</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+      <c r="G547">
+        <v>87</v>
+      </c>
+      <c r="H547">
+        <v>56</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>12</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
+      </c>
+      <c r="L547">
+        <v>8</v>
+      </c>
+      <c r="M547" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B548" t="s">
+        <v>53</v>
+      </c>
+      <c r="C548" t="s">
+        <v>54</v>
+      </c>
+      <c r="D548" t="s">
+        <v>55</v>
+      </c>
+      <c r="E548">
+        <v>118</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>84</v>
+      </c>
+      <c r="H548">
+        <v>52</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>4</v>
+      </c>
+      <c r="K548">
+        <v>0</v>
+      </c>
+      <c r="L548">
+        <v>2</v>
+      </c>
+      <c r="M548" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B549" t="s">
+        <v>29</v>
+      </c>
+      <c r="C549" t="s">
+        <v>30</v>
+      </c>
+      <c r="D549" t="s">
+        <v>31</v>
+      </c>
+      <c r="E549">
+        <v>1327</v>
+      </c>
+      <c r="F549">
+        <v>977</v>
+      </c>
+      <c r="G549">
+        <v>94</v>
+      </c>
+      <c r="H549">
+        <v>60</v>
+      </c>
+      <c r="I549">
+        <v>7</v>
+      </c>
+      <c r="J549">
+        <v>131</v>
+      </c>
+      <c r="K549">
+        <v>2</v>
+      </c>
+      <c r="L549">
+        <v>125</v>
+      </c>
+      <c r="M549" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B550" t="s">
+        <v>32</v>
+      </c>
+      <c r="C550" t="s">
+        <v>33</v>
+      </c>
+      <c r="D550" t="s">
+        <v>34</v>
+      </c>
+      <c r="E550">
+        <v>123</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>80</v>
+      </c>
+      <c r="H550">
+        <v>71</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>4</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
+      <c r="L550">
+        <v>2</v>
+      </c>
+      <c r="M550" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B551" t="s">
+        <v>35</v>
+      </c>
+      <c r="C551" t="s">
+        <v>36</v>
+      </c>
+      <c r="D551" t="s">
+        <v>37</v>
+      </c>
+      <c r="E551">
+        <v>152</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>104</v>
+      </c>
+      <c r="H551">
+        <v>93</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>10</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
+      <c r="L551">
+        <v>9</v>
+      </c>
+      <c r="M551" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B552" t="s">
+        <v>40</v>
+      </c>
+      <c r="C552" t="s">
+        <v>41</v>
+      </c>
+      <c r="D552" t="s">
+        <v>42</v>
+      </c>
+      <c r="E552">
+        <v>141</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>101</v>
+      </c>
+      <c r="H552">
+        <v>91</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>12</v>
+      </c>
+      <c r="K552">
+        <v>0</v>
+      </c>
+      <c r="L552">
+        <v>8</v>
+      </c>
+      <c r="M552" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B553" t="s">
+        <v>43</v>
+      </c>
+      <c r="C553" t="s">
+        <v>44</v>
+      </c>
+      <c r="D553" t="s">
+        <v>45</v>
+      </c>
+      <c r="E553">
+        <v>1476</v>
+      </c>
+      <c r="F553">
+        <v>1162</v>
+      </c>
+      <c r="G553">
+        <v>127</v>
+      </c>
+      <c r="H553">
+        <v>104</v>
+      </c>
+      <c r="I553">
+        <v>6</v>
+      </c>
+      <c r="J553">
+        <v>136</v>
+      </c>
+      <c r="K553">
+        <v>15</v>
+      </c>
+      <c r="L553">
+        <v>132</v>
+      </c>
+      <c r="M553" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B554" t="s">
+        <v>47</v>
+      </c>
+      <c r="C554" t="s">
+        <v>48</v>
+      </c>
+      <c r="D554" t="s">
+        <v>49</v>
+      </c>
+      <c r="E554">
+        <v>7341</v>
+      </c>
+      <c r="F554">
+        <v>950</v>
+      </c>
+      <c r="G554">
+        <v>4142</v>
+      </c>
+      <c r="H554">
+        <v>198</v>
+      </c>
+      <c r="I554">
+        <v>10</v>
+      </c>
+      <c r="J554">
+        <v>349</v>
+      </c>
+      <c r="K554">
+        <v>4039</v>
+      </c>
+      <c r="L554">
+        <v>201</v>
+      </c>
+      <c r="M554" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B555" t="s">
+        <v>50</v>
+      </c>
+      <c r="C555" t="s">
+        <v>51</v>
+      </c>
+      <c r="D555" t="s">
+        <v>52</v>
+      </c>
+      <c r="E555">
+        <v>875</v>
+      </c>
+      <c r="F555">
+        <v>346</v>
+      </c>
+      <c r="G555">
+        <v>309</v>
+      </c>
+      <c r="H555">
+        <v>118</v>
+      </c>
+      <c r="I555">
+        <v>13</v>
+      </c>
+      <c r="J555">
+        <v>77</v>
+      </c>
+      <c r="K555">
+        <v>207</v>
+      </c>
+      <c r="L555">
+        <v>62</v>
+      </c>
+      <c r="M555" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B556" t="s">
+        <v>56</v>
+      </c>
+      <c r="C556" t="s">
+        <v>57</v>
+      </c>
+      <c r="D556" t="s">
+        <v>58</v>
+      </c>
+      <c r="E556">
+        <v>850</v>
+      </c>
+      <c r="F556">
+        <v>225</v>
+      </c>
+      <c r="G556">
+        <v>380</v>
+      </c>
+      <c r="H556">
+        <v>141</v>
+      </c>
+      <c r="I556">
+        <v>17</v>
+      </c>
+      <c r="J556">
+        <v>57</v>
+      </c>
+      <c r="K556">
+        <v>252</v>
+      </c>
+      <c r="L556">
+        <v>47</v>
+      </c>
+      <c r="M556" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B557" t="s">
+        <v>59</v>
+      </c>
+      <c r="C557" t="s">
+        <v>60</v>
+      </c>
+      <c r="D557" t="s">
+        <v>61</v>
+      </c>
+      <c r="E557">
+        <v>6302</v>
+      </c>
+      <c r="F557">
+        <v>1078</v>
+      </c>
+      <c r="G557">
+        <v>3126</v>
+      </c>
+      <c r="H557">
+        <v>258</v>
+      </c>
+      <c r="I557">
+        <v>107</v>
+      </c>
+      <c r="J557">
+        <v>295</v>
+      </c>
+      <c r="K557">
+        <v>2976</v>
+      </c>
+      <c r="L557">
+        <v>224</v>
+      </c>
+      <c r="M557" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Post-Info-Countinuously.xlsx
+++ b/excels/lite/lite-Post-Info-Countinuously.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17840"/>
+    <workbookView xWindow="2540" yWindow="1660" windowWidth="25600" windowHeight="17840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="62">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M557"/>
+  <dimension ref="A1:M572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552"/>
+      <selection activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23451,6 +23451,621 @@
         <v>38</v>
       </c>
     </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B558" t="s">
+        <v>13</v>
+      </c>
+      <c r="C558" t="s">
+        <v>14</v>
+      </c>
+      <c r="D558" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558">
+        <v>84</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>52</v>
+      </c>
+      <c r="H558">
+        <v>20</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>4</v>
+      </c>
+      <c r="K558">
+        <v>0</v>
+      </c>
+      <c r="L558">
+        <v>3</v>
+      </c>
+      <c r="M558" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B559" t="s">
+        <v>17</v>
+      </c>
+      <c r="C559" t="s">
+        <v>18</v>
+      </c>
+      <c r="D559" t="s">
+        <v>19</v>
+      </c>
+      <c r="E559">
+        <v>97</v>
+      </c>
+      <c r="F559">
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <v>62</v>
+      </c>
+      <c r="H559">
+        <v>30</v>
+      </c>
+      <c r="I559">
+        <v>0</v>
+      </c>
+      <c r="J559">
+        <v>4</v>
+      </c>
+      <c r="K559">
+        <v>0</v>
+      </c>
+      <c r="L559">
+        <v>4</v>
+      </c>
+      <c r="M559" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B560" t="s">
+        <v>20</v>
+      </c>
+      <c r="C560" t="s">
+        <v>21</v>
+      </c>
+      <c r="D560" t="s">
+        <v>22</v>
+      </c>
+      <c r="E560">
+        <v>541</v>
+      </c>
+      <c r="F560">
+        <v>348</v>
+      </c>
+      <c r="G560">
+        <v>81</v>
+      </c>
+      <c r="H560">
+        <v>43</v>
+      </c>
+      <c r="I560">
+        <v>5</v>
+      </c>
+      <c r="J560">
+        <v>36</v>
+      </c>
+      <c r="K560">
+        <v>0</v>
+      </c>
+      <c r="L560">
+        <v>31</v>
+      </c>
+      <c r="M560" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B561" t="s">
+        <v>23</v>
+      </c>
+      <c r="C561" t="s">
+        <v>24</v>
+      </c>
+      <c r="D561" t="s">
+        <v>25</v>
+      </c>
+      <c r="E561">
+        <v>108</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>86</v>
+      </c>
+      <c r="H561">
+        <v>44</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561">
+        <v>3</v>
+      </c>
+      <c r="K561">
+        <v>0</v>
+      </c>
+      <c r="L561">
+        <v>2</v>
+      </c>
+      <c r="M561" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B562" t="s">
+        <v>26</v>
+      </c>
+      <c r="C562" t="s">
+        <v>27</v>
+      </c>
+      <c r="D562" t="s">
+        <v>28</v>
+      </c>
+      <c r="E562">
+        <v>124</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>87</v>
+      </c>
+      <c r="H562">
+        <v>56</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562">
+        <v>12</v>
+      </c>
+      <c r="K562">
+        <v>0</v>
+      </c>
+      <c r="L562">
+        <v>8</v>
+      </c>
+      <c r="M562" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B563" t="s">
+        <v>53</v>
+      </c>
+      <c r="C563" t="s">
+        <v>54</v>
+      </c>
+      <c r="D563" t="s">
+        <v>55</v>
+      </c>
+      <c r="E563">
+        <v>119</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>84</v>
+      </c>
+      <c r="H563">
+        <v>52</v>
+      </c>
+      <c r="I563">
+        <v>0</v>
+      </c>
+      <c r="J563">
+        <v>4</v>
+      </c>
+      <c r="K563">
+        <v>0</v>
+      </c>
+      <c r="L563">
+        <v>2</v>
+      </c>
+      <c r="M563" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B564" t="s">
+        <v>29</v>
+      </c>
+      <c r="C564" t="s">
+        <v>30</v>
+      </c>
+      <c r="D564" t="s">
+        <v>31</v>
+      </c>
+      <c r="E564">
+        <v>1328</v>
+      </c>
+      <c r="F564">
+        <v>977</v>
+      </c>
+      <c r="G564">
+        <v>94</v>
+      </c>
+      <c r="H564">
+        <v>60</v>
+      </c>
+      <c r="I564">
+        <v>7</v>
+      </c>
+      <c r="J564">
+        <v>131</v>
+      </c>
+      <c r="K564">
+        <v>2</v>
+      </c>
+      <c r="L564">
+        <v>125</v>
+      </c>
+      <c r="M564" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B565" t="s">
+        <v>32</v>
+      </c>
+      <c r="C565" t="s">
+        <v>33</v>
+      </c>
+      <c r="D565" t="s">
+        <v>34</v>
+      </c>
+      <c r="E565">
+        <v>124</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>80</v>
+      </c>
+      <c r="H565">
+        <v>71</v>
+      </c>
+      <c r="I565">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>4</v>
+      </c>
+      <c r="K565">
+        <v>0</v>
+      </c>
+      <c r="L565">
+        <v>2</v>
+      </c>
+      <c r="M565" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B566" t="s">
+        <v>35</v>
+      </c>
+      <c r="C566" t="s">
+        <v>36</v>
+      </c>
+      <c r="D566" t="s">
+        <v>37</v>
+      </c>
+      <c r="E566">
+        <v>153</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>104</v>
+      </c>
+      <c r="H566">
+        <v>93</v>
+      </c>
+      <c r="I566">
+        <v>0</v>
+      </c>
+      <c r="J566">
+        <v>10</v>
+      </c>
+      <c r="K566">
+        <v>0</v>
+      </c>
+      <c r="L566">
+        <v>9</v>
+      </c>
+      <c r="M566" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B567" t="s">
+        <v>40</v>
+      </c>
+      <c r="C567" t="s">
+        <v>41</v>
+      </c>
+      <c r="D567" t="s">
+        <v>42</v>
+      </c>
+      <c r="E567">
+        <v>142</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>101</v>
+      </c>
+      <c r="H567">
+        <v>91</v>
+      </c>
+      <c r="I567">
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>12</v>
+      </c>
+      <c r="K567">
+        <v>0</v>
+      </c>
+      <c r="L567">
+        <v>8</v>
+      </c>
+      <c r="M567" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B568" t="s">
+        <v>43</v>
+      </c>
+      <c r="C568" t="s">
+        <v>44</v>
+      </c>
+      <c r="D568" t="s">
+        <v>45</v>
+      </c>
+      <c r="E568">
+        <v>1477</v>
+      </c>
+      <c r="F568">
+        <v>1162</v>
+      </c>
+      <c r="G568">
+        <v>127</v>
+      </c>
+      <c r="H568">
+        <v>104</v>
+      </c>
+      <c r="I568">
+        <v>6</v>
+      </c>
+      <c r="J568">
+        <v>136</v>
+      </c>
+      <c r="K568">
+        <v>15</v>
+      </c>
+      <c r="L568">
+        <v>132</v>
+      </c>
+      <c r="M568" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B569" t="s">
+        <v>47</v>
+      </c>
+      <c r="C569" t="s">
+        <v>48</v>
+      </c>
+      <c r="D569" t="s">
+        <v>49</v>
+      </c>
+      <c r="E569">
+        <v>7391</v>
+      </c>
+      <c r="F569">
+        <v>950</v>
+      </c>
+      <c r="G569">
+        <v>4165</v>
+      </c>
+      <c r="H569">
+        <v>198</v>
+      </c>
+      <c r="I569">
+        <v>10</v>
+      </c>
+      <c r="J569">
+        <v>350</v>
+      </c>
+      <c r="K569">
+        <v>4061</v>
+      </c>
+      <c r="L569">
+        <v>202</v>
+      </c>
+      <c r="M569" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B570" t="s">
+        <v>50</v>
+      </c>
+      <c r="C570" t="s">
+        <v>51</v>
+      </c>
+      <c r="D570" t="s">
+        <v>52</v>
+      </c>
+      <c r="E570">
+        <v>876</v>
+      </c>
+      <c r="F570">
+        <v>346</v>
+      </c>
+      <c r="G570">
+        <v>309</v>
+      </c>
+      <c r="H570">
+        <v>118</v>
+      </c>
+      <c r="I570">
+        <v>13</v>
+      </c>
+      <c r="J570">
+        <v>77</v>
+      </c>
+      <c r="K570">
+        <v>207</v>
+      </c>
+      <c r="L570">
+        <v>62</v>
+      </c>
+      <c r="M570" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B571" t="s">
+        <v>56</v>
+      </c>
+      <c r="C571" t="s">
+        <v>57</v>
+      </c>
+      <c r="D571" t="s">
+        <v>58</v>
+      </c>
+      <c r="E571">
+        <v>852</v>
+      </c>
+      <c r="F571">
+        <v>225</v>
+      </c>
+      <c r="G571">
+        <v>381</v>
+      </c>
+      <c r="H571">
+        <v>142</v>
+      </c>
+      <c r="I571">
+        <v>17</v>
+      </c>
+      <c r="J571">
+        <v>57</v>
+      </c>
+      <c r="K571">
+        <v>252</v>
+      </c>
+      <c r="L571">
+        <v>47</v>
+      </c>
+      <c r="M571" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B572" t="s">
+        <v>59</v>
+      </c>
+      <c r="C572" t="s">
+        <v>60</v>
+      </c>
+      <c r="D572" t="s">
+        <v>61</v>
+      </c>
+      <c r="E572">
+        <v>6361</v>
+      </c>
+      <c r="F572">
+        <v>1078</v>
+      </c>
+      <c r="G572">
+        <v>3164</v>
+      </c>
+      <c r="H572">
+        <v>258</v>
+      </c>
+      <c r="I572">
+        <v>107</v>
+      </c>
+      <c r="J572">
+        <v>295</v>
+      </c>
+      <c r="K572">
+        <v>3010</v>
+      </c>
+      <c r="L572">
+        <v>224</v>
+      </c>
+      <c r="M572" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
